--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2822700</v>
+        <v>3261500</v>
       </c>
       <c r="E8" s="3">
-        <v>1345000</v>
+        <v>2927900</v>
       </c>
       <c r="F8" s="3">
-        <v>1528600</v>
+        <v>1395100</v>
       </c>
       <c r="G8" s="3">
-        <v>1366500</v>
+        <v>1585500</v>
       </c>
       <c r="H8" s="3">
-        <v>1525500</v>
+        <v>1417400</v>
       </c>
       <c r="I8" s="3">
-        <v>1098400</v>
+        <v>1582300</v>
       </c>
       <c r="J8" s="3">
+        <v>1139300</v>
+      </c>
+      <c r="K8" s="3">
         <v>945000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2288400</v>
+        <v>2465700</v>
       </c>
       <c r="E9" s="3">
-        <v>1354700</v>
+        <v>2373700</v>
       </c>
       <c r="F9" s="3">
-        <v>1457400</v>
+        <v>1405200</v>
       </c>
       <c r="G9" s="3">
-        <v>1305400</v>
+        <v>1511700</v>
       </c>
       <c r="H9" s="3">
-        <v>1367300</v>
+        <v>1354000</v>
       </c>
       <c r="I9" s="3">
-        <v>1066200</v>
+        <v>1418300</v>
       </c>
       <c r="J9" s="3">
+        <v>1105900</v>
+      </c>
+      <c r="K9" s="3">
         <v>788400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>534300</v>
+        <v>795800</v>
       </c>
       <c r="E10" s="3">
-        <v>-9700</v>
+        <v>554200</v>
       </c>
       <c r="F10" s="3">
-        <v>71200</v>
+        <v>-10000</v>
       </c>
       <c r="G10" s="3">
-        <v>61100</v>
+        <v>73800</v>
       </c>
       <c r="H10" s="3">
-        <v>158200</v>
+        <v>63400</v>
       </c>
       <c r="I10" s="3">
-        <v>32200</v>
+        <v>164100</v>
       </c>
       <c r="J10" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K10" s="3">
         <v>156700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,11 +854,14 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,37 +889,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>54400</v>
+        <v>20900</v>
       </c>
       <c r="E14" s="3">
-        <v>-15400</v>
+        <v>56400</v>
       </c>
       <c r="F14" s="3">
-        <v>185100</v>
+        <v>-15900</v>
       </c>
       <c r="G14" s="3">
-        <v>19800</v>
+        <v>192000</v>
       </c>
       <c r="H14" s="3">
-        <v>134100</v>
+        <v>20600</v>
       </c>
       <c r="I14" s="3">
-        <v>191200</v>
+        <v>139100</v>
       </c>
       <c r="J14" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-81400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2354200</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>1348600</v>
+        <v>2442000</v>
       </c>
       <c r="F17" s="3">
-        <v>1651900</v>
+        <v>1398900</v>
       </c>
       <c r="G17" s="3">
-        <v>1332900</v>
+        <v>1713500</v>
       </c>
       <c r="H17" s="3">
-        <v>1508100</v>
+        <v>1382600</v>
       </c>
       <c r="I17" s="3">
-        <v>1264000</v>
+        <v>1564300</v>
       </c>
       <c r="J17" s="3">
+        <v>1311200</v>
+      </c>
+      <c r="K17" s="3">
         <v>727500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>468500</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-3600</v>
+        <v>485900</v>
       </c>
       <c r="F18" s="3">
-        <v>-123400</v>
+        <v>-3800</v>
       </c>
       <c r="G18" s="3">
-        <v>33600</v>
+        <v>-128000</v>
       </c>
       <c r="H18" s="3">
-        <v>17400</v>
+        <v>34800</v>
       </c>
       <c r="I18" s="3">
-        <v>-165700</v>
+        <v>18100</v>
       </c>
       <c r="J18" s="3">
+        <v>-171800</v>
+      </c>
+      <c r="K18" s="3">
         <v>217600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1044,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-354000</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-79200</v>
+        <v>-367200</v>
       </c>
       <c r="F20" s="3">
-        <v>96400</v>
+        <v>-82100</v>
       </c>
       <c r="G20" s="3">
-        <v>31900</v>
+        <v>100000</v>
       </c>
       <c r="H20" s="3">
-        <v>-74000</v>
+        <v>33100</v>
       </c>
       <c r="I20" s="3">
-        <v>-65500</v>
+        <v>-76800</v>
       </c>
       <c r="J20" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>192400</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>84300</v>
+        <v>199600</v>
       </c>
       <c r="F21" s="3">
-        <v>-2700</v>
+        <v>87500</v>
       </c>
       <c r="G21" s="3">
-        <v>242300</v>
+        <v>-2800</v>
       </c>
       <c r="H21" s="3">
-        <v>-16200</v>
+        <v>251400</v>
       </c>
       <c r="I21" s="3">
-        <v>-88500</v>
+        <v>-16800</v>
       </c>
       <c r="J21" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="K21" s="3">
         <v>217300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>56000</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>49900</v>
+        <v>58100</v>
       </c>
       <c r="F22" s="3">
-        <v>64500</v>
+        <v>51800</v>
       </c>
       <c r="G22" s="3">
-        <v>56100</v>
+        <v>66900</v>
       </c>
       <c r="H22" s="3">
-        <v>67000</v>
+        <v>58200</v>
       </c>
       <c r="I22" s="3">
-        <v>66900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>69500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>69400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58400</v>
+        <v>698400</v>
       </c>
       <c r="E23" s="3">
-        <v>-132700</v>
+        <v>60600</v>
       </c>
       <c r="F23" s="3">
-        <v>-91400</v>
+        <v>-137700</v>
       </c>
       <c r="G23" s="3">
-        <v>9300</v>
+        <v>-94800</v>
       </c>
       <c r="H23" s="3">
-        <v>-123600</v>
+        <v>9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-298200</v>
+        <v>-128200</v>
       </c>
       <c r="J23" s="3">
+        <v>-309300</v>
+      </c>
+      <c r="K23" s="3">
         <v>208700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23300</v>
+        <v>-121600</v>
       </c>
       <c r="E24" s="3">
-        <v>-122400</v>
+        <v>24200</v>
       </c>
       <c r="F24" s="3">
-        <v>57100</v>
+        <v>-126900</v>
       </c>
       <c r="G24" s="3">
-        <v>4800</v>
+        <v>59200</v>
       </c>
       <c r="H24" s="3">
-        <v>-144700</v>
+        <v>5000</v>
       </c>
       <c r="I24" s="3">
-        <v>-23700</v>
+        <v>-150100</v>
       </c>
       <c r="J24" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K24" s="3">
         <v>39800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35100</v>
+        <v>576800</v>
       </c>
       <c r="E26" s="3">
-        <v>-10400</v>
+        <v>36400</v>
       </c>
       <c r="F26" s="3">
-        <v>-148500</v>
+        <v>-10700</v>
       </c>
       <c r="G26" s="3">
-        <v>4500</v>
+        <v>-154100</v>
       </c>
       <c r="H26" s="3">
-        <v>21100</v>
+        <v>4600</v>
       </c>
       <c r="I26" s="3">
-        <v>-274500</v>
+        <v>21900</v>
       </c>
       <c r="J26" s="3">
+        <v>-284700</v>
+      </c>
+      <c r="K26" s="3">
         <v>168900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>18700</v>
+        <v>556300</v>
       </c>
       <c r="E27" s="3">
-        <v>-15200</v>
+        <v>19400</v>
       </c>
       <c r="F27" s="3">
-        <v>-147200</v>
+        <v>-15700</v>
       </c>
       <c r="G27" s="3">
-        <v>4400</v>
+        <v>-152700</v>
       </c>
       <c r="H27" s="3">
-        <v>20900</v>
+        <v>4500</v>
       </c>
       <c r="I27" s="3">
-        <v>-274500</v>
+        <v>21700</v>
       </c>
       <c r="J27" s="3">
+        <v>-284800</v>
+      </c>
+      <c r="K27" s="3">
         <v>179500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>354000</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>79200</v>
+        <v>367200</v>
       </c>
       <c r="F32" s="3">
-        <v>-96400</v>
+        <v>82100</v>
       </c>
       <c r="G32" s="3">
-        <v>-31900</v>
+        <v>-100000</v>
       </c>
       <c r="H32" s="3">
-        <v>74000</v>
+        <v>-33100</v>
       </c>
       <c r="I32" s="3">
-        <v>65500</v>
+        <v>76800</v>
       </c>
       <c r="J32" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K32" s="3">
         <v>8900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>18700</v>
+        <v>556300</v>
       </c>
       <c r="E33" s="3">
-        <v>-15200</v>
+        <v>19400</v>
       </c>
       <c r="F33" s="3">
-        <v>-147200</v>
+        <v>-15700</v>
       </c>
       <c r="G33" s="3">
-        <v>4400</v>
+        <v>-152700</v>
       </c>
       <c r="H33" s="3">
-        <v>20900</v>
+        <v>4500</v>
       </c>
       <c r="I33" s="3">
-        <v>-274500</v>
+        <v>21700</v>
       </c>
       <c r="J33" s="3">
+        <v>-284800</v>
+      </c>
+      <c r="K33" s="3">
         <v>179500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>18700</v>
+        <v>556300</v>
       </c>
       <c r="E35" s="3">
-        <v>-15200</v>
+        <v>19400</v>
       </c>
       <c r="F35" s="3">
-        <v>-147200</v>
+        <v>-15700</v>
       </c>
       <c r="G35" s="3">
-        <v>4400</v>
+        <v>-152700</v>
       </c>
       <c r="H35" s="3">
-        <v>20900</v>
+        <v>4500</v>
       </c>
       <c r="I35" s="3">
-        <v>-274500</v>
+        <v>21700</v>
       </c>
       <c r="J35" s="3">
+        <v>-284800</v>
+      </c>
+      <c r="K35" s="3">
         <v>179500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1621,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>321100</v>
+        <v>713800</v>
       </c>
       <c r="E41" s="3">
-        <v>342900</v>
+        <v>333100</v>
       </c>
       <c r="F41" s="3">
-        <v>145700</v>
+        <v>355700</v>
       </c>
       <c r="G41" s="3">
-        <v>120000</v>
+        <v>151100</v>
       </c>
       <c r="H41" s="3">
-        <v>117900</v>
+        <v>124500</v>
       </c>
       <c r="I41" s="3">
-        <v>372800</v>
+        <v>122300</v>
       </c>
       <c r="J41" s="3">
+        <v>386700</v>
+      </c>
+      <c r="K41" s="3">
         <v>55300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,211 +1683,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>288100</v>
+        <v>286500</v>
       </c>
       <c r="E43" s="3">
-        <v>314300</v>
+        <v>298800</v>
       </c>
       <c r="F43" s="3">
-        <v>420100</v>
+        <v>326000</v>
       </c>
       <c r="G43" s="3">
-        <v>374100</v>
+        <v>435800</v>
       </c>
       <c r="H43" s="3">
-        <v>366700</v>
+        <v>388000</v>
       </c>
       <c r="I43" s="3">
-        <v>333900</v>
+        <v>380300</v>
       </c>
       <c r="J43" s="3">
+        <v>346400</v>
+      </c>
+      <c r="K43" s="3">
         <v>346200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>886000</v>
+        <v>997300</v>
       </c>
       <c r="E44" s="3">
-        <v>809700</v>
+        <v>919000</v>
       </c>
       <c r="F44" s="3">
-        <v>302600</v>
+        <v>839900</v>
       </c>
       <c r="G44" s="3">
-        <v>242000</v>
+        <v>313900</v>
       </c>
       <c r="H44" s="3">
-        <v>201500</v>
+        <v>251100</v>
       </c>
       <c r="I44" s="3">
-        <v>169300</v>
+        <v>209100</v>
       </c>
       <c r="J44" s="3">
+        <v>175600</v>
+      </c>
+      <c r="K44" s="3">
         <v>38700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>6900</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>72600</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>75300</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1495300</v>
+        <v>1997500</v>
       </c>
       <c r="E46" s="3">
-        <v>1473800</v>
+        <v>1551000</v>
       </c>
       <c r="F46" s="3">
-        <v>868400</v>
+        <v>1528700</v>
       </c>
       <c r="G46" s="3">
-        <v>808700</v>
+        <v>900800</v>
       </c>
       <c r="H46" s="3">
-        <v>686100</v>
+        <v>838800</v>
       </c>
       <c r="I46" s="3">
-        <v>876000</v>
+        <v>711600</v>
       </c>
       <c r="J46" s="3">
+        <v>908600</v>
+      </c>
+      <c r="K46" s="3">
         <v>440200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>269900</v>
+        <v>362200</v>
       </c>
       <c r="E47" s="3">
-        <v>264400</v>
+        <v>279900</v>
       </c>
       <c r="F47" s="3">
-        <v>231400</v>
+        <v>274300</v>
       </c>
       <c r="G47" s="3">
-        <v>170000</v>
+        <v>240000</v>
       </c>
       <c r="H47" s="3">
-        <v>144500</v>
+        <v>176300</v>
       </c>
       <c r="I47" s="3">
-        <v>149700</v>
+        <v>149900</v>
       </c>
       <c r="J47" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K47" s="3">
         <v>143600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3305600</v>
+        <v>3925600</v>
       </c>
       <c r="E48" s="3">
-        <v>3264300</v>
+        <v>3428800</v>
       </c>
       <c r="F48" s="3">
-        <v>3118000</v>
+        <v>3385900</v>
       </c>
       <c r="G48" s="3">
-        <v>3040600</v>
+        <v>3234200</v>
       </c>
       <c r="H48" s="3">
-        <v>2940100</v>
+        <v>3154000</v>
       </c>
       <c r="I48" s="3">
-        <v>3107700</v>
+        <v>3049600</v>
       </c>
       <c r="J48" s="3">
+        <v>3223500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1556800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>391800</v>
+        <v>495700</v>
       </c>
       <c r="E49" s="3">
-        <v>394000</v>
+        <v>406400</v>
       </c>
       <c r="F49" s="3">
-        <v>393700</v>
+        <v>408700</v>
       </c>
       <c r="G49" s="3">
-        <v>400700</v>
+        <v>408400</v>
       </c>
       <c r="H49" s="3">
-        <v>365500</v>
+        <v>415700</v>
       </c>
       <c r="I49" s="3">
-        <v>389200</v>
+        <v>379200</v>
       </c>
       <c r="J49" s="3">
+        <v>403700</v>
+      </c>
+      <c r="K49" s="3">
         <v>53500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>313700</v>
+        <v>345800</v>
       </c>
       <c r="E52" s="3">
-        <v>278700</v>
+        <v>325400</v>
       </c>
       <c r="F52" s="3">
-        <v>241800</v>
+        <v>289100</v>
       </c>
       <c r="G52" s="3">
-        <v>213900</v>
+        <v>250800</v>
       </c>
       <c r="H52" s="3">
-        <v>211400</v>
+        <v>221800</v>
       </c>
       <c r="I52" s="3">
-        <v>194800</v>
+        <v>219300</v>
       </c>
       <c r="J52" s="3">
+        <v>202100</v>
+      </c>
+      <c r="K52" s="3">
         <v>190200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5776300</v>
+        <v>7126800</v>
       </c>
       <c r="E54" s="3">
-        <v>5675200</v>
+        <v>5991500</v>
       </c>
       <c r="F54" s="3">
-        <v>4853300</v>
+        <v>5886700</v>
       </c>
       <c r="G54" s="3">
-        <v>4634000</v>
+        <v>5034200</v>
       </c>
       <c r="H54" s="3">
-        <v>4347500</v>
+        <v>4806700</v>
       </c>
       <c r="I54" s="3">
-        <v>4717400</v>
+        <v>4509500</v>
       </c>
       <c r="J54" s="3">
+        <v>4893200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2384400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2097,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>655300</v>
+        <v>700600</v>
       </c>
       <c r="E57" s="3">
-        <v>639500</v>
+        <v>679700</v>
       </c>
       <c r="F57" s="3">
-        <v>449000</v>
+        <v>663300</v>
       </c>
       <c r="G57" s="3">
-        <v>390600</v>
+        <v>465700</v>
       </c>
       <c r="H57" s="3">
-        <v>382400</v>
+        <v>405100</v>
       </c>
       <c r="I57" s="3">
-        <v>408800</v>
+        <v>396600</v>
       </c>
       <c r="J57" s="3">
+        <v>424000</v>
+      </c>
+      <c r="K57" s="3">
         <v>296100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8500</v>
+        <v>81500</v>
       </c>
       <c r="E58" s="3">
-        <v>317000</v>
+        <v>8800</v>
       </c>
       <c r="F58" s="3">
-        <v>353700</v>
+        <v>328800</v>
       </c>
       <c r="G58" s="3">
-        <v>19100</v>
+        <v>366800</v>
       </c>
       <c r="H58" s="3">
-        <v>94700</v>
+        <v>19800</v>
       </c>
       <c r="I58" s="3">
-        <v>432700</v>
+        <v>98300</v>
       </c>
       <c r="J58" s="3">
+        <v>448900</v>
+      </c>
+      <c r="K58" s="3">
         <v>43000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155000</v>
+        <v>235000</v>
       </c>
       <c r="E59" s="3">
-        <v>210800</v>
+        <v>160800</v>
       </c>
       <c r="F59" s="3">
-        <v>33600</v>
+        <v>218700</v>
       </c>
       <c r="G59" s="3">
-        <v>27500</v>
+        <v>34900</v>
       </c>
       <c r="H59" s="3">
-        <v>5100</v>
+        <v>28500</v>
       </c>
       <c r="I59" s="3">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="J59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K59" s="3">
         <v>18500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>818800</v>
+        <v>1017100</v>
       </c>
       <c r="E60" s="3">
-        <v>1167200</v>
+        <v>849300</v>
       </c>
       <c r="F60" s="3">
-        <v>836300</v>
+        <v>1210700</v>
       </c>
       <c r="G60" s="3">
-        <v>437200</v>
+        <v>867400</v>
       </c>
       <c r="H60" s="3">
-        <v>482200</v>
+        <v>453500</v>
       </c>
       <c r="I60" s="3">
-        <v>849500</v>
+        <v>500200</v>
       </c>
       <c r="J60" s="3">
+        <v>881200</v>
+      </c>
+      <c r="K60" s="3">
         <v>357600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1369900</v>
+        <v>1501600</v>
       </c>
       <c r="E61" s="3">
-        <v>1255300</v>
+        <v>1421000</v>
       </c>
       <c r="F61" s="3">
-        <v>1046800</v>
+        <v>1302100</v>
       </c>
       <c r="G61" s="3">
-        <v>1620700</v>
+        <v>1085800</v>
       </c>
       <c r="H61" s="3">
-        <v>1371100</v>
+        <v>1681100</v>
       </c>
       <c r="I61" s="3">
-        <v>1293700</v>
+        <v>1422200</v>
       </c>
       <c r="J61" s="3">
+        <v>1341900</v>
+      </c>
+      <c r="K61" s="3">
         <v>469900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1808000</v>
+        <v>1879900</v>
       </c>
       <c r="E62" s="3">
-        <v>1523000</v>
+        <v>1875400</v>
       </c>
       <c r="F62" s="3">
-        <v>1557300</v>
+        <v>1579800</v>
       </c>
       <c r="G62" s="3">
-        <v>1118100</v>
+        <v>1615400</v>
       </c>
       <c r="H62" s="3">
-        <v>1122600</v>
+        <v>1159700</v>
       </c>
       <c r="I62" s="3">
-        <v>1198900</v>
+        <v>1164500</v>
       </c>
       <c r="J62" s="3">
+        <v>1243600</v>
+      </c>
+      <c r="K62" s="3">
         <v>615700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4080600</v>
+        <v>4398600</v>
       </c>
       <c r="E66" s="3">
-        <v>4018200</v>
+        <v>4232700</v>
       </c>
       <c r="F66" s="3">
-        <v>3493800</v>
+        <v>4167900</v>
       </c>
       <c r="G66" s="3">
-        <v>3177100</v>
+        <v>3624100</v>
       </c>
       <c r="H66" s="3">
-        <v>2977100</v>
+        <v>3295500</v>
       </c>
       <c r="I66" s="3">
-        <v>3343100</v>
+        <v>3088100</v>
       </c>
       <c r="J66" s="3">
+        <v>3467700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1444200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-628200</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>-666800</v>
+        <v>-651600</v>
       </c>
       <c r="F72" s="3">
-        <v>-621700</v>
+        <v>-691700</v>
       </c>
       <c r="G72" s="3">
-        <v>-524400</v>
+        <v>-644900</v>
       </c>
       <c r="H72" s="3">
-        <v>-610900</v>
+        <v>-543900</v>
       </c>
       <c r="I72" s="3">
-        <v>-608600</v>
+        <v>-633600</v>
       </c>
       <c r="J72" s="3">
+        <v>-631300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-301900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1695700</v>
+        <v>2728200</v>
       </c>
       <c r="E76" s="3">
-        <v>1657000</v>
+        <v>1758900</v>
       </c>
       <c r="F76" s="3">
-        <v>1359500</v>
+        <v>1718800</v>
       </c>
       <c r="G76" s="3">
-        <v>1456900</v>
+        <v>1410200</v>
       </c>
       <c r="H76" s="3">
-        <v>1370400</v>
+        <v>1511200</v>
       </c>
       <c r="I76" s="3">
-        <v>1374300</v>
+        <v>1421400</v>
       </c>
       <c r="J76" s="3">
+        <v>1425600</v>
+      </c>
+      <c r="K76" s="3">
         <v>940200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>18700</v>
+        <v>556300</v>
       </c>
       <c r="E81" s="3">
-        <v>-15200</v>
+        <v>19400</v>
       </c>
       <c r="F81" s="3">
-        <v>-147200</v>
+        <v>-15700</v>
       </c>
       <c r="G81" s="3">
-        <v>4400</v>
+        <v>-152700</v>
       </c>
       <c r="H81" s="3">
-        <v>20900</v>
+        <v>4500</v>
       </c>
       <c r="I81" s="3">
-        <v>-274500</v>
+        <v>21700</v>
       </c>
       <c r="J81" s="3">
+        <v>-284800</v>
+      </c>
+      <c r="K81" s="3">
         <v>179500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>465000</v>
+        <v>852900</v>
       </c>
       <c r="E89" s="3">
-        <v>75800</v>
+        <v>482300</v>
       </c>
       <c r="F89" s="3">
-        <v>563700</v>
+        <v>78700</v>
       </c>
       <c r="G89" s="3">
-        <v>133400</v>
+        <v>584700</v>
       </c>
       <c r="H89" s="3">
-        <v>94200</v>
+        <v>138300</v>
       </c>
       <c r="I89" s="3">
-        <v>62400</v>
+        <v>97700</v>
       </c>
       <c r="J89" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K89" s="3">
         <v>110500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-292800</v>
+        <v>-245100</v>
       </c>
       <c r="E91" s="3">
-        <v>-147600</v>
+        <v>-303700</v>
       </c>
       <c r="F91" s="3">
-        <v>-229400</v>
+        <v>-153100</v>
       </c>
       <c r="G91" s="3">
-        <v>-175200</v>
+        <v>-238000</v>
       </c>
       <c r="H91" s="3">
-        <v>-206600</v>
+        <v>-181700</v>
       </c>
       <c r="I91" s="3">
-        <v>-142000</v>
+        <v>-214300</v>
       </c>
       <c r="J91" s="3">
+        <v>-147300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-136600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-290900</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
-        <v>12900</v>
+        <v>-301800</v>
       </c>
       <c r="F94" s="3">
-        <v>-269400</v>
+        <v>13400</v>
       </c>
       <c r="G94" s="3">
-        <v>-173100</v>
+        <v>-279400</v>
       </c>
       <c r="H94" s="3">
-        <v>-211200</v>
+        <v>-179600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1397300</v>
+        <v>-219000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1449400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-223500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-316200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-202700</v>
+        <v>-181800</v>
       </c>
       <c r="E100" s="3">
-        <v>118700</v>
+        <v>-210300</v>
       </c>
       <c r="F100" s="3">
-        <v>-268700</v>
+        <v>123100</v>
       </c>
       <c r="G100" s="3">
-        <v>34300</v>
+        <v>-278700</v>
       </c>
       <c r="H100" s="3">
-        <v>-126200</v>
+        <v>35600</v>
       </c>
       <c r="I100" s="3">
-        <v>1658200</v>
+        <v>-130900</v>
       </c>
       <c r="J100" s="3">
+        <v>1720000</v>
+      </c>
+      <c r="K100" s="3">
         <v>118600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6900</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
-        <v>-10200</v>
+        <v>7100</v>
       </c>
       <c r="F101" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>7500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-11700</v>
+        <v>7800</v>
       </c>
       <c r="I101" s="3">
-        <v>-5900</v>
+        <v>-12200</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-21800</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>197200</v>
+        <v>-22600</v>
       </c>
       <c r="F102" s="3">
-        <v>25700</v>
+        <v>204600</v>
       </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>26600</v>
       </c>
       <c r="H102" s="3">
-        <v>-254900</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="3">
-        <v>317500</v>
+        <v>-264400</v>
       </c>
       <c r="J102" s="3">
+        <v>329300</v>
+      </c>
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3261500</v>
+        <v>3607000</v>
       </c>
       <c r="E8" s="3">
-        <v>2927900</v>
+        <v>3238000</v>
       </c>
       <c r="F8" s="3">
-        <v>1395100</v>
+        <v>1542900</v>
       </c>
       <c r="G8" s="3">
-        <v>1585500</v>
+        <v>1753500</v>
       </c>
       <c r="H8" s="3">
-        <v>1417400</v>
+        <v>1567500</v>
       </c>
       <c r="I8" s="3">
-        <v>1582300</v>
+        <v>1750000</v>
       </c>
       <c r="J8" s="3">
-        <v>1139300</v>
+        <v>1260000</v>
       </c>
       <c r="K8" s="3">
         <v>945000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2465700</v>
+        <v>2726900</v>
       </c>
       <c r="E9" s="3">
-        <v>2373700</v>
+        <v>2625100</v>
       </c>
       <c r="F9" s="3">
-        <v>1405200</v>
+        <v>1554000</v>
       </c>
       <c r="G9" s="3">
-        <v>1511700</v>
+        <v>1671800</v>
       </c>
       <c r="H9" s="3">
-        <v>1354000</v>
+        <v>1497400</v>
       </c>
       <c r="I9" s="3">
-        <v>1418300</v>
+        <v>1568500</v>
       </c>
       <c r="J9" s="3">
-        <v>1105900</v>
+        <v>1223100</v>
       </c>
       <c r="K9" s="3">
         <v>788400</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>795800</v>
+        <v>880100</v>
       </c>
       <c r="E10" s="3">
-        <v>554200</v>
+        <v>612900</v>
       </c>
       <c r="F10" s="3">
-        <v>-10000</v>
+        <v>-11100</v>
       </c>
       <c r="G10" s="3">
-        <v>73800</v>
+        <v>81700</v>
       </c>
       <c r="H10" s="3">
-        <v>63400</v>
+        <v>70100</v>
       </c>
       <c r="I10" s="3">
-        <v>164100</v>
+        <v>181500</v>
       </c>
       <c r="J10" s="3">
-        <v>33400</v>
+        <v>36900</v>
       </c>
       <c r="K10" s="3">
         <v>156700</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20900</v>
+        <v>27000</v>
       </c>
       <c r="E14" s="3">
-        <v>56400</v>
+        <v>62400</v>
       </c>
       <c r="F14" s="3">
-        <v>-15900</v>
+        <v>-18300</v>
       </c>
       <c r="G14" s="3">
-        <v>192000</v>
+        <v>212400</v>
       </c>
       <c r="H14" s="3">
-        <v>20600</v>
+        <v>22700</v>
       </c>
       <c r="I14" s="3">
-        <v>139100</v>
+        <v>153900</v>
       </c>
       <c r="J14" s="3">
-        <v>198300</v>
+        <v>219300</v>
       </c>
       <c r="K14" s="3">
         <v>-81400</v>
@@ -972,26 +972,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>2773400</v>
       </c>
       <c r="E17" s="3">
-        <v>2442000</v>
+        <v>2700700</v>
       </c>
       <c r="F17" s="3">
-        <v>1398900</v>
+        <v>1546400</v>
       </c>
       <c r="G17" s="3">
-        <v>1713500</v>
+        <v>1895000</v>
       </c>
       <c r="H17" s="3">
-        <v>1382600</v>
+        <v>1529000</v>
       </c>
       <c r="I17" s="3">
-        <v>1564300</v>
+        <v>1730000</v>
       </c>
       <c r="J17" s="3">
-        <v>1311200</v>
+        <v>1450100</v>
       </c>
       <c r="K17" s="3">
         <v>727500</v>
@@ -1004,26 +1004,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>833600</v>
       </c>
       <c r="E18" s="3">
-        <v>485900</v>
+        <v>537400</v>
       </c>
       <c r="F18" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-128000</v>
+        <v>-141500</v>
       </c>
       <c r="H18" s="3">
-        <v>34800</v>
+        <v>38500</v>
       </c>
       <c r="I18" s="3">
-        <v>18100</v>
+        <v>20000</v>
       </c>
       <c r="J18" s="3">
-        <v>-171800</v>
+        <v>-190100</v>
       </c>
       <c r="K18" s="3">
         <v>217600</v>
@@ -1050,26 +1050,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-367200</v>
+        <v>-406200</v>
       </c>
       <c r="F20" s="3">
-        <v>-82100</v>
+        <v>-90800</v>
       </c>
       <c r="G20" s="3">
-        <v>100000</v>
+        <v>110600</v>
       </c>
       <c r="H20" s="3">
-        <v>33100</v>
+        <v>36600</v>
       </c>
       <c r="I20" s="3">
-        <v>-76800</v>
+        <v>-84900</v>
       </c>
       <c r="J20" s="3">
-        <v>-68000</v>
+        <v>-75200</v>
       </c>
       <c r="K20" s="3">
         <v>-8900</v>
@@ -1082,26 +1082,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1062700</v>
       </c>
       <c r="E21" s="3">
-        <v>199600</v>
+        <v>220700</v>
       </c>
       <c r="F21" s="3">
-        <v>87500</v>
+        <v>97400</v>
       </c>
       <c r="G21" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="H21" s="3">
-        <v>251400</v>
+        <v>278000</v>
       </c>
       <c r="I21" s="3">
-        <v>-16800</v>
+        <v>-18600</v>
       </c>
       <c r="J21" s="3">
-        <v>-91800</v>
+        <v>-101600</v>
       </c>
       <c r="K21" s="3">
         <v>217300</v>
@@ -1114,26 +1114,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>64500</v>
       </c>
       <c r="E22" s="3">
-        <v>58100</v>
+        <v>64200</v>
       </c>
       <c r="F22" s="3">
-        <v>51800</v>
+        <v>57300</v>
       </c>
       <c r="G22" s="3">
-        <v>66900</v>
+        <v>74000</v>
       </c>
       <c r="H22" s="3">
-        <v>58200</v>
+        <v>64400</v>
       </c>
       <c r="I22" s="3">
-        <v>69500</v>
+        <v>76900</v>
       </c>
       <c r="J22" s="3">
-        <v>69400</v>
+        <v>76800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1147,25 +1147,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>698400</v>
+        <v>772400</v>
       </c>
       <c r="E23" s="3">
-        <v>60600</v>
+        <v>67000</v>
       </c>
       <c r="F23" s="3">
-        <v>-137700</v>
+        <v>-151600</v>
       </c>
       <c r="G23" s="3">
-        <v>-94800</v>
+        <v>-104900</v>
       </c>
       <c r="H23" s="3">
-        <v>9700</v>
+        <v>10700</v>
       </c>
       <c r="I23" s="3">
-        <v>-128200</v>
+        <v>-141800</v>
       </c>
       <c r="J23" s="3">
-        <v>-309300</v>
+        <v>-342000</v>
       </c>
       <c r="K23" s="3">
         <v>208700</v>
@@ -1179,25 +1179,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-121600</v>
+        <v>134500</v>
       </c>
       <c r="E24" s="3">
-        <v>24200</v>
+        <v>26800</v>
       </c>
       <c r="F24" s="3">
-        <v>-126900</v>
+        <v>-140400</v>
       </c>
       <c r="G24" s="3">
-        <v>59200</v>
+        <v>65500</v>
       </c>
       <c r="H24" s="3">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="I24" s="3">
-        <v>-150100</v>
+        <v>-166000</v>
       </c>
       <c r="J24" s="3">
-        <v>-24600</v>
+        <v>-27200</v>
       </c>
       <c r="K24" s="3">
         <v>39800</v>
@@ -1243,25 +1243,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>576800</v>
+        <v>638000</v>
       </c>
       <c r="E26" s="3">
-        <v>36400</v>
+        <v>40300</v>
       </c>
       <c r="F26" s="3">
-        <v>-10700</v>
+        <v>-11200</v>
       </c>
       <c r="G26" s="3">
-        <v>-154100</v>
+        <v>-170400</v>
       </c>
       <c r="H26" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="I26" s="3">
-        <v>21900</v>
+        <v>24200</v>
       </c>
       <c r="J26" s="3">
-        <v>-284700</v>
+        <v>-314900</v>
       </c>
       <c r="K26" s="3">
         <v>168900</v>
@@ -1275,25 +1275,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>556300</v>
+        <v>615300</v>
       </c>
       <c r="E27" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F27" s="3">
-        <v>-15700</v>
+        <v>-16700</v>
       </c>
       <c r="G27" s="3">
-        <v>-152700</v>
+        <v>-168900</v>
       </c>
       <c r="H27" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="I27" s="3">
-        <v>21700</v>
+        <v>24000</v>
       </c>
       <c r="J27" s="3">
-        <v>-284800</v>
+        <v>-314900</v>
       </c>
       <c r="K27" s="3">
         <v>179500</v>
@@ -1434,26 +1434,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-3400</v>
       </c>
       <c r="E32" s="3">
-        <v>367200</v>
+        <v>406200</v>
       </c>
       <c r="F32" s="3">
-        <v>82100</v>
+        <v>90800</v>
       </c>
       <c r="G32" s="3">
-        <v>-100000</v>
+        <v>-110600</v>
       </c>
       <c r="H32" s="3">
-        <v>-33100</v>
+        <v>-36600</v>
       </c>
       <c r="I32" s="3">
-        <v>76800</v>
+        <v>84900</v>
       </c>
       <c r="J32" s="3">
-        <v>68000</v>
+        <v>75200</v>
       </c>
       <c r="K32" s="3">
         <v>8900</v>
@@ -1467,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>556300</v>
+        <v>615300</v>
       </c>
       <c r="E33" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F33" s="3">
-        <v>-15700</v>
+        <v>-16700</v>
       </c>
       <c r="G33" s="3">
-        <v>-152700</v>
+        <v>-168900</v>
       </c>
       <c r="H33" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="I33" s="3">
-        <v>21700</v>
+        <v>24000</v>
       </c>
       <c r="J33" s="3">
-        <v>-284800</v>
+        <v>-314900</v>
       </c>
       <c r="K33" s="3">
         <v>179500</v>
@@ -1531,25 +1531,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>556300</v>
+        <v>615300</v>
       </c>
       <c r="E35" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F35" s="3">
-        <v>-15700</v>
+        <v>-16700</v>
       </c>
       <c r="G35" s="3">
-        <v>-152700</v>
+        <v>-168900</v>
       </c>
       <c r="H35" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="3">
-        <v>21700</v>
+        <v>24000</v>
       </c>
       <c r="J35" s="3">
-        <v>-284800</v>
+        <v>-314900</v>
       </c>
       <c r="K35" s="3">
         <v>179500</v>
@@ -1628,25 +1628,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>713800</v>
+        <v>789400</v>
       </c>
       <c r="E41" s="3">
-        <v>333100</v>
+        <v>368400</v>
       </c>
       <c r="F41" s="3">
-        <v>355700</v>
+        <v>391000</v>
       </c>
       <c r="G41" s="3">
-        <v>151100</v>
+        <v>167100</v>
       </c>
       <c r="H41" s="3">
-        <v>124500</v>
+        <v>137600</v>
       </c>
       <c r="I41" s="3">
-        <v>122300</v>
+        <v>135200</v>
       </c>
       <c r="J41" s="3">
-        <v>386700</v>
+        <v>427700</v>
       </c>
       <c r="K41" s="3">
         <v>55300</v>
@@ -1692,25 +1692,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>286500</v>
+        <v>316800</v>
       </c>
       <c r="E43" s="3">
-        <v>298800</v>
+        <v>330500</v>
       </c>
       <c r="F43" s="3">
-        <v>326000</v>
+        <v>359100</v>
       </c>
       <c r="G43" s="3">
-        <v>435800</v>
+        <v>482000</v>
       </c>
       <c r="H43" s="3">
-        <v>388000</v>
+        <v>429100</v>
       </c>
       <c r="I43" s="3">
-        <v>380300</v>
+        <v>420600</v>
       </c>
       <c r="J43" s="3">
-        <v>346400</v>
+        <v>383000</v>
       </c>
       <c r="K43" s="3">
         <v>346200</v>
@@ -1724,25 +1724,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>997300</v>
+        <v>1102900</v>
       </c>
       <c r="E44" s="3">
-        <v>919000</v>
+        <v>1016400</v>
       </c>
       <c r="F44" s="3">
-        <v>839900</v>
+        <v>931600</v>
       </c>
       <c r="G44" s="3">
-        <v>313900</v>
+        <v>347100</v>
       </c>
       <c r="H44" s="3">
-        <v>251100</v>
+        <v>277700</v>
       </c>
       <c r="I44" s="3">
-        <v>209100</v>
+        <v>231200</v>
       </c>
       <c r="J44" s="3">
-        <v>175600</v>
+        <v>194200</v>
       </c>
       <c r="K44" s="3">
         <v>38700</v>
@@ -1755,20 +1755,20 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>75300</v>
+        <v>83300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1788,25 +1788,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1997500</v>
+        <v>2209100</v>
       </c>
       <c r="E46" s="3">
-        <v>1551000</v>
+        <v>1715300</v>
       </c>
       <c r="F46" s="3">
-        <v>1528700</v>
+        <v>1689700</v>
       </c>
       <c r="G46" s="3">
-        <v>900800</v>
+        <v>996200</v>
       </c>
       <c r="H46" s="3">
-        <v>838800</v>
+        <v>927700</v>
       </c>
       <c r="I46" s="3">
-        <v>711600</v>
+        <v>787000</v>
       </c>
       <c r="J46" s="3">
-        <v>908600</v>
+        <v>1004900</v>
       </c>
       <c r="K46" s="3">
         <v>440200</v>
@@ -1820,25 +1820,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>362200</v>
+        <v>400600</v>
       </c>
       <c r="E47" s="3">
-        <v>279900</v>
+        <v>309600</v>
       </c>
       <c r="F47" s="3">
-        <v>274300</v>
+        <v>295300</v>
       </c>
       <c r="G47" s="3">
-        <v>240000</v>
+        <v>265400</v>
       </c>
       <c r="H47" s="3">
-        <v>176300</v>
+        <v>195000</v>
       </c>
       <c r="I47" s="3">
-        <v>149900</v>
+        <v>165700</v>
       </c>
       <c r="J47" s="3">
-        <v>155300</v>
+        <v>171700</v>
       </c>
       <c r="K47" s="3">
         <v>143600</v>
@@ -1852,25 +1852,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3925600</v>
+        <v>4341500</v>
       </c>
       <c r="E48" s="3">
-        <v>3428800</v>
+        <v>3792100</v>
       </c>
       <c r="F48" s="3">
-        <v>3385900</v>
+        <v>3720500</v>
       </c>
       <c r="G48" s="3">
-        <v>3234200</v>
+        <v>3576800</v>
       </c>
       <c r="H48" s="3">
-        <v>3154000</v>
+        <v>3488100</v>
       </c>
       <c r="I48" s="3">
-        <v>3049600</v>
+        <v>3372700</v>
       </c>
       <c r="J48" s="3">
-        <v>3223500</v>
+        <v>3565000</v>
       </c>
       <c r="K48" s="3">
         <v>1556800</v>
@@ -1884,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>495700</v>
+        <v>548200</v>
       </c>
       <c r="E49" s="3">
-        <v>406400</v>
+        <v>449400</v>
       </c>
       <c r="F49" s="3">
-        <v>408700</v>
+        <v>452000</v>
       </c>
       <c r="G49" s="3">
-        <v>408400</v>
+        <v>451700</v>
       </c>
       <c r="H49" s="3">
-        <v>415700</v>
+        <v>459700</v>
       </c>
       <c r="I49" s="3">
-        <v>379200</v>
+        <v>419300</v>
       </c>
       <c r="J49" s="3">
-        <v>403700</v>
+        <v>446500</v>
       </c>
       <c r="K49" s="3">
         <v>53500</v>
@@ -1980,25 +1980,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>345800</v>
+        <v>382400</v>
       </c>
       <c r="E52" s="3">
-        <v>325400</v>
+        <v>359900</v>
       </c>
       <c r="F52" s="3">
-        <v>289100</v>
+        <v>332600</v>
       </c>
       <c r="G52" s="3">
-        <v>250800</v>
+        <v>277400</v>
       </c>
       <c r="H52" s="3">
-        <v>221800</v>
+        <v>245300</v>
       </c>
       <c r="I52" s="3">
-        <v>219300</v>
+        <v>242500</v>
       </c>
       <c r="J52" s="3">
-        <v>202100</v>
+        <v>223500</v>
       </c>
       <c r="K52" s="3">
         <v>190200</v>
@@ -2044,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7126800</v>
+        <v>7881800</v>
       </c>
       <c r="E54" s="3">
-        <v>5991500</v>
+        <v>6626300</v>
       </c>
       <c r="F54" s="3">
-        <v>5886700</v>
+        <v>6490000</v>
       </c>
       <c r="G54" s="3">
-        <v>5034200</v>
+        <v>5567600</v>
       </c>
       <c r="H54" s="3">
-        <v>4806700</v>
+        <v>5315900</v>
       </c>
       <c r="I54" s="3">
-        <v>4509500</v>
+        <v>4987300</v>
       </c>
       <c r="J54" s="3">
-        <v>4893200</v>
+        <v>5411600</v>
       </c>
       <c r="K54" s="3">
         <v>2384400</v>
@@ -2104,25 +2104,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700600</v>
+        <v>774800</v>
       </c>
       <c r="E57" s="3">
-        <v>679700</v>
+        <v>751700</v>
       </c>
       <c r="F57" s="3">
-        <v>663300</v>
+        <v>728600</v>
       </c>
       <c r="G57" s="3">
-        <v>465700</v>
+        <v>515100</v>
       </c>
       <c r="H57" s="3">
-        <v>405100</v>
+        <v>448100</v>
       </c>
       <c r="I57" s="3">
-        <v>396600</v>
+        <v>438600</v>
       </c>
       <c r="J57" s="3">
-        <v>424000</v>
+        <v>469000</v>
       </c>
       <c r="K57" s="3">
         <v>296100</v>
@@ -2136,25 +2136,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>81500</v>
+        <v>90100</v>
       </c>
       <c r="E58" s="3">
-        <v>8800</v>
+        <v>9700</v>
       </c>
       <c r="F58" s="3">
-        <v>328800</v>
+        <v>363600</v>
       </c>
       <c r="G58" s="3">
-        <v>366800</v>
+        <v>405700</v>
       </c>
       <c r="H58" s="3">
-        <v>19800</v>
+        <v>21900</v>
       </c>
       <c r="I58" s="3">
-        <v>98300</v>
+        <v>108700</v>
       </c>
       <c r="J58" s="3">
-        <v>448900</v>
+        <v>496400</v>
       </c>
       <c r="K58" s="3">
         <v>43000</v>
@@ -2168,25 +2168,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235000</v>
+        <v>259800</v>
       </c>
       <c r="E59" s="3">
-        <v>160800</v>
+        <v>177800</v>
       </c>
       <c r="F59" s="3">
-        <v>218700</v>
+        <v>242400</v>
       </c>
       <c r="G59" s="3">
-        <v>34900</v>
+        <v>38600</v>
       </c>
       <c r="H59" s="3">
-        <v>28500</v>
+        <v>31500</v>
       </c>
       <c r="I59" s="3">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="J59" s="3">
-        <v>8300</v>
+        <v>9200</v>
       </c>
       <c r="K59" s="3">
         <v>18500</v>
@@ -2200,25 +2200,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1017100</v>
+        <v>1124800</v>
       </c>
       <c r="E60" s="3">
-        <v>849300</v>
+        <v>939300</v>
       </c>
       <c r="F60" s="3">
-        <v>1210700</v>
+        <v>1334600</v>
       </c>
       <c r="G60" s="3">
-        <v>867400</v>
+        <v>959300</v>
       </c>
       <c r="H60" s="3">
-        <v>453500</v>
+        <v>501500</v>
       </c>
       <c r="I60" s="3">
-        <v>500200</v>
+        <v>553200</v>
       </c>
       <c r="J60" s="3">
-        <v>881200</v>
+        <v>974500</v>
       </c>
       <c r="K60" s="3">
         <v>357600</v>
@@ -2232,25 +2232,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1501600</v>
+        <v>1660700</v>
       </c>
       <c r="E61" s="3">
-        <v>1421000</v>
+        <v>1571500</v>
       </c>
       <c r="F61" s="3">
-        <v>1302100</v>
+        <v>1438000</v>
       </c>
       <c r="G61" s="3">
-        <v>1085800</v>
+        <v>1200800</v>
       </c>
       <c r="H61" s="3">
-        <v>1681100</v>
+        <v>1859200</v>
       </c>
       <c r="I61" s="3">
-        <v>1422200</v>
+        <v>1572900</v>
       </c>
       <c r="J61" s="3">
-        <v>1341900</v>
+        <v>1484100</v>
       </c>
       <c r="K61" s="3">
         <v>469900</v>
@@ -2264,25 +2264,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1879900</v>
+        <v>2079100</v>
       </c>
       <c r="E62" s="3">
-        <v>1875400</v>
+        <v>2074100</v>
       </c>
       <c r="F62" s="3">
-        <v>1579800</v>
+        <v>1734000</v>
       </c>
       <c r="G62" s="3">
-        <v>1615400</v>
+        <v>1786500</v>
       </c>
       <c r="H62" s="3">
-        <v>1159700</v>
+        <v>1282600</v>
       </c>
       <c r="I62" s="3">
-        <v>1164500</v>
+        <v>1287800</v>
       </c>
       <c r="J62" s="3">
-        <v>1243600</v>
+        <v>1375300</v>
       </c>
       <c r="K62" s="3">
         <v>615700</v>
@@ -2392,25 +2392,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4398600</v>
+        <v>4955700</v>
       </c>
       <c r="E66" s="3">
-        <v>4232700</v>
+        <v>4681100</v>
       </c>
       <c r="F66" s="3">
-        <v>4167900</v>
+        <v>4588500</v>
       </c>
       <c r="G66" s="3">
-        <v>3624100</v>
+        <v>4008000</v>
       </c>
       <c r="H66" s="3">
-        <v>3295500</v>
+        <v>3644600</v>
       </c>
       <c r="I66" s="3">
-        <v>3088100</v>
+        <v>3415200</v>
       </c>
       <c r="J66" s="3">
-        <v>3467700</v>
+        <v>3835000</v>
       </c>
       <c r="K66" s="3">
         <v>1444200</v>
@@ -2565,26 +2565,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>260300</v>
       </c>
       <c r="E72" s="3">
-        <v>-651600</v>
+        <v>-720600</v>
       </c>
       <c r="F72" s="3">
-        <v>-691700</v>
+        <v>-764300</v>
       </c>
       <c r="G72" s="3">
-        <v>-644900</v>
+        <v>-713200</v>
       </c>
       <c r="H72" s="3">
-        <v>-543900</v>
+        <v>-601500</v>
       </c>
       <c r="I72" s="3">
-        <v>-633600</v>
+        <v>-700700</v>
       </c>
       <c r="J72" s="3">
-        <v>-631300</v>
+        <v>-698200</v>
       </c>
       <c r="K72" s="3">
         <v>-301900</v>
@@ -2694,25 +2694,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2728200</v>
+        <v>2926100</v>
       </c>
       <c r="E76" s="3">
-        <v>1758900</v>
+        <v>1945200</v>
       </c>
       <c r="F76" s="3">
-        <v>1718800</v>
+        <v>1901500</v>
       </c>
       <c r="G76" s="3">
-        <v>1410200</v>
+        <v>1559600</v>
       </c>
       <c r="H76" s="3">
-        <v>1511200</v>
+        <v>1671300</v>
       </c>
       <c r="I76" s="3">
-        <v>1421400</v>
+        <v>1572000</v>
       </c>
       <c r="J76" s="3">
-        <v>1425600</v>
+        <v>1576600</v>
       </c>
       <c r="K76" s="3">
         <v>940200</v>
@@ -2795,25 +2795,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>556300</v>
+        <v>615300</v>
       </c>
       <c r="E81" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F81" s="3">
-        <v>-15700</v>
+        <v>-16700</v>
       </c>
       <c r="G81" s="3">
-        <v>-152700</v>
+        <v>-168900</v>
       </c>
       <c r="H81" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="I81" s="3">
-        <v>21700</v>
+        <v>24000</v>
       </c>
       <c r="J81" s="3">
-        <v>-284800</v>
+        <v>-314900</v>
       </c>
       <c r="K81" s="3">
         <v>179500</v>
@@ -3033,25 +3033,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>852900</v>
+        <v>943300</v>
       </c>
       <c r="E89" s="3">
-        <v>482300</v>
+        <v>533400</v>
       </c>
       <c r="F89" s="3">
-        <v>78700</v>
+        <v>87000</v>
       </c>
       <c r="G89" s="3">
-        <v>584700</v>
+        <v>646600</v>
       </c>
       <c r="H89" s="3">
-        <v>138300</v>
+        <v>153000</v>
       </c>
       <c r="I89" s="3">
-        <v>97700</v>
+        <v>108000</v>
       </c>
       <c r="J89" s="3">
-        <v>64800</v>
+        <v>71600</v>
       </c>
       <c r="K89" s="3">
         <v>110500</v>
@@ -3079,25 +3079,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-245100</v>
+        <v>-271100</v>
       </c>
       <c r="E91" s="3">
-        <v>-303700</v>
+        <v>-335800</v>
       </c>
       <c r="F91" s="3">
-        <v>-153100</v>
+        <v>-169400</v>
       </c>
       <c r="G91" s="3">
-        <v>-238000</v>
+        <v>-263200</v>
       </c>
       <c r="H91" s="3">
-        <v>-181700</v>
+        <v>-201000</v>
       </c>
       <c r="I91" s="3">
-        <v>-214300</v>
+        <v>-237000</v>
       </c>
       <c r="J91" s="3">
-        <v>-147300</v>
+        <v>-162900</v>
       </c>
       <c r="K91" s="3">
         <v>-136600</v>
@@ -3174,26 +3174,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-318900</v>
       </c>
       <c r="E94" s="3">
-        <v>-301800</v>
+        <v>-333800</v>
       </c>
       <c r="F94" s="3">
-        <v>13400</v>
+        <v>14800</v>
       </c>
       <c r="G94" s="3">
-        <v>-279400</v>
+        <v>-309000</v>
       </c>
       <c r="H94" s="3">
-        <v>-179600</v>
+        <v>-198600</v>
       </c>
       <c r="I94" s="3">
-        <v>-219000</v>
+        <v>-242200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1449400</v>
+        <v>-1602900</v>
       </c>
       <c r="K94" s="3">
         <v>-223500</v>
@@ -3349,25 +3349,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-181800</v>
+        <v>-201100</v>
       </c>
       <c r="E100" s="3">
-        <v>-210300</v>
+        <v>-232600</v>
       </c>
       <c r="F100" s="3">
-        <v>123100</v>
+        <v>136200</v>
       </c>
       <c r="G100" s="3">
-        <v>-278700</v>
+        <v>-308300</v>
       </c>
       <c r="H100" s="3">
-        <v>35600</v>
+        <v>39400</v>
       </c>
       <c r="I100" s="3">
-        <v>-130900</v>
+        <v>-144800</v>
       </c>
       <c r="J100" s="3">
-        <v>1720000</v>
+        <v>1902200</v>
       </c>
       <c r="K100" s="3">
         <v>118600</v>
@@ -3381,25 +3381,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>-2300</v>
       </c>
       <c r="E101" s="3">
-        <v>7100</v>
+        <v>7900</v>
       </c>
       <c r="F101" s="3">
-        <v>-10600</v>
+        <v>-11700</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>7800</v>
+        <v>8700</v>
       </c>
       <c r="I101" s="3">
-        <v>-12200</v>
+        <v>-13500</v>
       </c>
       <c r="J101" s="3">
-        <v>-6100</v>
+        <v>-6800</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3412,26 +3412,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>421000</v>
       </c>
       <c r="E102" s="3">
-        <v>-22600</v>
+        <v>-25000</v>
       </c>
       <c r="F102" s="3">
-        <v>204600</v>
+        <v>226300</v>
       </c>
       <c r="G102" s="3">
-        <v>26600</v>
+        <v>29500</v>
       </c>
       <c r="H102" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I102" s="3">
-        <v>-264400</v>
+        <v>-292500</v>
       </c>
       <c r="J102" s="3">
-        <v>329300</v>
+        <v>364200</v>
       </c>
       <c r="K102" s="3">
         <v>5600</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3607000</v>
+        <v>3663100</v>
       </c>
       <c r="E8" s="3">
-        <v>3238000</v>
+        <v>3288400</v>
       </c>
       <c r="F8" s="3">
-        <v>1542900</v>
+        <v>1567000</v>
       </c>
       <c r="G8" s="3">
-        <v>1753500</v>
+        <v>1780800</v>
       </c>
       <c r="H8" s="3">
-        <v>1567500</v>
+        <v>1591900</v>
       </c>
       <c r="I8" s="3">
-        <v>1750000</v>
+        <v>1777200</v>
       </c>
       <c r="J8" s="3">
-        <v>1260000</v>
+        <v>1279600</v>
       </c>
       <c r="K8" s="3">
         <v>945000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2726900</v>
+        <v>2769400</v>
       </c>
       <c r="E9" s="3">
-        <v>2625100</v>
+        <v>2666000</v>
       </c>
       <c r="F9" s="3">
-        <v>1554000</v>
+        <v>1578200</v>
       </c>
       <c r="G9" s="3">
-        <v>1671800</v>
+        <v>1697800</v>
       </c>
       <c r="H9" s="3">
-        <v>1497400</v>
+        <v>1520700</v>
       </c>
       <c r="I9" s="3">
-        <v>1568500</v>
+        <v>1592900</v>
       </c>
       <c r="J9" s="3">
-        <v>1223100</v>
+        <v>1242100</v>
       </c>
       <c r="K9" s="3">
         <v>788400</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>880100</v>
+        <v>893800</v>
       </c>
       <c r="E10" s="3">
-        <v>612900</v>
+        <v>622500</v>
       </c>
       <c r="F10" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="G10" s="3">
-        <v>81700</v>
+        <v>82900</v>
       </c>
       <c r="H10" s="3">
-        <v>70100</v>
+        <v>71200</v>
       </c>
       <c r="I10" s="3">
-        <v>181500</v>
+        <v>184300</v>
       </c>
       <c r="J10" s="3">
-        <v>36900</v>
+        <v>37500</v>
       </c>
       <c r="K10" s="3">
         <v>156700</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27000</v>
+        <v>27400</v>
       </c>
       <c r="E14" s="3">
-        <v>62400</v>
+        <v>63400</v>
       </c>
       <c r="F14" s="3">
-        <v>-18300</v>
+        <v>-18600</v>
       </c>
       <c r="G14" s="3">
-        <v>212400</v>
+        <v>215700</v>
       </c>
       <c r="H14" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="I14" s="3">
-        <v>153900</v>
+        <v>156300</v>
       </c>
       <c r="J14" s="3">
-        <v>219300</v>
+        <v>222800</v>
       </c>
       <c r="K14" s="3">
         <v>-81400</v>
@@ -973,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2773400</v>
+        <v>2816600</v>
       </c>
       <c r="E17" s="3">
-        <v>2700700</v>
+        <v>2742700</v>
       </c>
       <c r="F17" s="3">
-        <v>1546400</v>
+        <v>1570500</v>
       </c>
       <c r="G17" s="3">
-        <v>1895000</v>
+        <v>1924500</v>
       </c>
       <c r="H17" s="3">
-        <v>1529000</v>
+        <v>1552800</v>
       </c>
       <c r="I17" s="3">
-        <v>1730000</v>
+        <v>1756900</v>
       </c>
       <c r="J17" s="3">
-        <v>1450100</v>
+        <v>1472600</v>
       </c>
       <c r="K17" s="3">
         <v>727500</v>
@@ -1005,25 +1005,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>833600</v>
+        <v>846600</v>
       </c>
       <c r="E18" s="3">
-        <v>537400</v>
+        <v>545700</v>
       </c>
       <c r="F18" s="3">
         <v>-3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-141500</v>
+        <v>-143700</v>
       </c>
       <c r="H18" s="3">
-        <v>38500</v>
+        <v>39100</v>
       </c>
       <c r="I18" s="3">
-        <v>20000</v>
+        <v>20300</v>
       </c>
       <c r="J18" s="3">
-        <v>-190100</v>
+        <v>-193000</v>
       </c>
       <c r="K18" s="3">
         <v>217600</v>
@@ -1054,22 +1054,22 @@
         <v>3400</v>
       </c>
       <c r="E20" s="3">
-        <v>-406200</v>
+        <v>-412500</v>
       </c>
       <c r="F20" s="3">
-        <v>-90800</v>
+        <v>-92200</v>
       </c>
       <c r="G20" s="3">
-        <v>110600</v>
+        <v>112300</v>
       </c>
       <c r="H20" s="3">
-        <v>36600</v>
+        <v>37100</v>
       </c>
       <c r="I20" s="3">
-        <v>-84900</v>
+        <v>-86200</v>
       </c>
       <c r="J20" s="3">
-        <v>-75200</v>
+        <v>-76400</v>
       </c>
       <c r="K20" s="3">
         <v>-8900</v>
@@ -1083,25 +1083,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1062700</v>
+        <v>1079200</v>
       </c>
       <c r="E21" s="3">
-        <v>220700</v>
+        <v>224100</v>
       </c>
       <c r="F21" s="3">
-        <v>97400</v>
+        <v>99000</v>
       </c>
       <c r="G21" s="3">
         <v>-3100</v>
       </c>
       <c r="H21" s="3">
-        <v>278000</v>
+        <v>282300</v>
       </c>
       <c r="I21" s="3">
-        <v>-18600</v>
+        <v>-18900</v>
       </c>
       <c r="J21" s="3">
-        <v>-101600</v>
+        <v>-103100</v>
       </c>
       <c r="K21" s="3">
         <v>217300</v>
@@ -1115,25 +1115,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64500</v>
+        <v>65500</v>
       </c>
       <c r="E22" s="3">
-        <v>64200</v>
+        <v>65200</v>
       </c>
       <c r="F22" s="3">
-        <v>57300</v>
+        <v>58200</v>
       </c>
       <c r="G22" s="3">
-        <v>74000</v>
+        <v>75100</v>
       </c>
       <c r="H22" s="3">
-        <v>64400</v>
+        <v>65400</v>
       </c>
       <c r="I22" s="3">
-        <v>76900</v>
+        <v>78100</v>
       </c>
       <c r="J22" s="3">
-        <v>76800</v>
+        <v>78000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1147,25 +1147,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>772400</v>
+        <v>784400</v>
       </c>
       <c r="E23" s="3">
-        <v>67000</v>
+        <v>68100</v>
       </c>
       <c r="F23" s="3">
-        <v>-151600</v>
+        <v>-153900</v>
       </c>
       <c r="G23" s="3">
-        <v>-104900</v>
+        <v>-106500</v>
       </c>
       <c r="H23" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I23" s="3">
-        <v>-141800</v>
+        <v>-144000</v>
       </c>
       <c r="J23" s="3">
-        <v>-342000</v>
+        <v>-347400</v>
       </c>
       <c r="K23" s="3">
         <v>208700</v>
@@ -1179,25 +1179,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>134500</v>
+        <v>136600</v>
       </c>
       <c r="E24" s="3">
-        <v>26800</v>
+        <v>27200</v>
       </c>
       <c r="F24" s="3">
-        <v>-140400</v>
+        <v>-142600</v>
       </c>
       <c r="G24" s="3">
-        <v>65500</v>
+        <v>66500</v>
       </c>
       <c r="H24" s="3">
         <v>5600</v>
       </c>
       <c r="I24" s="3">
-        <v>-166000</v>
+        <v>-168600</v>
       </c>
       <c r="J24" s="3">
-        <v>-27200</v>
+        <v>-27600</v>
       </c>
       <c r="K24" s="3">
         <v>39800</v>
@@ -1243,25 +1243,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>638000</v>
+        <v>647900</v>
       </c>
       <c r="E26" s="3">
-        <v>40300</v>
+        <v>40900</v>
       </c>
       <c r="F26" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="G26" s="3">
-        <v>-170400</v>
+        <v>-173000</v>
       </c>
       <c r="H26" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I26" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="J26" s="3">
-        <v>-314900</v>
+        <v>-319800</v>
       </c>
       <c r="K26" s="3">
         <v>168900</v>
@@ -1275,25 +1275,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>615300</v>
+        <v>624900</v>
       </c>
       <c r="E27" s="3">
-        <v>21500</v>
+        <v>21800</v>
       </c>
       <c r="F27" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="G27" s="3">
-        <v>-168900</v>
+        <v>-171500</v>
       </c>
       <c r="H27" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I27" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="J27" s="3">
-        <v>-314900</v>
+        <v>-319800</v>
       </c>
       <c r="K27" s="3">
         <v>179500</v>
@@ -1438,22 +1438,22 @@
         <v>-3400</v>
       </c>
       <c r="E32" s="3">
-        <v>406200</v>
+        <v>412500</v>
       </c>
       <c r="F32" s="3">
-        <v>90800</v>
+        <v>92200</v>
       </c>
       <c r="G32" s="3">
-        <v>-110600</v>
+        <v>-112300</v>
       </c>
       <c r="H32" s="3">
-        <v>-36600</v>
+        <v>-37100</v>
       </c>
       <c r="I32" s="3">
-        <v>84900</v>
+        <v>86200</v>
       </c>
       <c r="J32" s="3">
-        <v>75200</v>
+        <v>76400</v>
       </c>
       <c r="K32" s="3">
         <v>8900</v>
@@ -1467,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>615300</v>
+        <v>624900</v>
       </c>
       <c r="E33" s="3">
-        <v>21500</v>
+        <v>21800</v>
       </c>
       <c r="F33" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="G33" s="3">
-        <v>-168900</v>
+        <v>-171500</v>
       </c>
       <c r="H33" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I33" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="J33" s="3">
-        <v>-314900</v>
+        <v>-319800</v>
       </c>
       <c r="K33" s="3">
         <v>179500</v>
@@ -1531,25 +1531,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>615300</v>
+        <v>624900</v>
       </c>
       <c r="E35" s="3">
-        <v>21500</v>
+        <v>21800</v>
       </c>
       <c r="F35" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="G35" s="3">
-        <v>-168900</v>
+        <v>-171500</v>
       </c>
       <c r="H35" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I35" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="J35" s="3">
-        <v>-314900</v>
+        <v>-319800</v>
       </c>
       <c r="K35" s="3">
         <v>179500</v>
@@ -1628,25 +1628,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>789400</v>
+        <v>801700</v>
       </c>
       <c r="E41" s="3">
-        <v>368400</v>
+        <v>374100</v>
       </c>
       <c r="F41" s="3">
-        <v>391000</v>
+        <v>397100</v>
       </c>
       <c r="G41" s="3">
-        <v>167100</v>
+        <v>169700</v>
       </c>
       <c r="H41" s="3">
-        <v>137600</v>
+        <v>139800</v>
       </c>
       <c r="I41" s="3">
-        <v>135200</v>
+        <v>137300</v>
       </c>
       <c r="J41" s="3">
-        <v>427700</v>
+        <v>434300</v>
       </c>
       <c r="K41" s="3">
         <v>55300</v>
@@ -1692,25 +1692,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>316800</v>
+        <v>321700</v>
       </c>
       <c r="E43" s="3">
-        <v>330500</v>
+        <v>335600</v>
       </c>
       <c r="F43" s="3">
-        <v>359100</v>
+        <v>364700</v>
       </c>
       <c r="G43" s="3">
-        <v>482000</v>
+        <v>489500</v>
       </c>
       <c r="H43" s="3">
-        <v>429100</v>
+        <v>435800</v>
       </c>
       <c r="I43" s="3">
-        <v>420600</v>
+        <v>427200</v>
       </c>
       <c r="J43" s="3">
-        <v>383000</v>
+        <v>389000</v>
       </c>
       <c r="K43" s="3">
         <v>346200</v>
@@ -1724,25 +1724,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1102900</v>
+        <v>1120100</v>
       </c>
       <c r="E44" s="3">
-        <v>1016400</v>
+        <v>1032200</v>
       </c>
       <c r="F44" s="3">
-        <v>931600</v>
+        <v>946100</v>
       </c>
       <c r="G44" s="3">
-        <v>347100</v>
+        <v>352500</v>
       </c>
       <c r="H44" s="3">
-        <v>277700</v>
+        <v>282000</v>
       </c>
       <c r="I44" s="3">
-        <v>231200</v>
+        <v>234800</v>
       </c>
       <c r="J44" s="3">
-        <v>194200</v>
+        <v>197200</v>
       </c>
       <c r="K44" s="3">
         <v>38700</v>
@@ -1762,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>83300</v>
+        <v>84600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -1788,25 +1788,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2209100</v>
+        <v>2243500</v>
       </c>
       <c r="E46" s="3">
-        <v>1715300</v>
+        <v>1742000</v>
       </c>
       <c r="F46" s="3">
-        <v>1689700</v>
+        <v>1715900</v>
       </c>
       <c r="G46" s="3">
-        <v>996200</v>
+        <v>1011700</v>
       </c>
       <c r="H46" s="3">
-        <v>927700</v>
+        <v>942100</v>
       </c>
       <c r="I46" s="3">
-        <v>787000</v>
+        <v>799300</v>
       </c>
       <c r="J46" s="3">
-        <v>1004900</v>
+        <v>1020500</v>
       </c>
       <c r="K46" s="3">
         <v>440200</v>
@@ -1820,25 +1820,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>400600</v>
+        <v>406800</v>
       </c>
       <c r="E47" s="3">
-        <v>309600</v>
+        <v>314400</v>
       </c>
       <c r="F47" s="3">
-        <v>295300</v>
+        <v>299900</v>
       </c>
       <c r="G47" s="3">
-        <v>265400</v>
+        <v>269500</v>
       </c>
       <c r="H47" s="3">
-        <v>195000</v>
+        <v>198000</v>
       </c>
       <c r="I47" s="3">
-        <v>165700</v>
+        <v>168300</v>
       </c>
       <c r="J47" s="3">
-        <v>171700</v>
+        <v>174400</v>
       </c>
       <c r="K47" s="3">
         <v>143600</v>
@@ -1852,25 +1852,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4341500</v>
+        <v>4409000</v>
       </c>
       <c r="E48" s="3">
-        <v>3792100</v>
+        <v>3851100</v>
       </c>
       <c r="F48" s="3">
-        <v>3720500</v>
+        <v>3778300</v>
       </c>
       <c r="G48" s="3">
-        <v>3576800</v>
+        <v>3632500</v>
       </c>
       <c r="H48" s="3">
-        <v>3488100</v>
+        <v>3542400</v>
       </c>
       <c r="I48" s="3">
-        <v>3372700</v>
+        <v>3425200</v>
       </c>
       <c r="J48" s="3">
-        <v>3565000</v>
+        <v>3620500</v>
       </c>
       <c r="K48" s="3">
         <v>1556800</v>
@@ -1884,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>548200</v>
+        <v>556700</v>
       </c>
       <c r="E49" s="3">
-        <v>449400</v>
+        <v>456400</v>
       </c>
       <c r="F49" s="3">
-        <v>452000</v>
+        <v>459000</v>
       </c>
       <c r="G49" s="3">
-        <v>451700</v>
+        <v>458700</v>
       </c>
       <c r="H49" s="3">
-        <v>459700</v>
+        <v>466900</v>
       </c>
       <c r="I49" s="3">
-        <v>419300</v>
+        <v>425800</v>
       </c>
       <c r="J49" s="3">
-        <v>446500</v>
+        <v>453400</v>
       </c>
       <c r="K49" s="3">
         <v>53500</v>
@@ -1980,25 +1980,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>382400</v>
+        <v>388300</v>
       </c>
       <c r="E52" s="3">
-        <v>359900</v>
+        <v>365500</v>
       </c>
       <c r="F52" s="3">
-        <v>332600</v>
+        <v>337700</v>
       </c>
       <c r="G52" s="3">
-        <v>277400</v>
+        <v>281700</v>
       </c>
       <c r="H52" s="3">
-        <v>245300</v>
+        <v>249200</v>
       </c>
       <c r="I52" s="3">
-        <v>242500</v>
+        <v>246300</v>
       </c>
       <c r="J52" s="3">
-        <v>223500</v>
+        <v>227000</v>
       </c>
       <c r="K52" s="3">
         <v>190200</v>
@@ -2044,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7881800</v>
+        <v>8004400</v>
       </c>
       <c r="E54" s="3">
-        <v>6626300</v>
+        <v>6729400</v>
       </c>
       <c r="F54" s="3">
-        <v>6490000</v>
+        <v>6591000</v>
       </c>
       <c r="G54" s="3">
-        <v>5567600</v>
+        <v>5654200</v>
       </c>
       <c r="H54" s="3">
-        <v>5315900</v>
+        <v>5398600</v>
       </c>
       <c r="I54" s="3">
-        <v>4987300</v>
+        <v>5064900</v>
       </c>
       <c r="J54" s="3">
-        <v>5411600</v>
+        <v>5495800</v>
       </c>
       <c r="K54" s="3">
         <v>2384400</v>
@@ -2104,25 +2104,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>774800</v>
+        <v>786900</v>
       </c>
       <c r="E57" s="3">
-        <v>751700</v>
+        <v>763400</v>
       </c>
       <c r="F57" s="3">
-        <v>728600</v>
+        <v>739900</v>
       </c>
       <c r="G57" s="3">
-        <v>515100</v>
+        <v>523100</v>
       </c>
       <c r="H57" s="3">
-        <v>448100</v>
+        <v>455000</v>
       </c>
       <c r="I57" s="3">
-        <v>438600</v>
+        <v>445400</v>
       </c>
       <c r="J57" s="3">
-        <v>469000</v>
+        <v>476300</v>
       </c>
       <c r="K57" s="3">
         <v>296100</v>
@@ -2136,25 +2136,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90100</v>
+        <v>91500</v>
       </c>
       <c r="E58" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="F58" s="3">
-        <v>363600</v>
+        <v>369300</v>
       </c>
       <c r="G58" s="3">
-        <v>405700</v>
+        <v>412000</v>
       </c>
       <c r="H58" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="I58" s="3">
-        <v>108700</v>
+        <v>110400</v>
       </c>
       <c r="J58" s="3">
-        <v>496400</v>
+        <v>504100</v>
       </c>
       <c r="K58" s="3">
         <v>43000</v>
@@ -2168,25 +2168,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>259800</v>
+        <v>263900</v>
       </c>
       <c r="E59" s="3">
-        <v>177800</v>
+        <v>180600</v>
       </c>
       <c r="F59" s="3">
-        <v>242400</v>
+        <v>246200</v>
       </c>
       <c r="G59" s="3">
-        <v>38600</v>
+        <v>39200</v>
       </c>
       <c r="H59" s="3">
-        <v>31500</v>
+        <v>32000</v>
       </c>
       <c r="I59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J59" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="K59" s="3">
         <v>18500</v>
@@ -2200,25 +2200,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1124800</v>
+        <v>1142300</v>
       </c>
       <c r="E60" s="3">
-        <v>939300</v>
+        <v>953900</v>
       </c>
       <c r="F60" s="3">
-        <v>1334600</v>
+        <v>1355300</v>
       </c>
       <c r="G60" s="3">
-        <v>959300</v>
+        <v>974200</v>
       </c>
       <c r="H60" s="3">
-        <v>501500</v>
+        <v>509300</v>
       </c>
       <c r="I60" s="3">
-        <v>553200</v>
+        <v>561800</v>
       </c>
       <c r="J60" s="3">
-        <v>974500</v>
+        <v>989700</v>
       </c>
       <c r="K60" s="3">
         <v>357600</v>
@@ -2232,25 +2232,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1660700</v>
+        <v>1686500</v>
       </c>
       <c r="E61" s="3">
-        <v>1571500</v>
+        <v>1596000</v>
       </c>
       <c r="F61" s="3">
-        <v>1438000</v>
+        <v>1460300</v>
       </c>
       <c r="G61" s="3">
-        <v>1200800</v>
+        <v>1219500</v>
       </c>
       <c r="H61" s="3">
-        <v>1859200</v>
+        <v>1888100</v>
       </c>
       <c r="I61" s="3">
-        <v>1572900</v>
+        <v>1597400</v>
       </c>
       <c r="J61" s="3">
-        <v>1484100</v>
+        <v>1507200</v>
       </c>
       <c r="K61" s="3">
         <v>469900</v>
@@ -2264,25 +2264,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2079100</v>
+        <v>2111400</v>
       </c>
       <c r="E62" s="3">
-        <v>2074100</v>
+        <v>2106300</v>
       </c>
       <c r="F62" s="3">
-        <v>1734000</v>
+        <v>1761000</v>
       </c>
       <c r="G62" s="3">
-        <v>1786500</v>
+        <v>1814300</v>
       </c>
       <c r="H62" s="3">
-        <v>1282600</v>
+        <v>1302600</v>
       </c>
       <c r="I62" s="3">
-        <v>1287800</v>
+        <v>1307900</v>
       </c>
       <c r="J62" s="3">
-        <v>1375300</v>
+        <v>1396700</v>
       </c>
       <c r="K62" s="3">
         <v>615700</v>
@@ -2392,25 +2392,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4955700</v>
+        <v>5032800</v>
       </c>
       <c r="E66" s="3">
-        <v>4681100</v>
+        <v>4753900</v>
       </c>
       <c r="F66" s="3">
-        <v>4588500</v>
+        <v>4659800</v>
       </c>
       <c r="G66" s="3">
-        <v>4008000</v>
+        <v>4070300</v>
       </c>
       <c r="H66" s="3">
-        <v>3644600</v>
+        <v>3701300</v>
       </c>
       <c r="I66" s="3">
-        <v>3415200</v>
+        <v>3468400</v>
       </c>
       <c r="J66" s="3">
-        <v>3835000</v>
+        <v>3894700</v>
       </c>
       <c r="K66" s="3">
         <v>1444200</v>
@@ -2566,25 +2566,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>260300</v>
+        <v>264300</v>
       </c>
       <c r="E72" s="3">
-        <v>-720600</v>
+        <v>-731800</v>
       </c>
       <c r="F72" s="3">
-        <v>-764300</v>
+        <v>-776200</v>
       </c>
       <c r="G72" s="3">
-        <v>-713200</v>
+        <v>-724300</v>
       </c>
       <c r="H72" s="3">
-        <v>-601500</v>
+        <v>-610900</v>
       </c>
       <c r="I72" s="3">
-        <v>-700700</v>
+        <v>-711600</v>
       </c>
       <c r="J72" s="3">
-        <v>-698200</v>
+        <v>-709000</v>
       </c>
       <c r="K72" s="3">
         <v>-301900</v>
@@ -2694,25 +2694,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2926100</v>
+        <v>2971600</v>
       </c>
       <c r="E76" s="3">
-        <v>1945200</v>
+        <v>1975500</v>
       </c>
       <c r="F76" s="3">
-        <v>1901500</v>
+        <v>1931100</v>
       </c>
       <c r="G76" s="3">
-        <v>1559600</v>
+        <v>1583800</v>
       </c>
       <c r="H76" s="3">
-        <v>1671300</v>
+        <v>1697300</v>
       </c>
       <c r="I76" s="3">
-        <v>1572000</v>
+        <v>1596500</v>
       </c>
       <c r="J76" s="3">
-        <v>1576600</v>
+        <v>1601100</v>
       </c>
       <c r="K76" s="3">
         <v>940200</v>
@@ -2795,25 +2795,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>615300</v>
+        <v>624900</v>
       </c>
       <c r="E81" s="3">
-        <v>21500</v>
+        <v>21800</v>
       </c>
       <c r="F81" s="3">
-        <v>-16700</v>
+        <v>-17000</v>
       </c>
       <c r="G81" s="3">
-        <v>-168900</v>
+        <v>-171500</v>
       </c>
       <c r="H81" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I81" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="J81" s="3">
-        <v>-314900</v>
+        <v>-319800</v>
       </c>
       <c r="K81" s="3">
         <v>179500</v>
@@ -3033,25 +3033,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>943300</v>
+        <v>957900</v>
       </c>
       <c r="E89" s="3">
-        <v>533400</v>
+        <v>541700</v>
       </c>
       <c r="F89" s="3">
-        <v>87000</v>
+        <v>88400</v>
       </c>
       <c r="G89" s="3">
-        <v>646600</v>
+        <v>656700</v>
       </c>
       <c r="H89" s="3">
-        <v>153000</v>
+        <v>155400</v>
       </c>
       <c r="I89" s="3">
-        <v>108000</v>
+        <v>109700</v>
       </c>
       <c r="J89" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="K89" s="3">
         <v>110500</v>
@@ -3079,25 +3079,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-271100</v>
+        <v>-275300</v>
       </c>
       <c r="E91" s="3">
-        <v>-335800</v>
+        <v>-341100</v>
       </c>
       <c r="F91" s="3">
-        <v>-169400</v>
+        <v>-172000</v>
       </c>
       <c r="G91" s="3">
-        <v>-263200</v>
+        <v>-267300</v>
       </c>
       <c r="H91" s="3">
-        <v>-201000</v>
+        <v>-204100</v>
       </c>
       <c r="I91" s="3">
-        <v>-237000</v>
+        <v>-240700</v>
       </c>
       <c r="J91" s="3">
-        <v>-162900</v>
+        <v>-165400</v>
       </c>
       <c r="K91" s="3">
         <v>-136600</v>
@@ -3175,25 +3175,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-318900</v>
+        <v>-323800</v>
       </c>
       <c r="E94" s="3">
-        <v>-333800</v>
+        <v>-338900</v>
       </c>
       <c r="F94" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="G94" s="3">
-        <v>-309000</v>
+        <v>-313900</v>
       </c>
       <c r="H94" s="3">
-        <v>-198600</v>
+        <v>-201700</v>
       </c>
       <c r="I94" s="3">
-        <v>-242200</v>
+        <v>-246000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1602900</v>
+        <v>-1627900</v>
       </c>
       <c r="K94" s="3">
         <v>-223500</v>
@@ -3349,25 +3349,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-201100</v>
+        <v>-204200</v>
       </c>
       <c r="E100" s="3">
-        <v>-232600</v>
+        <v>-236200</v>
       </c>
       <c r="F100" s="3">
-        <v>136200</v>
+        <v>138300</v>
       </c>
       <c r="G100" s="3">
-        <v>-308300</v>
+        <v>-313100</v>
       </c>
       <c r="H100" s="3">
-        <v>39400</v>
+        <v>40000</v>
       </c>
       <c r="I100" s="3">
-        <v>-144800</v>
+        <v>-147000</v>
       </c>
       <c r="J100" s="3">
-        <v>1902200</v>
+        <v>1931800</v>
       </c>
       <c r="K100" s="3">
         <v>118600</v>
@@ -3381,25 +3381,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F101" s="3">
-        <v>-11700</v>
+        <v>-11900</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13500</v>
+        <v>-13700</v>
       </c>
       <c r="J101" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3413,25 +3413,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>421000</v>
+        <v>427500</v>
       </c>
       <c r="E102" s="3">
-        <v>-25000</v>
+        <v>-25400</v>
       </c>
       <c r="F102" s="3">
-        <v>226300</v>
+        <v>229800</v>
       </c>
       <c r="G102" s="3">
-        <v>29500</v>
+        <v>29900</v>
       </c>
       <c r="H102" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="3">
-        <v>-292500</v>
+        <v>-297000</v>
       </c>
       <c r="J102" s="3">
-        <v>364200</v>
+        <v>369900</v>
       </c>
       <c r="K102" s="3">
         <v>5600</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3663100</v>
+        <v>5223900</v>
       </c>
       <c r="E8" s="3">
-        <v>3288400</v>
+        <v>3971200</v>
       </c>
       <c r="F8" s="3">
-        <v>1567000</v>
+        <v>3565000</v>
       </c>
       <c r="G8" s="3">
-        <v>1780800</v>
+        <v>1698700</v>
       </c>
       <c r="H8" s="3">
-        <v>1591900</v>
+        <v>1930600</v>
       </c>
       <c r="I8" s="3">
-        <v>1777200</v>
+        <v>1725800</v>
       </c>
       <c r="J8" s="3">
+        <v>1926700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1279600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>945000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2769400</v>
+        <v>3142700</v>
       </c>
       <c r="E9" s="3">
-        <v>2666000</v>
+        <v>3002300</v>
       </c>
       <c r="F9" s="3">
-        <v>1578200</v>
+        <v>2890200</v>
       </c>
       <c r="G9" s="3">
-        <v>1697800</v>
+        <v>1711000</v>
       </c>
       <c r="H9" s="3">
-        <v>1520700</v>
+        <v>1840600</v>
       </c>
       <c r="I9" s="3">
-        <v>1592900</v>
+        <v>1648600</v>
       </c>
       <c r="J9" s="3">
+        <v>1726900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1242100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>788400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>893800</v>
+        <v>2081300</v>
       </c>
       <c r="E10" s="3">
-        <v>622500</v>
+        <v>969000</v>
       </c>
       <c r="F10" s="3">
-        <v>-11300</v>
+        <v>674800</v>
       </c>
       <c r="G10" s="3">
-        <v>82900</v>
+        <v>-12200</v>
       </c>
       <c r="H10" s="3">
-        <v>71200</v>
+        <v>89900</v>
       </c>
       <c r="I10" s="3">
-        <v>184300</v>
+        <v>77200</v>
       </c>
       <c r="J10" s="3">
+        <v>199800</v>
+      </c>
+      <c r="K10" s="3">
         <v>37500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>156700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,11 +871,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,40 +909,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27400</v>
+        <v>118800</v>
       </c>
       <c r="E14" s="3">
-        <v>63400</v>
+        <v>29700</v>
       </c>
       <c r="F14" s="3">
-        <v>-18600</v>
+        <v>69500</v>
       </c>
       <c r="G14" s="3">
-        <v>215700</v>
+        <v>-20200</v>
       </c>
       <c r="H14" s="3">
-        <v>23100</v>
+        <v>233800</v>
       </c>
       <c r="I14" s="3">
-        <v>156300</v>
+        <v>25000</v>
       </c>
       <c r="J14" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K14" s="3">
         <v>222800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-81400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +979,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2816600</v>
+        <v>3276900</v>
       </c>
       <c r="E17" s="3">
-        <v>2742700</v>
+        <v>3053500</v>
       </c>
       <c r="F17" s="3">
-        <v>1570500</v>
+        <v>2974100</v>
       </c>
       <c r="G17" s="3">
-        <v>1924500</v>
+        <v>1702600</v>
       </c>
       <c r="H17" s="3">
-        <v>1552800</v>
+        <v>2086400</v>
       </c>
       <c r="I17" s="3">
-        <v>1756900</v>
+        <v>1683400</v>
       </c>
       <c r="J17" s="3">
+        <v>1904700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1472600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>727500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>846600</v>
+        <v>1947000</v>
       </c>
       <c r="E18" s="3">
-        <v>545700</v>
+        <v>917800</v>
       </c>
       <c r="F18" s="3">
-        <v>-3500</v>
+        <v>590900</v>
       </c>
       <c r="G18" s="3">
-        <v>-143700</v>
+        <v>-3800</v>
       </c>
       <c r="H18" s="3">
-        <v>39100</v>
+        <v>-155800</v>
       </c>
       <c r="I18" s="3">
-        <v>20300</v>
+        <v>42400</v>
       </c>
       <c r="J18" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-193000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>217600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,168 +1078,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>-183600</v>
       </c>
       <c r="E20" s="3">
-        <v>-412500</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-92200</v>
+        <v>-447200</v>
       </c>
       <c r="G20" s="3">
-        <v>112300</v>
+        <v>-100000</v>
       </c>
       <c r="H20" s="3">
-        <v>37100</v>
+        <v>121800</v>
       </c>
       <c r="I20" s="3">
-        <v>-86200</v>
+        <v>40300</v>
       </c>
       <c r="J20" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-76400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1079200</v>
+        <v>1814300</v>
       </c>
       <c r="E21" s="3">
-        <v>224100</v>
+        <v>1170000</v>
       </c>
       <c r="F21" s="3">
-        <v>99000</v>
+        <v>242200</v>
       </c>
       <c r="G21" s="3">
-        <v>-3100</v>
+        <v>107300</v>
       </c>
       <c r="H21" s="3">
-        <v>282300</v>
+        <v>-3400</v>
       </c>
       <c r="I21" s="3">
-        <v>-18900</v>
+        <v>306100</v>
       </c>
       <c r="J21" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-103100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>217300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65500</v>
+        <v>52900</v>
       </c>
       <c r="E22" s="3">
-        <v>65200</v>
+        <v>71000</v>
       </c>
       <c r="F22" s="3">
-        <v>58200</v>
+        <v>70700</v>
       </c>
       <c r="G22" s="3">
-        <v>75100</v>
+        <v>63100</v>
       </c>
       <c r="H22" s="3">
-        <v>65400</v>
+        <v>81400</v>
       </c>
       <c r="I22" s="3">
-        <v>78100</v>
+        <v>70900</v>
       </c>
       <c r="J22" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K22" s="3">
         <v>78000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>784400</v>
+        <v>1710500</v>
       </c>
       <c r="E23" s="3">
-        <v>68100</v>
+        <v>850400</v>
       </c>
       <c r="F23" s="3">
-        <v>-153900</v>
+        <v>73000</v>
       </c>
       <c r="G23" s="3">
-        <v>-106500</v>
+        <v>-166900</v>
       </c>
       <c r="H23" s="3">
-        <v>10900</v>
+        <v>-115500</v>
       </c>
       <c r="I23" s="3">
-        <v>-144000</v>
+        <v>11800</v>
       </c>
       <c r="J23" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-347400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>208700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>136600</v>
+        <v>202600</v>
       </c>
       <c r="E24" s="3">
-        <v>27200</v>
+        <v>148000</v>
       </c>
       <c r="F24" s="3">
-        <v>-142600</v>
+        <v>29500</v>
       </c>
       <c r="G24" s="3">
-        <v>66500</v>
+        <v>-154600</v>
       </c>
       <c r="H24" s="3">
-        <v>5600</v>
+        <v>72100</v>
       </c>
       <c r="I24" s="3">
-        <v>-168600</v>
+        <v>6100</v>
       </c>
       <c r="J24" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-27600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>647900</v>
+        <v>1507900</v>
       </c>
       <c r="E26" s="3">
-        <v>40900</v>
+        <v>702400</v>
       </c>
       <c r="F26" s="3">
-        <v>-11400</v>
+        <v>43600</v>
       </c>
       <c r="G26" s="3">
-        <v>-173000</v>
+        <v>-12300</v>
       </c>
       <c r="H26" s="3">
-        <v>5200</v>
+        <v>-187600</v>
       </c>
       <c r="I26" s="3">
-        <v>24600</v>
+        <v>5700</v>
       </c>
       <c r="J26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-319800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>168900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>624900</v>
+        <v>1438300</v>
       </c>
       <c r="E27" s="3">
-        <v>21800</v>
+        <v>677400</v>
       </c>
       <c r="F27" s="3">
-        <v>-17000</v>
+        <v>22900</v>
       </c>
       <c r="G27" s="3">
-        <v>-171500</v>
+        <v>-18400</v>
       </c>
       <c r="H27" s="3">
-        <v>5100</v>
+        <v>-186000</v>
       </c>
       <c r="I27" s="3">
-        <v>24400</v>
+        <v>5500</v>
       </c>
       <c r="J27" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-319800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>179500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1426,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>183600</v>
       </c>
       <c r="E32" s="3">
-        <v>412500</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>92200</v>
+        <v>447200</v>
       </c>
       <c r="G32" s="3">
-        <v>-112300</v>
+        <v>100000</v>
       </c>
       <c r="H32" s="3">
-        <v>-37100</v>
+        <v>-121800</v>
       </c>
       <c r="I32" s="3">
-        <v>86200</v>
+        <v>-40300</v>
       </c>
       <c r="J32" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K32" s="3">
         <v>76400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>624900</v>
+        <v>1438300</v>
       </c>
       <c r="E33" s="3">
-        <v>21800</v>
+        <v>677400</v>
       </c>
       <c r="F33" s="3">
-        <v>-17000</v>
+        <v>22900</v>
       </c>
       <c r="G33" s="3">
-        <v>-171500</v>
+        <v>-18400</v>
       </c>
       <c r="H33" s="3">
-        <v>5100</v>
+        <v>-186000</v>
       </c>
       <c r="I33" s="3">
-        <v>24400</v>
+        <v>5500</v>
       </c>
       <c r="J33" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-319800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>179500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>624900</v>
+        <v>1438300</v>
       </c>
       <c r="E35" s="3">
-        <v>21800</v>
+        <v>677400</v>
       </c>
       <c r="F35" s="3">
-        <v>-17000</v>
+        <v>22900</v>
       </c>
       <c r="G35" s="3">
-        <v>-171500</v>
+        <v>-18400</v>
       </c>
       <c r="H35" s="3">
-        <v>5100</v>
+        <v>-186000</v>
       </c>
       <c r="I35" s="3">
-        <v>24400</v>
+        <v>5500</v>
       </c>
       <c r="J35" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-319800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>179500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,40 +1708,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>801700</v>
+        <v>1460900</v>
       </c>
       <c r="E41" s="3">
-        <v>374100</v>
+        <v>869100</v>
       </c>
       <c r="F41" s="3">
-        <v>397100</v>
+        <v>405600</v>
       </c>
       <c r="G41" s="3">
-        <v>169700</v>
+        <v>430500</v>
       </c>
       <c r="H41" s="3">
-        <v>139800</v>
+        <v>184000</v>
       </c>
       <c r="I41" s="3">
-        <v>137300</v>
+        <v>151500</v>
       </c>
       <c r="J41" s="3">
+        <v>148900</v>
+      </c>
+      <c r="K41" s="3">
         <v>434300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>55300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,72 +1776,81 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>321700</v>
+        <v>508900</v>
       </c>
       <c r="E43" s="3">
-        <v>335600</v>
+        <v>348800</v>
       </c>
       <c r="F43" s="3">
-        <v>364700</v>
+        <v>363900</v>
       </c>
       <c r="G43" s="3">
-        <v>489500</v>
+        <v>395300</v>
       </c>
       <c r="H43" s="3">
-        <v>435800</v>
+        <v>530600</v>
       </c>
       <c r="I43" s="3">
-        <v>427200</v>
+        <v>472500</v>
       </c>
       <c r="J43" s="3">
+        <v>463100</v>
+      </c>
+      <c r="K43" s="3">
         <v>389000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>346200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1120100</v>
+        <v>1801100</v>
       </c>
       <c r="E44" s="3">
-        <v>1032200</v>
+        <v>1214300</v>
       </c>
       <c r="F44" s="3">
-        <v>946100</v>
+        <v>1119000</v>
       </c>
       <c r="G44" s="3">
-        <v>352500</v>
+        <v>1025700</v>
       </c>
       <c r="H44" s="3">
-        <v>282000</v>
+        <v>382200</v>
       </c>
       <c r="I44" s="3">
-        <v>234800</v>
+        <v>305700</v>
       </c>
       <c r="J44" s="3">
+        <v>254500</v>
+      </c>
+      <c r="K44" s="3">
         <v>197200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1761,157 +1860,172 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>84600</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>91700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2243500</v>
+        <v>3770900</v>
       </c>
       <c r="E46" s="3">
-        <v>1742000</v>
+        <v>2432200</v>
       </c>
       <c r="F46" s="3">
-        <v>1715900</v>
+        <v>1888500</v>
       </c>
       <c r="G46" s="3">
-        <v>1011700</v>
+        <v>1860300</v>
       </c>
       <c r="H46" s="3">
-        <v>942100</v>
+        <v>1096800</v>
       </c>
       <c r="I46" s="3">
-        <v>799300</v>
+        <v>1021400</v>
       </c>
       <c r="J46" s="3">
+        <v>866500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1020500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>440200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>406800</v>
+        <v>465000</v>
       </c>
       <c r="E47" s="3">
-        <v>314400</v>
+        <v>441100</v>
       </c>
       <c r="F47" s="3">
-        <v>299900</v>
+        <v>340900</v>
       </c>
       <c r="G47" s="3">
-        <v>269500</v>
+        <v>325100</v>
       </c>
       <c r="H47" s="3">
-        <v>198000</v>
+        <v>292200</v>
       </c>
       <c r="I47" s="3">
-        <v>168300</v>
+        <v>214700</v>
       </c>
       <c r="J47" s="3">
+        <v>182500</v>
+      </c>
+      <c r="K47" s="3">
         <v>174400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>143600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4409000</v>
+        <v>4395400</v>
       </c>
       <c r="E48" s="3">
-        <v>3851100</v>
+        <v>4779800</v>
       </c>
       <c r="F48" s="3">
-        <v>3778300</v>
+        <v>4175000</v>
       </c>
       <c r="G48" s="3">
-        <v>3632500</v>
+        <v>4096100</v>
       </c>
       <c r="H48" s="3">
-        <v>3542400</v>
+        <v>3938000</v>
       </c>
       <c r="I48" s="3">
-        <v>3425200</v>
+        <v>3840300</v>
       </c>
       <c r="J48" s="3">
+        <v>3713300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3620500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1556800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>556700</v>
+        <v>517200</v>
       </c>
       <c r="E49" s="3">
-        <v>456400</v>
+        <v>603500</v>
       </c>
       <c r="F49" s="3">
-        <v>459000</v>
+        <v>494800</v>
       </c>
       <c r="G49" s="3">
-        <v>458700</v>
+        <v>497600</v>
       </c>
       <c r="H49" s="3">
-        <v>466900</v>
+        <v>497300</v>
       </c>
       <c r="I49" s="3">
-        <v>425800</v>
+        <v>506100</v>
       </c>
       <c r="J49" s="3">
+        <v>461700</v>
+      </c>
+      <c r="K49" s="3">
         <v>453400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>388300</v>
+        <v>531100</v>
       </c>
       <c r="E52" s="3">
-        <v>365500</v>
+        <v>421000</v>
       </c>
       <c r="F52" s="3">
-        <v>337700</v>
+        <v>396300</v>
       </c>
       <c r="G52" s="3">
-        <v>281700</v>
+        <v>366200</v>
       </c>
       <c r="H52" s="3">
-        <v>249200</v>
+        <v>305400</v>
       </c>
       <c r="I52" s="3">
-        <v>246300</v>
+        <v>270100</v>
       </c>
       <c r="J52" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K52" s="3">
         <v>227000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>190200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8004400</v>
+        <v>9679600</v>
       </c>
       <c r="E54" s="3">
-        <v>6729400</v>
+        <v>8677600</v>
       </c>
       <c r="F54" s="3">
-        <v>6591000</v>
+        <v>7295400</v>
       </c>
       <c r="G54" s="3">
-        <v>5654200</v>
+        <v>7145300</v>
       </c>
       <c r="H54" s="3">
-        <v>5398600</v>
+        <v>6129700</v>
       </c>
       <c r="I54" s="3">
-        <v>5064900</v>
+        <v>5852600</v>
       </c>
       <c r="J54" s="3">
+        <v>5490900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5495800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2384400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,200 +2228,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>786900</v>
+        <v>953300</v>
       </c>
       <c r="E57" s="3">
-        <v>763400</v>
+        <v>853100</v>
       </c>
       <c r="F57" s="3">
-        <v>739900</v>
+        <v>827600</v>
       </c>
       <c r="G57" s="3">
-        <v>523100</v>
+        <v>802100</v>
       </c>
       <c r="H57" s="3">
-        <v>455000</v>
+        <v>567100</v>
       </c>
       <c r="I57" s="3">
-        <v>445400</v>
+        <v>493300</v>
       </c>
       <c r="J57" s="3">
+        <v>482900</v>
+      </c>
+      <c r="K57" s="3">
         <v>476300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>296100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91500</v>
+        <v>71400</v>
       </c>
       <c r="E58" s="3">
-        <v>9900</v>
+        <v>99200</v>
       </c>
       <c r="F58" s="3">
-        <v>369300</v>
+        <v>10700</v>
       </c>
       <c r="G58" s="3">
-        <v>412000</v>
+        <v>400300</v>
       </c>
       <c r="H58" s="3">
-        <v>22300</v>
+        <v>446700</v>
       </c>
       <c r="I58" s="3">
-        <v>110400</v>
+        <v>24100</v>
       </c>
       <c r="J58" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K58" s="3">
         <v>504100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>263900</v>
+        <v>237500</v>
       </c>
       <c r="E59" s="3">
-        <v>180600</v>
+        <v>286100</v>
       </c>
       <c r="F59" s="3">
-        <v>246200</v>
+        <v>195800</v>
       </c>
       <c r="G59" s="3">
-        <v>39200</v>
+        <v>266900</v>
       </c>
       <c r="H59" s="3">
-        <v>32000</v>
+        <v>42400</v>
       </c>
       <c r="I59" s="3">
-        <v>6000</v>
+        <v>34700</v>
       </c>
       <c r="J59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1142300</v>
+        <v>1262200</v>
       </c>
       <c r="E60" s="3">
-        <v>953900</v>
+        <v>1238400</v>
       </c>
       <c r="F60" s="3">
-        <v>1355300</v>
+        <v>1034100</v>
       </c>
       <c r="G60" s="3">
-        <v>974200</v>
+        <v>1469300</v>
       </c>
       <c r="H60" s="3">
-        <v>509300</v>
+        <v>1056200</v>
       </c>
       <c r="I60" s="3">
-        <v>561800</v>
+        <v>552100</v>
       </c>
       <c r="J60" s="3">
+        <v>609000</v>
+      </c>
+      <c r="K60" s="3">
         <v>989700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>357600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1686500</v>
+        <v>1279000</v>
       </c>
       <c r="E61" s="3">
-        <v>1596000</v>
+        <v>1828400</v>
       </c>
       <c r="F61" s="3">
-        <v>1460300</v>
+        <v>1730200</v>
       </c>
       <c r="G61" s="3">
-        <v>1219500</v>
+        <v>1583200</v>
       </c>
       <c r="H61" s="3">
-        <v>1888100</v>
+        <v>1322100</v>
       </c>
       <c r="I61" s="3">
-        <v>1597400</v>
+        <v>2046900</v>
       </c>
       <c r="J61" s="3">
+        <v>1731700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1507200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>469900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2111400</v>
+        <v>2034000</v>
       </c>
       <c r="E62" s="3">
-        <v>2106300</v>
+        <v>2289000</v>
       </c>
       <c r="F62" s="3">
-        <v>1761000</v>
+        <v>2283500</v>
       </c>
       <c r="G62" s="3">
-        <v>1814300</v>
+        <v>1909100</v>
       </c>
       <c r="H62" s="3">
-        <v>1302600</v>
+        <v>1966900</v>
       </c>
       <c r="I62" s="3">
-        <v>1307900</v>
+        <v>1412100</v>
       </c>
       <c r="J62" s="3">
+        <v>1417900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1396700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>615700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5032800</v>
+        <v>4736700</v>
       </c>
       <c r="E66" s="3">
-        <v>4753900</v>
+        <v>5456100</v>
       </c>
       <c r="F66" s="3">
-        <v>4659800</v>
+        <v>5153700</v>
       </c>
       <c r="G66" s="3">
-        <v>4070300</v>
+        <v>5051800</v>
       </c>
       <c r="H66" s="3">
-        <v>3701300</v>
+        <v>4412700</v>
       </c>
       <c r="I66" s="3">
-        <v>3468400</v>
+        <v>4012600</v>
       </c>
       <c r="J66" s="3">
+        <v>3760100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3894700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1444200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>264300</v>
+        <v>2766700</v>
       </c>
       <c r="E72" s="3">
-        <v>-731800</v>
+        <v>286600</v>
       </c>
       <c r="F72" s="3">
-        <v>-776200</v>
+        <v>-793400</v>
       </c>
       <c r="G72" s="3">
-        <v>-724300</v>
+        <v>-841400</v>
       </c>
       <c r="H72" s="3">
-        <v>-610900</v>
+        <v>-785200</v>
       </c>
       <c r="I72" s="3">
-        <v>-711600</v>
+        <v>-662300</v>
       </c>
       <c r="J72" s="3">
+        <v>-771500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-709000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-301900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2971600</v>
+        <v>4942900</v>
       </c>
       <c r="E76" s="3">
-        <v>1975500</v>
+        <v>3221500</v>
       </c>
       <c r="F76" s="3">
-        <v>1931100</v>
+        <v>2141600</v>
       </c>
       <c r="G76" s="3">
-        <v>1583800</v>
+        <v>2093500</v>
       </c>
       <c r="H76" s="3">
-        <v>1697300</v>
+        <v>1717000</v>
       </c>
       <c r="I76" s="3">
-        <v>1596500</v>
+        <v>1840000</v>
       </c>
       <c r="J76" s="3">
+        <v>1730800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1601100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>940200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>624900</v>
+        <v>1438300</v>
       </c>
       <c r="E81" s="3">
-        <v>21800</v>
+        <v>677400</v>
       </c>
       <c r="F81" s="3">
-        <v>-17000</v>
+        <v>22900</v>
       </c>
       <c r="G81" s="3">
-        <v>-171500</v>
+        <v>-18400</v>
       </c>
       <c r="H81" s="3">
-        <v>5100</v>
+        <v>-186000</v>
       </c>
       <c r="I81" s="3">
-        <v>24400</v>
+        <v>5500</v>
       </c>
       <c r="J81" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-319800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>179500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3033,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>957900</v>
+        <v>921100</v>
       </c>
       <c r="E89" s="3">
-        <v>541700</v>
+        <v>1038500</v>
       </c>
       <c r="F89" s="3">
-        <v>88400</v>
+        <v>587300</v>
       </c>
       <c r="G89" s="3">
-        <v>656700</v>
+        <v>95800</v>
       </c>
       <c r="H89" s="3">
-        <v>155400</v>
+        <v>711900</v>
       </c>
       <c r="I89" s="3">
-        <v>109700</v>
+        <v>168500</v>
       </c>
       <c r="J89" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K89" s="3">
         <v>72800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-275300</v>
+        <v>-395600</v>
       </c>
       <c r="E91" s="3">
-        <v>-341100</v>
+        <v>-298400</v>
       </c>
       <c r="F91" s="3">
-        <v>-172000</v>
+        <v>-369800</v>
       </c>
       <c r="G91" s="3">
-        <v>-267300</v>
+        <v>-186500</v>
       </c>
       <c r="H91" s="3">
-        <v>-204100</v>
+        <v>-289800</v>
       </c>
       <c r="I91" s="3">
-        <v>-240700</v>
+        <v>-221300</v>
       </c>
       <c r="J91" s="3">
+        <v>-260900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-165400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-136600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-323800</v>
+        <v>-366200</v>
       </c>
       <c r="E94" s="3">
-        <v>-338900</v>
+        <v>-351000</v>
       </c>
       <c r="F94" s="3">
-        <v>15000</v>
+        <v>-367500</v>
       </c>
       <c r="G94" s="3">
-        <v>-313900</v>
+        <v>16300</v>
       </c>
       <c r="H94" s="3">
-        <v>-201700</v>
+        <v>-340300</v>
       </c>
       <c r="I94" s="3">
-        <v>-246000</v>
+        <v>-218700</v>
       </c>
       <c r="J94" s="3">
+        <v>-266700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1627900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-223500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-316200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,100 +3586,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-204200</v>
+        <v>59400</v>
       </c>
       <c r="E100" s="3">
-        <v>-236200</v>
+        <v>-221400</v>
       </c>
       <c r="F100" s="3">
-        <v>138300</v>
+        <v>-256000</v>
       </c>
       <c r="G100" s="3">
-        <v>-313100</v>
+        <v>149900</v>
       </c>
       <c r="H100" s="3">
-        <v>40000</v>
+        <v>-339400</v>
       </c>
       <c r="I100" s="3">
-        <v>-147000</v>
+        <v>43400</v>
       </c>
       <c r="J100" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1931800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>118600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2400</v>
+        <v>-22500</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>-2600</v>
       </c>
       <c r="F101" s="3">
-        <v>-11900</v>
+        <v>8700</v>
       </c>
       <c r="G101" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>8800</v>
-      </c>
       <c r="I101" s="3">
-        <v>-13700</v>
+        <v>9500</v>
       </c>
       <c r="J101" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6900</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>427500</v>
+        <v>591800</v>
       </c>
       <c r="E102" s="3">
-        <v>-25400</v>
+        <v>463500</v>
       </c>
       <c r="F102" s="3">
-        <v>229800</v>
+        <v>-27500</v>
       </c>
       <c r="G102" s="3">
-        <v>29900</v>
+        <v>249100</v>
       </c>
       <c r="H102" s="3">
-        <v>2500</v>
+        <v>32400</v>
       </c>
       <c r="I102" s="3">
-        <v>-297000</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
+        <v>-322000</v>
+      </c>
+      <c r="K102" s="3">
         <v>369900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5223900</v>
+        <v>4760700</v>
       </c>
       <c r="E8" s="3">
-        <v>3971200</v>
+        <v>3619100</v>
       </c>
       <c r="F8" s="3">
-        <v>3565000</v>
+        <v>3248900</v>
       </c>
       <c r="G8" s="3">
-        <v>1698700</v>
+        <v>1548100</v>
       </c>
       <c r="H8" s="3">
-        <v>1930600</v>
+        <v>1759400</v>
       </c>
       <c r="I8" s="3">
-        <v>1725800</v>
+        <v>1572800</v>
       </c>
       <c r="J8" s="3">
-        <v>1926700</v>
+        <v>1755800</v>
       </c>
       <c r="K8" s="3">
         <v>1279600</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3142700</v>
+        <v>2864000</v>
       </c>
       <c r="E9" s="3">
-        <v>3002300</v>
+        <v>2736100</v>
       </c>
       <c r="F9" s="3">
-        <v>2890200</v>
+        <v>2633900</v>
       </c>
       <c r="G9" s="3">
-        <v>1711000</v>
+        <v>1559300</v>
       </c>
       <c r="H9" s="3">
-        <v>1840600</v>
+        <v>1677400</v>
       </c>
       <c r="I9" s="3">
-        <v>1648600</v>
+        <v>1502500</v>
       </c>
       <c r="J9" s="3">
-        <v>1726900</v>
+        <v>1573800</v>
       </c>
       <c r="K9" s="3">
         <v>1242100</v>
@@ -798,25 +798,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2081300</v>
+        <v>1896700</v>
       </c>
       <c r="E10" s="3">
-        <v>969000</v>
+        <v>883000</v>
       </c>
       <c r="F10" s="3">
-        <v>674800</v>
+        <v>615000</v>
       </c>
       <c r="G10" s="3">
-        <v>-12200</v>
+        <v>-11100</v>
       </c>
       <c r="H10" s="3">
-        <v>89900</v>
+        <v>81900</v>
       </c>
       <c r="I10" s="3">
-        <v>77200</v>
+        <v>70300</v>
       </c>
       <c r="J10" s="3">
-        <v>199800</v>
+        <v>182100</v>
       </c>
       <c r="K10" s="3">
         <v>37500</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>118800</v>
+        <v>108200</v>
       </c>
       <c r="E14" s="3">
-        <v>29700</v>
+        <v>27100</v>
       </c>
       <c r="F14" s="3">
-        <v>69500</v>
+        <v>63300</v>
       </c>
       <c r="G14" s="3">
-        <v>-20200</v>
+        <v>-18400</v>
       </c>
       <c r="H14" s="3">
-        <v>233800</v>
+        <v>213100</v>
       </c>
       <c r="I14" s="3">
-        <v>25000</v>
+        <v>22800</v>
       </c>
       <c r="J14" s="3">
-        <v>169400</v>
+        <v>154400</v>
       </c>
       <c r="K14" s="3">
         <v>222800</v>
@@ -1000,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3276900</v>
+        <v>2986400</v>
       </c>
       <c r="E17" s="3">
-        <v>3053500</v>
+        <v>2782700</v>
       </c>
       <c r="F17" s="3">
-        <v>2974100</v>
+        <v>2710400</v>
       </c>
       <c r="G17" s="3">
-        <v>1702600</v>
+        <v>1551600</v>
       </c>
       <c r="H17" s="3">
-        <v>2086400</v>
+        <v>1901400</v>
       </c>
       <c r="I17" s="3">
-        <v>1683400</v>
+        <v>1534200</v>
       </c>
       <c r="J17" s="3">
-        <v>1904700</v>
+        <v>1735800</v>
       </c>
       <c r="K17" s="3">
         <v>1472600</v>
@@ -1035,25 +1035,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1947000</v>
+        <v>1774400</v>
       </c>
       <c r="E18" s="3">
-        <v>917800</v>
+        <v>836400</v>
       </c>
       <c r="F18" s="3">
-        <v>590900</v>
+        <v>538500</v>
       </c>
       <c r="G18" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="H18" s="3">
-        <v>-155800</v>
+        <v>-142000</v>
       </c>
       <c r="I18" s="3">
-        <v>42400</v>
+        <v>38600</v>
       </c>
       <c r="J18" s="3">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="K18" s="3">
         <v>-193000</v>
@@ -1085,25 +1085,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-183600</v>
+        <v>-167300</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="F20" s="3">
-        <v>-447200</v>
+        <v>-407500</v>
       </c>
       <c r="G20" s="3">
-        <v>-100000</v>
+        <v>-91100</v>
       </c>
       <c r="H20" s="3">
-        <v>121800</v>
+        <v>111000</v>
       </c>
       <c r="I20" s="3">
-        <v>40300</v>
+        <v>36700</v>
       </c>
       <c r="J20" s="3">
-        <v>-93500</v>
+        <v>-85200</v>
       </c>
       <c r="K20" s="3">
         <v>-76400</v>
@@ -1120,25 +1120,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1814300</v>
+        <v>1653400</v>
       </c>
       <c r="E21" s="3">
-        <v>1170000</v>
+        <v>1066300</v>
       </c>
       <c r="F21" s="3">
-        <v>242200</v>
+        <v>220800</v>
       </c>
       <c r="G21" s="3">
-        <v>107300</v>
+        <v>97800</v>
       </c>
       <c r="H21" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="I21" s="3">
-        <v>306100</v>
+        <v>278900</v>
       </c>
       <c r="J21" s="3">
-        <v>-20500</v>
+        <v>-18700</v>
       </c>
       <c r="K21" s="3">
         <v>-103100</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52900</v>
+        <v>48200</v>
       </c>
       <c r="E22" s="3">
-        <v>71000</v>
+        <v>64700</v>
       </c>
       <c r="F22" s="3">
-        <v>70700</v>
+        <v>64400</v>
       </c>
       <c r="G22" s="3">
-        <v>63100</v>
+        <v>57500</v>
       </c>
       <c r="H22" s="3">
-        <v>81400</v>
+        <v>74200</v>
       </c>
       <c r="I22" s="3">
-        <v>70900</v>
+        <v>64600</v>
       </c>
       <c r="J22" s="3">
-        <v>84600</v>
+        <v>77100</v>
       </c>
       <c r="K22" s="3">
         <v>78000</v>
@@ -1190,25 +1190,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1710500</v>
+        <v>1558800</v>
       </c>
       <c r="E23" s="3">
-        <v>850400</v>
+        <v>775000</v>
       </c>
       <c r="F23" s="3">
-        <v>73000</v>
+        <v>66600</v>
       </c>
       <c r="G23" s="3">
-        <v>-166900</v>
+        <v>-152100</v>
       </c>
       <c r="H23" s="3">
-        <v>-115500</v>
+        <v>-105200</v>
       </c>
       <c r="I23" s="3">
-        <v>11800</v>
+        <v>10700</v>
       </c>
       <c r="J23" s="3">
-        <v>-156100</v>
+        <v>-142300</v>
       </c>
       <c r="K23" s="3">
         <v>-347400</v>
@@ -1225,25 +1225,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>202600</v>
+        <v>184700</v>
       </c>
       <c r="E24" s="3">
-        <v>148000</v>
+        <v>134900</v>
       </c>
       <c r="F24" s="3">
-        <v>29500</v>
+        <v>26900</v>
       </c>
       <c r="G24" s="3">
-        <v>-154600</v>
+        <v>-140900</v>
       </c>
       <c r="H24" s="3">
-        <v>72100</v>
+        <v>65700</v>
       </c>
       <c r="I24" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="J24" s="3">
-        <v>-182800</v>
+        <v>-166600</v>
       </c>
       <c r="K24" s="3">
         <v>-27600</v>
@@ -1295,25 +1295,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1507900</v>
+        <v>1374200</v>
       </c>
       <c r="E26" s="3">
-        <v>702400</v>
+        <v>640100</v>
       </c>
       <c r="F26" s="3">
-        <v>43600</v>
+        <v>39700</v>
       </c>
       <c r="G26" s="3">
-        <v>-12300</v>
+        <v>-11200</v>
       </c>
       <c r="H26" s="3">
-        <v>-187600</v>
+        <v>-171000</v>
       </c>
       <c r="I26" s="3">
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="J26" s="3">
-        <v>26700</v>
+        <v>24300</v>
       </c>
       <c r="K26" s="3">
         <v>-319800</v>
@@ -1330,25 +1330,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1438300</v>
+        <v>1310800</v>
       </c>
       <c r="E27" s="3">
-        <v>677400</v>
+        <v>617300</v>
       </c>
       <c r="F27" s="3">
-        <v>22900</v>
+        <v>20800</v>
       </c>
       <c r="G27" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="H27" s="3">
-        <v>-186000</v>
+        <v>-169500</v>
       </c>
       <c r="I27" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="3">
-        <v>26400</v>
+        <v>24100</v>
       </c>
       <c r="K27" s="3">
         <v>-319800</v>
@@ -1505,25 +1505,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>183600</v>
+        <v>167300</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="F32" s="3">
-        <v>447200</v>
+        <v>407500</v>
       </c>
       <c r="G32" s="3">
-        <v>100000</v>
+        <v>91100</v>
       </c>
       <c r="H32" s="3">
-        <v>-121800</v>
+        <v>-111000</v>
       </c>
       <c r="I32" s="3">
-        <v>-40300</v>
+        <v>-36700</v>
       </c>
       <c r="J32" s="3">
-        <v>93500</v>
+        <v>85200</v>
       </c>
       <c r="K32" s="3">
         <v>76400</v>
@@ -1540,25 +1540,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1438300</v>
+        <v>1310800</v>
       </c>
       <c r="E33" s="3">
-        <v>677400</v>
+        <v>617300</v>
       </c>
       <c r="F33" s="3">
-        <v>22900</v>
+        <v>20800</v>
       </c>
       <c r="G33" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="H33" s="3">
-        <v>-186000</v>
+        <v>-169500</v>
       </c>
       <c r="I33" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="3">
-        <v>26400</v>
+        <v>24100</v>
       </c>
       <c r="K33" s="3">
         <v>-319800</v>
@@ -1610,25 +1610,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1438300</v>
+        <v>1310800</v>
       </c>
       <c r="E35" s="3">
-        <v>677400</v>
+        <v>617300</v>
       </c>
       <c r="F35" s="3">
-        <v>22900</v>
+        <v>20800</v>
       </c>
       <c r="G35" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="H35" s="3">
-        <v>-186000</v>
+        <v>-169500</v>
       </c>
       <c r="I35" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
-        <v>26400</v>
+        <v>24100</v>
       </c>
       <c r="K35" s="3">
         <v>-319800</v>
@@ -1715,25 +1715,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1460900</v>
+        <v>1331400</v>
       </c>
       <c r="E41" s="3">
-        <v>869100</v>
+        <v>792000</v>
       </c>
       <c r="F41" s="3">
-        <v>405600</v>
+        <v>369600</v>
       </c>
       <c r="G41" s="3">
-        <v>430500</v>
+        <v>392400</v>
       </c>
       <c r="H41" s="3">
-        <v>184000</v>
+        <v>167700</v>
       </c>
       <c r="I41" s="3">
-        <v>151500</v>
+        <v>138100</v>
       </c>
       <c r="J41" s="3">
-        <v>148900</v>
+        <v>135700</v>
       </c>
       <c r="K41" s="3">
         <v>434300</v>
@@ -1785,25 +1785,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>508900</v>
+        <v>463800</v>
       </c>
       <c r="E43" s="3">
-        <v>348800</v>
+        <v>317900</v>
       </c>
       <c r="F43" s="3">
-        <v>363900</v>
+        <v>331600</v>
       </c>
       <c r="G43" s="3">
-        <v>395300</v>
+        <v>360300</v>
       </c>
       <c r="H43" s="3">
-        <v>530600</v>
+        <v>483600</v>
       </c>
       <c r="I43" s="3">
-        <v>472500</v>
+        <v>430600</v>
       </c>
       <c r="J43" s="3">
-        <v>463100</v>
+        <v>422000</v>
       </c>
       <c r="K43" s="3">
         <v>389000</v>
@@ -1820,25 +1820,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1801100</v>
+        <v>1641400</v>
       </c>
       <c r="E44" s="3">
-        <v>1214300</v>
+        <v>1106600</v>
       </c>
       <c r="F44" s="3">
-        <v>1119000</v>
+        <v>1019800</v>
       </c>
       <c r="G44" s="3">
-        <v>1025700</v>
+        <v>934700</v>
       </c>
       <c r="H44" s="3">
-        <v>382200</v>
+        <v>348300</v>
       </c>
       <c r="I44" s="3">
-        <v>305700</v>
+        <v>278600</v>
       </c>
       <c r="J44" s="3">
-        <v>254500</v>
+        <v>232000</v>
       </c>
       <c r="K44" s="3">
         <v>197200</v>
@@ -1864,13 +1864,13 @@
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>8700</v>
+        <v>7900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>91700</v>
+        <v>83500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1890,25 +1890,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3770900</v>
+        <v>3436500</v>
       </c>
       <c r="E46" s="3">
-        <v>2432200</v>
+        <v>2216500</v>
       </c>
       <c r="F46" s="3">
-        <v>1888500</v>
+        <v>1721000</v>
       </c>
       <c r="G46" s="3">
-        <v>1860300</v>
+        <v>1695300</v>
       </c>
       <c r="H46" s="3">
-        <v>1096800</v>
+        <v>999500</v>
       </c>
       <c r="I46" s="3">
-        <v>1021400</v>
+        <v>930800</v>
       </c>
       <c r="J46" s="3">
-        <v>866500</v>
+        <v>789700</v>
       </c>
       <c r="K46" s="3">
         <v>1020500</v>
@@ -1925,25 +1925,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>465000</v>
+        <v>423800</v>
       </c>
       <c r="E47" s="3">
-        <v>441100</v>
+        <v>402000</v>
       </c>
       <c r="F47" s="3">
-        <v>340900</v>
+        <v>310600</v>
       </c>
       <c r="G47" s="3">
-        <v>325100</v>
+        <v>296300</v>
       </c>
       <c r="H47" s="3">
-        <v>292200</v>
+        <v>266300</v>
       </c>
       <c r="I47" s="3">
-        <v>214700</v>
+        <v>195600</v>
       </c>
       <c r="J47" s="3">
-        <v>182500</v>
+        <v>166300</v>
       </c>
       <c r="K47" s="3">
         <v>174400</v>
@@ -1960,25 +1960,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4395400</v>
+        <v>4005700</v>
       </c>
       <c r="E48" s="3">
-        <v>4779800</v>
+        <v>4356000</v>
       </c>
       <c r="F48" s="3">
-        <v>4175000</v>
+        <v>3804800</v>
       </c>
       <c r="G48" s="3">
-        <v>4096100</v>
+        <v>3732900</v>
       </c>
       <c r="H48" s="3">
-        <v>3938000</v>
+        <v>3588800</v>
       </c>
       <c r="I48" s="3">
-        <v>3840300</v>
+        <v>3499800</v>
       </c>
       <c r="J48" s="3">
-        <v>3713300</v>
+        <v>3384000</v>
       </c>
       <c r="K48" s="3">
         <v>3620500</v>
@@ -1995,25 +1995,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>517200</v>
+        <v>471300</v>
       </c>
       <c r="E49" s="3">
-        <v>603500</v>
+        <v>550000</v>
       </c>
       <c r="F49" s="3">
-        <v>494800</v>
+        <v>450900</v>
       </c>
       <c r="G49" s="3">
-        <v>497600</v>
+        <v>453500</v>
       </c>
       <c r="H49" s="3">
-        <v>497300</v>
+        <v>453200</v>
       </c>
       <c r="I49" s="3">
-        <v>506100</v>
+        <v>461300</v>
       </c>
       <c r="J49" s="3">
-        <v>461700</v>
+        <v>420700</v>
       </c>
       <c r="K49" s="3">
         <v>453400</v>
@@ -2100,25 +2100,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>531100</v>
+        <v>484000</v>
       </c>
       <c r="E52" s="3">
-        <v>421000</v>
+        <v>383700</v>
       </c>
       <c r="F52" s="3">
-        <v>396300</v>
+        <v>361100</v>
       </c>
       <c r="G52" s="3">
-        <v>366200</v>
+        <v>333700</v>
       </c>
       <c r="H52" s="3">
-        <v>305400</v>
+        <v>278400</v>
       </c>
       <c r="I52" s="3">
-        <v>270100</v>
+        <v>246200</v>
       </c>
       <c r="J52" s="3">
-        <v>267000</v>
+        <v>243300</v>
       </c>
       <c r="K52" s="3">
         <v>227000</v>
@@ -2170,25 +2170,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9679600</v>
+        <v>8821300</v>
       </c>
       <c r="E54" s="3">
-        <v>8677600</v>
+        <v>7908200</v>
       </c>
       <c r="F54" s="3">
-        <v>7295400</v>
+        <v>6648500</v>
       </c>
       <c r="G54" s="3">
-        <v>7145300</v>
+        <v>6511800</v>
       </c>
       <c r="H54" s="3">
-        <v>6129700</v>
+        <v>5586200</v>
       </c>
       <c r="I54" s="3">
-        <v>5852600</v>
+        <v>5333700</v>
       </c>
       <c r="J54" s="3">
-        <v>5490900</v>
+        <v>5004000</v>
       </c>
       <c r="K54" s="3">
         <v>5495800</v>
@@ -2235,25 +2235,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>953300</v>
+        <v>868800</v>
       </c>
       <c r="E57" s="3">
-        <v>853100</v>
+        <v>777400</v>
       </c>
       <c r="F57" s="3">
-        <v>827600</v>
+        <v>754200</v>
       </c>
       <c r="G57" s="3">
-        <v>802100</v>
+        <v>731000</v>
       </c>
       <c r="H57" s="3">
-        <v>567100</v>
+        <v>516800</v>
       </c>
       <c r="I57" s="3">
-        <v>493300</v>
+        <v>449600</v>
       </c>
       <c r="J57" s="3">
-        <v>482900</v>
+        <v>440100</v>
       </c>
       <c r="K57" s="3">
         <v>476300</v>
@@ -2270,25 +2270,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71400</v>
+        <v>65100</v>
       </c>
       <c r="E58" s="3">
-        <v>99200</v>
+        <v>90400</v>
       </c>
       <c r="F58" s="3">
-        <v>10700</v>
+        <v>9800</v>
       </c>
       <c r="G58" s="3">
-        <v>400300</v>
+        <v>364800</v>
       </c>
       <c r="H58" s="3">
-        <v>446700</v>
+        <v>407100</v>
       </c>
       <c r="I58" s="3">
-        <v>24100</v>
+        <v>22000</v>
       </c>
       <c r="J58" s="3">
-        <v>119600</v>
+        <v>109000</v>
       </c>
       <c r="K58" s="3">
         <v>504100</v>
@@ -2305,25 +2305,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>237500</v>
+        <v>216400</v>
       </c>
       <c r="E59" s="3">
-        <v>286100</v>
+        <v>260700</v>
       </c>
       <c r="F59" s="3">
-        <v>195800</v>
+        <v>178400</v>
       </c>
       <c r="G59" s="3">
-        <v>266900</v>
+        <v>243200</v>
       </c>
       <c r="H59" s="3">
-        <v>42400</v>
+        <v>38700</v>
       </c>
       <c r="I59" s="3">
-        <v>34700</v>
+        <v>31600</v>
       </c>
       <c r="J59" s="3">
-        <v>6500</v>
+        <v>5900</v>
       </c>
       <c r="K59" s="3">
         <v>9300</v>
@@ -2340,25 +2340,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1262200</v>
+        <v>1150300</v>
       </c>
       <c r="E60" s="3">
-        <v>1238400</v>
+        <v>1128600</v>
       </c>
       <c r="F60" s="3">
-        <v>1034100</v>
+        <v>942400</v>
       </c>
       <c r="G60" s="3">
-        <v>1469300</v>
+        <v>1339100</v>
       </c>
       <c r="H60" s="3">
-        <v>1056200</v>
+        <v>962500</v>
       </c>
       <c r="I60" s="3">
-        <v>552100</v>
+        <v>503200</v>
       </c>
       <c r="J60" s="3">
-        <v>609000</v>
+        <v>555000</v>
       </c>
       <c r="K60" s="3">
         <v>989700</v>
@@ -2375,25 +2375,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1279000</v>
+        <v>1165600</v>
       </c>
       <c r="E61" s="3">
-        <v>1828400</v>
+        <v>1666200</v>
       </c>
       <c r="F61" s="3">
-        <v>1730200</v>
+        <v>1576800</v>
       </c>
       <c r="G61" s="3">
-        <v>1583200</v>
+        <v>1442800</v>
       </c>
       <c r="H61" s="3">
-        <v>1322100</v>
+        <v>1204900</v>
       </c>
       <c r="I61" s="3">
-        <v>2046900</v>
+        <v>1865400</v>
       </c>
       <c r="J61" s="3">
-        <v>1731700</v>
+        <v>1578200</v>
       </c>
       <c r="K61" s="3">
         <v>1507200</v>
@@ -2410,25 +2410,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2034000</v>
+        <v>1853700</v>
       </c>
       <c r="E62" s="3">
-        <v>2289000</v>
+        <v>2086100</v>
       </c>
       <c r="F62" s="3">
-        <v>2283500</v>
+        <v>2081000</v>
       </c>
       <c r="G62" s="3">
-        <v>1909100</v>
+        <v>1739800</v>
       </c>
       <c r="H62" s="3">
-        <v>1966900</v>
+        <v>1792500</v>
       </c>
       <c r="I62" s="3">
-        <v>1412100</v>
+        <v>1286900</v>
       </c>
       <c r="J62" s="3">
-        <v>1417900</v>
+        <v>1292200</v>
       </c>
       <c r="K62" s="3">
         <v>1396700</v>
@@ -2550,25 +2550,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4736700</v>
+        <v>4316700</v>
       </c>
       <c r="E66" s="3">
-        <v>5456100</v>
+        <v>4972300</v>
       </c>
       <c r="F66" s="3">
-        <v>5153700</v>
+        <v>4696800</v>
       </c>
       <c r="G66" s="3">
-        <v>5051800</v>
+        <v>4603900</v>
       </c>
       <c r="H66" s="3">
-        <v>4412700</v>
+        <v>4021400</v>
       </c>
       <c r="I66" s="3">
-        <v>4012600</v>
+        <v>3656800</v>
       </c>
       <c r="J66" s="3">
-        <v>3760100</v>
+        <v>3426700</v>
       </c>
       <c r="K66" s="3">
         <v>3894700</v>
@@ -2740,25 +2740,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2766700</v>
+        <v>2521400</v>
       </c>
       <c r="E72" s="3">
-        <v>286600</v>
+        <v>261100</v>
       </c>
       <c r="F72" s="3">
-        <v>-793400</v>
+        <v>-723000</v>
       </c>
       <c r="G72" s="3">
-        <v>-841400</v>
+        <v>-766800</v>
       </c>
       <c r="H72" s="3">
-        <v>-785200</v>
+        <v>-715600</v>
       </c>
       <c r="I72" s="3">
-        <v>-662300</v>
+        <v>-603500</v>
       </c>
       <c r="J72" s="3">
-        <v>-771500</v>
+        <v>-703100</v>
       </c>
       <c r="K72" s="3">
         <v>-709000</v>
@@ -2880,25 +2880,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4942900</v>
+        <v>4504600</v>
       </c>
       <c r="E76" s="3">
-        <v>3221500</v>
+        <v>2935900</v>
       </c>
       <c r="F76" s="3">
-        <v>2141600</v>
+        <v>1951700</v>
       </c>
       <c r="G76" s="3">
-        <v>2093500</v>
+        <v>1907900</v>
       </c>
       <c r="H76" s="3">
-        <v>1717000</v>
+        <v>1564800</v>
       </c>
       <c r="I76" s="3">
-        <v>1840000</v>
+        <v>1676900</v>
       </c>
       <c r="J76" s="3">
-        <v>1730800</v>
+        <v>1577300</v>
       </c>
       <c r="K76" s="3">
         <v>1601100</v>
@@ -2990,25 +2990,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1438300</v>
+        <v>1310800</v>
       </c>
       <c r="E81" s="3">
-        <v>677400</v>
+        <v>617300</v>
       </c>
       <c r="F81" s="3">
-        <v>22900</v>
+        <v>20800</v>
       </c>
       <c r="G81" s="3">
-        <v>-18400</v>
+        <v>-16800</v>
       </c>
       <c r="H81" s="3">
-        <v>-186000</v>
+        <v>-169500</v>
       </c>
       <c r="I81" s="3">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="J81" s="3">
-        <v>26400</v>
+        <v>24100</v>
       </c>
       <c r="K81" s="3">
         <v>-319800</v>
@@ -3250,25 +3250,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>921100</v>
+        <v>839500</v>
       </c>
       <c r="E89" s="3">
-        <v>1038500</v>
+        <v>946400</v>
       </c>
       <c r="F89" s="3">
-        <v>587300</v>
+        <v>535200</v>
       </c>
       <c r="G89" s="3">
-        <v>95800</v>
+        <v>87300</v>
       </c>
       <c r="H89" s="3">
-        <v>711900</v>
+        <v>648800</v>
       </c>
       <c r="I89" s="3">
-        <v>168500</v>
+        <v>153500</v>
       </c>
       <c r="J89" s="3">
-        <v>119000</v>
+        <v>108400</v>
       </c>
       <c r="K89" s="3">
         <v>72800</v>
@@ -3300,25 +3300,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-395600</v>
+        <v>-360500</v>
       </c>
       <c r="E91" s="3">
-        <v>-298400</v>
+        <v>-272000</v>
       </c>
       <c r="F91" s="3">
-        <v>-369800</v>
+        <v>-337000</v>
       </c>
       <c r="G91" s="3">
-        <v>-186500</v>
+        <v>-169900</v>
       </c>
       <c r="H91" s="3">
-        <v>-289800</v>
+        <v>-264100</v>
       </c>
       <c r="I91" s="3">
-        <v>-221300</v>
+        <v>-201700</v>
       </c>
       <c r="J91" s="3">
-        <v>-260900</v>
+        <v>-237800</v>
       </c>
       <c r="K91" s="3">
         <v>-165400</v>
@@ -3405,25 +3405,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-366200</v>
+        <v>-333700</v>
       </c>
       <c r="E94" s="3">
-        <v>-351000</v>
+        <v>-319900</v>
       </c>
       <c r="F94" s="3">
-        <v>-367500</v>
+        <v>-334900</v>
       </c>
       <c r="G94" s="3">
-        <v>16300</v>
+        <v>14900</v>
       </c>
       <c r="H94" s="3">
-        <v>-340300</v>
+        <v>-310100</v>
       </c>
       <c r="I94" s="3">
-        <v>-218700</v>
+        <v>-199300</v>
       </c>
       <c r="J94" s="3">
-        <v>-266700</v>
+        <v>-243000</v>
       </c>
       <c r="K94" s="3">
         <v>-1627900</v>
@@ -3595,25 +3595,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>59400</v>
+        <v>54200</v>
       </c>
       <c r="E100" s="3">
-        <v>-221400</v>
+        <v>-201800</v>
       </c>
       <c r="F100" s="3">
-        <v>-256000</v>
+        <v>-233300</v>
       </c>
       <c r="G100" s="3">
-        <v>149900</v>
+        <v>136700</v>
       </c>
       <c r="H100" s="3">
-        <v>-339400</v>
+        <v>-309300</v>
       </c>
       <c r="I100" s="3">
-        <v>43400</v>
+        <v>39500</v>
       </c>
       <c r="J100" s="3">
-        <v>-159400</v>
+        <v>-145300</v>
       </c>
       <c r="K100" s="3">
         <v>1931800</v>
@@ -3630,25 +3630,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22500</v>
+        <v>-20500</v>
       </c>
       <c r="E101" s="3">
-        <v>-2600</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3">
-        <v>8700</v>
+        <v>7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-12900</v>
+        <v>-11800</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>9500</v>
+        <v>8700</v>
       </c>
       <c r="J101" s="3">
-        <v>-14800</v>
+        <v>-13500</v>
       </c>
       <c r="K101" s="3">
         <v>-6900</v>
@@ -3665,25 +3665,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>591800</v>
+        <v>539300</v>
       </c>
       <c r="E102" s="3">
-        <v>463500</v>
+        <v>422400</v>
       </c>
       <c r="F102" s="3">
-        <v>-27500</v>
+        <v>-25100</v>
       </c>
       <c r="G102" s="3">
-        <v>249100</v>
+        <v>227000</v>
       </c>
       <c r="H102" s="3">
-        <v>32400</v>
+        <v>29600</v>
       </c>
       <c r="I102" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="J102" s="3">
-        <v>-322000</v>
+        <v>-293400</v>
       </c>
       <c r="K102" s="3">
         <v>369900</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4760700</v>
+        <v>5572600</v>
       </c>
       <c r="E8" s="3">
-        <v>3619100</v>
+        <v>4483600</v>
       </c>
       <c r="F8" s="3">
-        <v>3248900</v>
+        <v>3408400</v>
       </c>
       <c r="G8" s="3">
-        <v>1548100</v>
+        <v>3059700</v>
       </c>
       <c r="H8" s="3">
-        <v>1759400</v>
+        <v>1458000</v>
       </c>
       <c r="I8" s="3">
-        <v>1572800</v>
+        <v>1656900</v>
       </c>
       <c r="J8" s="3">
+        <v>1481200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1755800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1279600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>945000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2864000</v>
+        <v>3320100</v>
       </c>
       <c r="E9" s="3">
-        <v>2736100</v>
+        <v>2697300</v>
       </c>
       <c r="F9" s="3">
-        <v>2633900</v>
+        <v>2576800</v>
       </c>
       <c r="G9" s="3">
-        <v>1559300</v>
+        <v>2480600</v>
       </c>
       <c r="H9" s="3">
-        <v>1677400</v>
+        <v>1468500</v>
       </c>
       <c r="I9" s="3">
-        <v>1502500</v>
+        <v>1579800</v>
       </c>
       <c r="J9" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1573800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1242100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>788400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1896700</v>
+        <v>2252500</v>
       </c>
       <c r="E10" s="3">
-        <v>883000</v>
+        <v>1786300</v>
       </c>
       <c r="F10" s="3">
-        <v>615000</v>
+        <v>831600</v>
       </c>
       <c r="G10" s="3">
-        <v>-11100</v>
+        <v>579200</v>
       </c>
       <c r="H10" s="3">
-        <v>81900</v>
+        <v>-10500</v>
       </c>
       <c r="I10" s="3">
-        <v>70300</v>
+        <v>77200</v>
       </c>
       <c r="J10" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K10" s="3">
         <v>182100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>156700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,11 +888,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,43 +929,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>108200</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>27100</v>
+        <v>101900</v>
       </c>
       <c r="F14" s="3">
-        <v>63300</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="3">
-        <v>-18400</v>
+        <v>59600</v>
       </c>
       <c r="H14" s="3">
-        <v>213100</v>
+        <v>-17300</v>
       </c>
       <c r="I14" s="3">
-        <v>22800</v>
+        <v>200700</v>
       </c>
       <c r="J14" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K14" s="3">
         <v>154400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>222800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-81400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2986400</v>
+        <v>3343300</v>
       </c>
       <c r="E17" s="3">
-        <v>2782700</v>
+        <v>2812500</v>
       </c>
       <c r="F17" s="3">
-        <v>2710400</v>
+        <v>2620700</v>
       </c>
       <c r="G17" s="3">
-        <v>1551600</v>
+        <v>2552600</v>
       </c>
       <c r="H17" s="3">
-        <v>1901400</v>
+        <v>1461300</v>
       </c>
       <c r="I17" s="3">
-        <v>1534200</v>
+        <v>1790700</v>
       </c>
       <c r="J17" s="3">
+        <v>1444800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1735800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1472600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>727500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1774400</v>
+        <v>2229300</v>
       </c>
       <c r="E18" s="3">
-        <v>836400</v>
+        <v>1671000</v>
       </c>
       <c r="F18" s="3">
-        <v>538500</v>
+        <v>787700</v>
       </c>
       <c r="G18" s="3">
-        <v>-3500</v>
+        <v>507100</v>
       </c>
       <c r="H18" s="3">
-        <v>-142000</v>
+        <v>-3300</v>
       </c>
       <c r="I18" s="3">
-        <v>38600</v>
+        <v>-133700</v>
       </c>
       <c r="J18" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K18" s="3">
         <v>20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-193000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>217600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-167300</v>
+        <v>-62300</v>
       </c>
       <c r="E20" s="3">
-        <v>3400</v>
+        <v>-157600</v>
       </c>
       <c r="F20" s="3">
-        <v>-407500</v>
+        <v>3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-91100</v>
+        <v>-383800</v>
       </c>
       <c r="H20" s="3">
-        <v>111000</v>
+        <v>-85800</v>
       </c>
       <c r="I20" s="3">
-        <v>36700</v>
+        <v>104500</v>
       </c>
       <c r="J20" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-85200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-76400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1653400</v>
+        <v>2402300</v>
       </c>
       <c r="E21" s="3">
-        <v>1066300</v>
+        <v>1557200</v>
       </c>
       <c r="F21" s="3">
-        <v>220800</v>
+        <v>1004200</v>
       </c>
       <c r="G21" s="3">
-        <v>97800</v>
+        <v>207900</v>
       </c>
       <c r="H21" s="3">
-        <v>-3100</v>
+        <v>92100</v>
       </c>
       <c r="I21" s="3">
-        <v>278900</v>
+        <v>-2900</v>
       </c>
       <c r="J21" s="3">
+        <v>262700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-18700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-103100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>217300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48200</v>
+        <v>37000</v>
       </c>
       <c r="E22" s="3">
-        <v>64700</v>
+        <v>45400</v>
       </c>
       <c r="F22" s="3">
-        <v>64400</v>
+        <v>61000</v>
       </c>
       <c r="G22" s="3">
-        <v>57500</v>
+        <v>60700</v>
       </c>
       <c r="H22" s="3">
-        <v>74200</v>
+        <v>54100</v>
       </c>
       <c r="I22" s="3">
-        <v>64600</v>
+        <v>69900</v>
       </c>
       <c r="J22" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K22" s="3">
         <v>77100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>78000</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1558800</v>
+        <v>2130000</v>
       </c>
       <c r="E23" s="3">
-        <v>775000</v>
+        <v>1468100</v>
       </c>
       <c r="F23" s="3">
-        <v>66600</v>
+        <v>729900</v>
       </c>
       <c r="G23" s="3">
-        <v>-152100</v>
+        <v>62700</v>
       </c>
       <c r="H23" s="3">
-        <v>-105200</v>
+        <v>-143200</v>
       </c>
       <c r="I23" s="3">
-        <v>10700</v>
+        <v>-99100</v>
       </c>
       <c r="J23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-142300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-347400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>208700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>184700</v>
+        <v>561500</v>
       </c>
       <c r="E24" s="3">
-        <v>134900</v>
+        <v>173900</v>
       </c>
       <c r="F24" s="3">
-        <v>26900</v>
+        <v>127100</v>
       </c>
       <c r="G24" s="3">
-        <v>-140900</v>
+        <v>25300</v>
       </c>
       <c r="H24" s="3">
-        <v>65700</v>
+        <v>-132700</v>
       </c>
       <c r="I24" s="3">
-        <v>5600</v>
+        <v>61900</v>
       </c>
       <c r="J24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-166600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-27600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1374200</v>
+        <v>1568500</v>
       </c>
       <c r="E26" s="3">
-        <v>640100</v>
+        <v>1294200</v>
       </c>
       <c r="F26" s="3">
-        <v>39700</v>
+        <v>602800</v>
       </c>
       <c r="G26" s="3">
-        <v>-11200</v>
+        <v>37400</v>
       </c>
       <c r="H26" s="3">
-        <v>-171000</v>
+        <v>-10600</v>
       </c>
       <c r="I26" s="3">
-        <v>5200</v>
+        <v>-161000</v>
       </c>
       <c r="J26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K26" s="3">
         <v>24300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-319800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>168900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1310800</v>
+        <v>1538600</v>
       </c>
       <c r="E27" s="3">
-        <v>617300</v>
+        <v>1234500</v>
       </c>
       <c r="F27" s="3">
-        <v>20800</v>
+        <v>581400</v>
       </c>
       <c r="G27" s="3">
-        <v>-16800</v>
+        <v>19600</v>
       </c>
       <c r="H27" s="3">
-        <v>-169500</v>
+        <v>-15800</v>
       </c>
       <c r="I27" s="3">
-        <v>5000</v>
+        <v>-159600</v>
       </c>
       <c r="J27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-319800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>179500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>167300</v>
+        <v>62300</v>
       </c>
       <c r="E32" s="3">
-        <v>-3400</v>
+        <v>157600</v>
       </c>
       <c r="F32" s="3">
-        <v>407500</v>
+        <v>-3200</v>
       </c>
       <c r="G32" s="3">
-        <v>91100</v>
+        <v>383800</v>
       </c>
       <c r="H32" s="3">
-        <v>-111000</v>
+        <v>85800</v>
       </c>
       <c r="I32" s="3">
-        <v>-36700</v>
+        <v>-104500</v>
       </c>
       <c r="J32" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="K32" s="3">
         <v>85200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>76400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1310800</v>
+        <v>1538600</v>
       </c>
       <c r="E33" s="3">
-        <v>617300</v>
+        <v>1234500</v>
       </c>
       <c r="F33" s="3">
-        <v>20800</v>
+        <v>581400</v>
       </c>
       <c r="G33" s="3">
-        <v>-16800</v>
+        <v>19600</v>
       </c>
       <c r="H33" s="3">
-        <v>-169500</v>
+        <v>-15800</v>
       </c>
       <c r="I33" s="3">
-        <v>5000</v>
+        <v>-159600</v>
       </c>
       <c r="J33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-319800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>179500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1310800</v>
+        <v>1538600</v>
       </c>
       <c r="E35" s="3">
-        <v>617300</v>
+        <v>1234500</v>
       </c>
       <c r="F35" s="3">
-        <v>20800</v>
+        <v>581400</v>
       </c>
       <c r="G35" s="3">
-        <v>-16800</v>
+        <v>19600</v>
       </c>
       <c r="H35" s="3">
-        <v>-169500</v>
+        <v>-15800</v>
       </c>
       <c r="I35" s="3">
-        <v>5000</v>
+        <v>-159600</v>
       </c>
       <c r="J35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-319800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>179500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1331400</v>
+        <v>1616700</v>
       </c>
       <c r="E41" s="3">
-        <v>792000</v>
+        <v>1253900</v>
       </c>
       <c r="F41" s="3">
-        <v>369600</v>
+        <v>745900</v>
       </c>
       <c r="G41" s="3">
-        <v>392400</v>
+        <v>348100</v>
       </c>
       <c r="H41" s="3">
-        <v>167700</v>
+        <v>369500</v>
       </c>
       <c r="I41" s="3">
-        <v>138100</v>
+        <v>157900</v>
       </c>
       <c r="J41" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K41" s="3">
         <v>135700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>434300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>55300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,78 +1869,87 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>463800</v>
+        <v>513300</v>
       </c>
       <c r="E43" s="3">
-        <v>317900</v>
+        <v>436800</v>
       </c>
       <c r="F43" s="3">
-        <v>331600</v>
+        <v>299400</v>
       </c>
       <c r="G43" s="3">
-        <v>360300</v>
+        <v>312300</v>
       </c>
       <c r="H43" s="3">
-        <v>483600</v>
+        <v>339300</v>
       </c>
       <c r="I43" s="3">
-        <v>430600</v>
+        <v>455400</v>
       </c>
       <c r="J43" s="3">
+        <v>405500</v>
+      </c>
+      <c r="K43" s="3">
         <v>422000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>389000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>346200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1641400</v>
+        <v>1823600</v>
       </c>
       <c r="E44" s="3">
-        <v>1106600</v>
+        <v>1545800</v>
       </c>
       <c r="F44" s="3">
-        <v>1019800</v>
+        <v>1042200</v>
       </c>
       <c r="G44" s="3">
-        <v>934700</v>
+        <v>960400</v>
       </c>
       <c r="H44" s="3">
-        <v>348300</v>
+        <v>880300</v>
       </c>
       <c r="I44" s="3">
-        <v>278600</v>
+        <v>328000</v>
       </c>
       <c r="J44" s="3">
+        <v>262400</v>
+      </c>
+      <c r="K44" s="3">
         <v>232000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>197200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1863,169 +1962,184 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>83500</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3436500</v>
+        <v>3953600</v>
       </c>
       <c r="E46" s="3">
-        <v>2216500</v>
+        <v>3236400</v>
       </c>
       <c r="F46" s="3">
-        <v>1721000</v>
+        <v>2087500</v>
       </c>
       <c r="G46" s="3">
-        <v>1695300</v>
+        <v>1620800</v>
       </c>
       <c r="H46" s="3">
-        <v>999500</v>
+        <v>1596600</v>
       </c>
       <c r="I46" s="3">
-        <v>930800</v>
+        <v>941300</v>
       </c>
       <c r="J46" s="3">
+        <v>876600</v>
+      </c>
+      <c r="K46" s="3">
         <v>789700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1020500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>440200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>423800</v>
+        <v>457700</v>
       </c>
       <c r="E47" s="3">
-        <v>402000</v>
+        <v>399100</v>
       </c>
       <c r="F47" s="3">
-        <v>310600</v>
+        <v>378600</v>
       </c>
       <c r="G47" s="3">
-        <v>296300</v>
+        <v>292500</v>
       </c>
       <c r="H47" s="3">
-        <v>266300</v>
+        <v>279100</v>
       </c>
       <c r="I47" s="3">
-        <v>195600</v>
+        <v>250800</v>
       </c>
       <c r="J47" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K47" s="3">
         <v>166300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>174400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>143600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4005700</v>
+        <v>3812900</v>
       </c>
       <c r="E48" s="3">
-        <v>4356000</v>
+        <v>3772500</v>
       </c>
       <c r="F48" s="3">
-        <v>3804800</v>
+        <v>4102400</v>
       </c>
       <c r="G48" s="3">
-        <v>3732900</v>
+        <v>3583300</v>
       </c>
       <c r="H48" s="3">
-        <v>3588800</v>
+        <v>3515600</v>
       </c>
       <c r="I48" s="3">
-        <v>3499800</v>
+        <v>3379900</v>
       </c>
       <c r="J48" s="3">
+        <v>3296000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3384000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3620500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1556800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>471300</v>
+        <v>432200</v>
       </c>
       <c r="E49" s="3">
-        <v>550000</v>
+        <v>443900</v>
       </c>
       <c r="F49" s="3">
-        <v>450900</v>
+        <v>518000</v>
       </c>
       <c r="G49" s="3">
-        <v>453500</v>
+        <v>424700</v>
       </c>
       <c r="H49" s="3">
-        <v>453200</v>
+        <v>427100</v>
       </c>
       <c r="I49" s="3">
-        <v>461300</v>
+        <v>426800</v>
       </c>
       <c r="J49" s="3">
+        <v>434400</v>
+      </c>
+      <c r="K49" s="3">
         <v>420700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>453400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>484000</v>
+        <v>416600</v>
       </c>
       <c r="E52" s="3">
-        <v>383700</v>
+        <v>455800</v>
       </c>
       <c r="F52" s="3">
-        <v>361100</v>
+        <v>361300</v>
       </c>
       <c r="G52" s="3">
-        <v>333700</v>
+        <v>340100</v>
       </c>
       <c r="H52" s="3">
-        <v>278400</v>
+        <v>314300</v>
       </c>
       <c r="I52" s="3">
-        <v>246200</v>
+        <v>262100</v>
       </c>
       <c r="J52" s="3">
+        <v>231800</v>
+      </c>
+      <c r="K52" s="3">
         <v>243300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>227000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>190200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8821300</v>
+        <v>9073000</v>
       </c>
       <c r="E54" s="3">
-        <v>7908200</v>
+        <v>8307700</v>
       </c>
       <c r="F54" s="3">
-        <v>6648500</v>
+        <v>7447800</v>
       </c>
       <c r="G54" s="3">
-        <v>6511800</v>
+        <v>6261400</v>
       </c>
       <c r="H54" s="3">
-        <v>5586200</v>
+        <v>6132600</v>
       </c>
       <c r="I54" s="3">
-        <v>5333700</v>
+        <v>5261000</v>
       </c>
       <c r="J54" s="3">
+        <v>5023200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5004000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5495800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2384400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>868800</v>
+        <v>919600</v>
       </c>
       <c r="E57" s="3">
-        <v>777400</v>
+        <v>818200</v>
       </c>
       <c r="F57" s="3">
-        <v>754200</v>
+        <v>732200</v>
       </c>
       <c r="G57" s="3">
-        <v>731000</v>
+        <v>710300</v>
       </c>
       <c r="H57" s="3">
-        <v>516800</v>
+        <v>688400</v>
       </c>
       <c r="I57" s="3">
-        <v>449600</v>
+        <v>486700</v>
       </c>
       <c r="J57" s="3">
+        <v>423400</v>
+      </c>
+      <c r="K57" s="3">
         <v>440100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>476300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>296100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65100</v>
+        <v>412200</v>
       </c>
       <c r="E58" s="3">
-        <v>90400</v>
+        <v>61300</v>
       </c>
       <c r="F58" s="3">
-        <v>9800</v>
+        <v>85200</v>
       </c>
       <c r="G58" s="3">
-        <v>364800</v>
+        <v>9200</v>
       </c>
       <c r="H58" s="3">
-        <v>407100</v>
+        <v>343600</v>
       </c>
       <c r="I58" s="3">
-        <v>22000</v>
+        <v>383400</v>
       </c>
       <c r="J58" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K58" s="3">
         <v>109000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>504100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>216400</v>
+        <v>114600</v>
       </c>
       <c r="E59" s="3">
-        <v>260700</v>
+        <v>203800</v>
       </c>
       <c r="F59" s="3">
-        <v>178400</v>
+        <v>245500</v>
       </c>
       <c r="G59" s="3">
-        <v>243200</v>
+        <v>168000</v>
       </c>
       <c r="H59" s="3">
-        <v>38700</v>
+        <v>229100</v>
       </c>
       <c r="I59" s="3">
-        <v>31600</v>
+        <v>36400</v>
       </c>
       <c r="J59" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1150300</v>
+        <v>1446400</v>
       </c>
       <c r="E60" s="3">
-        <v>1128600</v>
+        <v>1083300</v>
       </c>
       <c r="F60" s="3">
-        <v>942400</v>
+        <v>1062900</v>
       </c>
       <c r="G60" s="3">
-        <v>1339100</v>
+        <v>887500</v>
       </c>
       <c r="H60" s="3">
-        <v>962500</v>
+        <v>1261100</v>
       </c>
       <c r="I60" s="3">
-        <v>503200</v>
+        <v>906500</v>
       </c>
       <c r="J60" s="3">
+        <v>473900</v>
+      </c>
+      <c r="K60" s="3">
         <v>555000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>989700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>357600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1165600</v>
+        <v>670400</v>
       </c>
       <c r="E61" s="3">
-        <v>1666200</v>
+        <v>1097800</v>
       </c>
       <c r="F61" s="3">
-        <v>1576800</v>
+        <v>1569200</v>
       </c>
       <c r="G61" s="3">
-        <v>1442800</v>
+        <v>1485000</v>
       </c>
       <c r="H61" s="3">
-        <v>1204900</v>
+        <v>1358800</v>
       </c>
       <c r="I61" s="3">
-        <v>1865400</v>
+        <v>1134700</v>
       </c>
       <c r="J61" s="3">
+        <v>1756800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1578200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1507200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>469900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1853700</v>
+        <v>1793400</v>
       </c>
       <c r="E62" s="3">
-        <v>2086100</v>
+        <v>1745700</v>
       </c>
       <c r="F62" s="3">
-        <v>2081000</v>
+        <v>1964600</v>
       </c>
       <c r="G62" s="3">
-        <v>1739800</v>
+        <v>1959900</v>
       </c>
       <c r="H62" s="3">
-        <v>1792500</v>
+        <v>1638500</v>
       </c>
       <c r="I62" s="3">
-        <v>1286900</v>
+        <v>1688100</v>
       </c>
       <c r="J62" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1292200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1396700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>615700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4316700</v>
+        <v>3992200</v>
       </c>
       <c r="E66" s="3">
-        <v>4972300</v>
+        <v>4065300</v>
       </c>
       <c r="F66" s="3">
-        <v>4696800</v>
+        <v>4682800</v>
       </c>
       <c r="G66" s="3">
-        <v>4603900</v>
+        <v>4423300</v>
       </c>
       <c r="H66" s="3">
-        <v>4021400</v>
+        <v>4335800</v>
       </c>
       <c r="I66" s="3">
-        <v>3656800</v>
+        <v>3787300</v>
       </c>
       <c r="J66" s="3">
+        <v>3443900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3426700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3894700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1444200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2521400</v>
+        <v>1845800</v>
       </c>
       <c r="E72" s="3">
-        <v>261100</v>
+        <v>2374600</v>
       </c>
       <c r="F72" s="3">
-        <v>-723000</v>
+        <v>245900</v>
       </c>
       <c r="G72" s="3">
-        <v>-766800</v>
+        <v>-680900</v>
       </c>
       <c r="H72" s="3">
-        <v>-715600</v>
+        <v>-722200</v>
       </c>
       <c r="I72" s="3">
-        <v>-603500</v>
+        <v>-673900</v>
       </c>
       <c r="J72" s="3">
+        <v>-568400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-703100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-709000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-301900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4504600</v>
+        <v>5080800</v>
       </c>
       <c r="E76" s="3">
-        <v>2935900</v>
+        <v>4242400</v>
       </c>
       <c r="F76" s="3">
-        <v>1951700</v>
+        <v>2765000</v>
       </c>
       <c r="G76" s="3">
-        <v>1907900</v>
+        <v>1838100</v>
       </c>
       <c r="H76" s="3">
-        <v>1564800</v>
+        <v>1796800</v>
       </c>
       <c r="I76" s="3">
-        <v>1676900</v>
+        <v>1473700</v>
       </c>
       <c r="J76" s="3">
+        <v>1579200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1577300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1601100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>940200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1310800</v>
+        <v>1538600</v>
       </c>
       <c r="E81" s="3">
-        <v>617300</v>
+        <v>1234500</v>
       </c>
       <c r="F81" s="3">
-        <v>20800</v>
+        <v>581400</v>
       </c>
       <c r="G81" s="3">
-        <v>-16800</v>
+        <v>19600</v>
       </c>
       <c r="H81" s="3">
-        <v>-169500</v>
+        <v>-15800</v>
       </c>
       <c r="I81" s="3">
-        <v>5000</v>
+        <v>-159600</v>
       </c>
       <c r="J81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-319800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>179500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>839500</v>
+        <v>823700</v>
       </c>
       <c r="E89" s="3">
-        <v>946400</v>
+        <v>790600</v>
       </c>
       <c r="F89" s="3">
-        <v>535200</v>
+        <v>891300</v>
       </c>
       <c r="G89" s="3">
-        <v>87300</v>
+        <v>504100</v>
       </c>
       <c r="H89" s="3">
-        <v>648800</v>
+        <v>82200</v>
       </c>
       <c r="I89" s="3">
-        <v>153500</v>
+        <v>611000</v>
       </c>
       <c r="J89" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K89" s="3">
         <v>108400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>110500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-360500</v>
+        <v>-346100</v>
       </c>
       <c r="E91" s="3">
-        <v>-272000</v>
+        <v>-339600</v>
       </c>
       <c r="F91" s="3">
-        <v>-337000</v>
+        <v>-256100</v>
       </c>
       <c r="G91" s="3">
-        <v>-169900</v>
+        <v>-317400</v>
       </c>
       <c r="H91" s="3">
-        <v>-264100</v>
+        <v>-160000</v>
       </c>
       <c r="I91" s="3">
-        <v>-201700</v>
+        <v>-248700</v>
       </c>
       <c r="J91" s="3">
+        <v>-189900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-237800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-165400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-136600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-333700</v>
+        <v>-360700</v>
       </c>
       <c r="E94" s="3">
-        <v>-319900</v>
+        <v>-314300</v>
       </c>
       <c r="F94" s="3">
-        <v>-334900</v>
+        <v>-301300</v>
       </c>
       <c r="G94" s="3">
-        <v>14900</v>
+        <v>-315400</v>
       </c>
       <c r="H94" s="3">
-        <v>-310100</v>
+        <v>14000</v>
       </c>
       <c r="I94" s="3">
-        <v>-199300</v>
+        <v>-292000</v>
       </c>
       <c r="J94" s="3">
+        <v>-187700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-243000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1627900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-223500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-316200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>54200</v>
+        <v>-96000</v>
       </c>
       <c r="E100" s="3">
-        <v>-201800</v>
+        <v>51000</v>
       </c>
       <c r="F100" s="3">
-        <v>-233300</v>
+        <v>-190000</v>
       </c>
       <c r="G100" s="3">
-        <v>136700</v>
+        <v>-219800</v>
       </c>
       <c r="H100" s="3">
-        <v>-309300</v>
+        <v>128700</v>
       </c>
       <c r="I100" s="3">
-        <v>39500</v>
+        <v>-291300</v>
       </c>
       <c r="J100" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-145300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1931800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>118600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20500</v>
+        <v>-4200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-19400</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-11800</v>
+        <v>7400</v>
       </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>-11100</v>
       </c>
       <c r="I101" s="3">
-        <v>8700</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-13500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6900</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>539300</v>
+        <v>362800</v>
       </c>
       <c r="E102" s="3">
-        <v>422400</v>
+        <v>507900</v>
       </c>
       <c r="F102" s="3">
-        <v>-25100</v>
+        <v>397800</v>
       </c>
       <c r="G102" s="3">
-        <v>227000</v>
+        <v>-23600</v>
       </c>
       <c r="H102" s="3">
-        <v>29600</v>
+        <v>213800</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>27800</v>
       </c>
       <c r="J102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-293400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>369900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5572600</v>
+        <v>5972000</v>
       </c>
       <c r="E8" s="3">
-        <v>4483600</v>
+        <v>4804900</v>
       </c>
       <c r="F8" s="3">
-        <v>3408400</v>
+        <v>3652700</v>
       </c>
       <c r="G8" s="3">
-        <v>3059700</v>
+        <v>3279000</v>
       </c>
       <c r="H8" s="3">
-        <v>1458000</v>
+        <v>1562500</v>
       </c>
       <c r="I8" s="3">
-        <v>1656900</v>
+        <v>1775700</v>
       </c>
       <c r="J8" s="3">
-        <v>1481200</v>
+        <v>1587400</v>
       </c>
       <c r="K8" s="3">
         <v>1755800</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3320100</v>
+        <v>3558000</v>
       </c>
       <c r="E9" s="3">
-        <v>2697300</v>
+        <v>2890600</v>
       </c>
       <c r="F9" s="3">
-        <v>2576800</v>
+        <v>2761500</v>
       </c>
       <c r="G9" s="3">
-        <v>2480600</v>
+        <v>2658300</v>
       </c>
       <c r="H9" s="3">
-        <v>1468500</v>
+        <v>1573700</v>
       </c>
       <c r="I9" s="3">
-        <v>1579800</v>
+        <v>1693000</v>
       </c>
       <c r="J9" s="3">
-        <v>1415000</v>
+        <v>1516400</v>
       </c>
       <c r="K9" s="3">
         <v>1573800</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2252500</v>
+        <v>2413900</v>
       </c>
       <c r="E10" s="3">
-        <v>1786300</v>
+        <v>1914300</v>
       </c>
       <c r="F10" s="3">
-        <v>831600</v>
+        <v>891200</v>
       </c>
       <c r="G10" s="3">
-        <v>579200</v>
+        <v>620700</v>
       </c>
       <c r="H10" s="3">
-        <v>-10500</v>
+        <v>-11200</v>
       </c>
       <c r="I10" s="3">
-        <v>77200</v>
+        <v>82700</v>
       </c>
       <c r="J10" s="3">
-        <v>66200</v>
+        <v>71000</v>
       </c>
       <c r="K10" s="3">
         <v>182100</v>
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
-        <v>101900</v>
+        <v>109200</v>
       </c>
       <c r="F14" s="3">
-        <v>25500</v>
+        <v>27300</v>
       </c>
       <c r="G14" s="3">
-        <v>59600</v>
+        <v>63900</v>
       </c>
       <c r="H14" s="3">
-        <v>-17300</v>
+        <v>-18500</v>
       </c>
       <c r="I14" s="3">
-        <v>200700</v>
+        <v>215100</v>
       </c>
       <c r="J14" s="3">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="K14" s="3">
         <v>154400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3343300</v>
+        <v>3582900</v>
       </c>
       <c r="E17" s="3">
-        <v>2812500</v>
+        <v>3014100</v>
       </c>
       <c r="F17" s="3">
-        <v>2620700</v>
+        <v>2808500</v>
       </c>
       <c r="G17" s="3">
-        <v>2552600</v>
+        <v>2735500</v>
       </c>
       <c r="H17" s="3">
-        <v>1461300</v>
+        <v>1566000</v>
       </c>
       <c r="I17" s="3">
-        <v>1790700</v>
+        <v>1919000</v>
       </c>
       <c r="J17" s="3">
-        <v>1444800</v>
+        <v>1548400</v>
       </c>
       <c r="K17" s="3">
         <v>1735800</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2229300</v>
+        <v>2389000</v>
       </c>
       <c r="E18" s="3">
-        <v>1671000</v>
+        <v>1790800</v>
       </c>
       <c r="F18" s="3">
-        <v>787700</v>
+        <v>844100</v>
       </c>
       <c r="G18" s="3">
-        <v>507100</v>
+        <v>543500</v>
       </c>
       <c r="H18" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="I18" s="3">
-        <v>-133700</v>
+        <v>-143300</v>
       </c>
       <c r="J18" s="3">
-        <v>36400</v>
+        <v>39000</v>
       </c>
       <c r="K18" s="3">
         <v>20000</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62300</v>
+        <v>-66700</v>
       </c>
       <c r="E20" s="3">
-        <v>-157600</v>
+        <v>-168900</v>
       </c>
       <c r="F20" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
-        <v>-383800</v>
+        <v>-411300</v>
       </c>
       <c r="H20" s="3">
-        <v>-85800</v>
+        <v>-92000</v>
       </c>
       <c r="I20" s="3">
-        <v>104500</v>
+        <v>112000</v>
       </c>
       <c r="J20" s="3">
-        <v>34600</v>
+        <v>37000</v>
       </c>
       <c r="K20" s="3">
         <v>-85200</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2402300</v>
+        <v>2574500</v>
       </c>
       <c r="E21" s="3">
-        <v>1557200</v>
+        <v>1668800</v>
       </c>
       <c r="F21" s="3">
-        <v>1004200</v>
+        <v>1076200</v>
       </c>
       <c r="G21" s="3">
-        <v>207900</v>
+        <v>222800</v>
       </c>
       <c r="H21" s="3">
-        <v>92100</v>
+        <v>98700</v>
       </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="J21" s="3">
-        <v>262700</v>
+        <v>281500</v>
       </c>
       <c r="K21" s="3">
         <v>-18700</v>
@@ -1195,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37000</v>
+        <v>39600</v>
       </c>
       <c r="E22" s="3">
-        <v>45400</v>
+        <v>48700</v>
       </c>
       <c r="F22" s="3">
-        <v>61000</v>
+        <v>65300</v>
       </c>
       <c r="G22" s="3">
-        <v>60700</v>
+        <v>65000</v>
       </c>
       <c r="H22" s="3">
-        <v>54100</v>
+        <v>58000</v>
       </c>
       <c r="I22" s="3">
-        <v>69900</v>
+        <v>74900</v>
       </c>
       <c r="J22" s="3">
-        <v>60900</v>
+        <v>65200</v>
       </c>
       <c r="K22" s="3">
         <v>77100</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2130000</v>
+        <v>2282700</v>
       </c>
       <c r="E23" s="3">
-        <v>1468100</v>
+        <v>1573300</v>
       </c>
       <c r="F23" s="3">
-        <v>729900</v>
+        <v>782200</v>
       </c>
       <c r="G23" s="3">
-        <v>62700</v>
+        <v>67200</v>
       </c>
       <c r="H23" s="3">
-        <v>-143200</v>
+        <v>-153500</v>
       </c>
       <c r="I23" s="3">
-        <v>-99100</v>
+        <v>-106200</v>
       </c>
       <c r="J23" s="3">
-        <v>10100</v>
+        <v>10800</v>
       </c>
       <c r="K23" s="3">
         <v>-142300</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>561500</v>
+        <v>601800</v>
       </c>
       <c r="E24" s="3">
-        <v>173900</v>
+        <v>186400</v>
       </c>
       <c r="F24" s="3">
-        <v>127100</v>
+        <v>136200</v>
       </c>
       <c r="G24" s="3">
-        <v>25300</v>
+        <v>27100</v>
       </c>
       <c r="H24" s="3">
-        <v>-132700</v>
+        <v>-142200</v>
       </c>
       <c r="I24" s="3">
-        <v>61900</v>
+        <v>66300</v>
       </c>
       <c r="J24" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="K24" s="3">
         <v>-166600</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1568500</v>
+        <v>1680900</v>
       </c>
       <c r="E26" s="3">
-        <v>1294200</v>
+        <v>1386900</v>
       </c>
       <c r="F26" s="3">
-        <v>602800</v>
+        <v>646000</v>
       </c>
       <c r="G26" s="3">
-        <v>37400</v>
+        <v>40100</v>
       </c>
       <c r="H26" s="3">
-        <v>-10600</v>
+        <v>-11300</v>
       </c>
       <c r="I26" s="3">
-        <v>-161000</v>
+        <v>-172500</v>
       </c>
       <c r="J26" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="K26" s="3">
         <v>24300</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1538600</v>
+        <v>1648900</v>
       </c>
       <c r="E27" s="3">
-        <v>1234500</v>
+        <v>1322900</v>
       </c>
       <c r="F27" s="3">
-        <v>581400</v>
+        <v>623100</v>
       </c>
       <c r="G27" s="3">
-        <v>19600</v>
+        <v>21000</v>
       </c>
       <c r="H27" s="3">
-        <v>-15800</v>
+        <v>-16900</v>
       </c>
       <c r="I27" s="3">
-        <v>-159600</v>
+        <v>-171000</v>
       </c>
       <c r="J27" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K27" s="3">
         <v>24100</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62300</v>
+        <v>66700</v>
       </c>
       <c r="E32" s="3">
-        <v>157600</v>
+        <v>168900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
-        <v>383800</v>
+        <v>411300</v>
       </c>
       <c r="H32" s="3">
-        <v>85800</v>
+        <v>92000</v>
       </c>
       <c r="I32" s="3">
-        <v>-104500</v>
+        <v>-112000</v>
       </c>
       <c r="J32" s="3">
-        <v>-34600</v>
+        <v>-37000</v>
       </c>
       <c r="K32" s="3">
         <v>85200</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1538600</v>
+        <v>1648900</v>
       </c>
       <c r="E33" s="3">
-        <v>1234500</v>
+        <v>1322900</v>
       </c>
       <c r="F33" s="3">
-        <v>581400</v>
+        <v>623100</v>
       </c>
       <c r="G33" s="3">
-        <v>19600</v>
+        <v>21000</v>
       </c>
       <c r="H33" s="3">
-        <v>-15800</v>
+        <v>-16900</v>
       </c>
       <c r="I33" s="3">
-        <v>-159600</v>
+        <v>-171000</v>
       </c>
       <c r="J33" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K33" s="3">
         <v>24100</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1538600</v>
+        <v>1648900</v>
       </c>
       <c r="E35" s="3">
-        <v>1234500</v>
+        <v>1322900</v>
       </c>
       <c r="F35" s="3">
-        <v>581400</v>
+        <v>623100</v>
       </c>
       <c r="G35" s="3">
-        <v>19600</v>
+        <v>21000</v>
       </c>
       <c r="H35" s="3">
-        <v>-15800</v>
+        <v>-16900</v>
       </c>
       <c r="I35" s="3">
-        <v>-159600</v>
+        <v>-171000</v>
       </c>
       <c r="J35" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K35" s="3">
         <v>24100</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1616700</v>
+        <v>1732600</v>
       </c>
       <c r="E41" s="3">
-        <v>1253900</v>
+        <v>1343700</v>
       </c>
       <c r="F41" s="3">
-        <v>745900</v>
+        <v>799400</v>
       </c>
       <c r="G41" s="3">
-        <v>348100</v>
+        <v>373000</v>
       </c>
       <c r="H41" s="3">
-        <v>369500</v>
+        <v>396000</v>
       </c>
       <c r="I41" s="3">
-        <v>157900</v>
+        <v>169200</v>
       </c>
       <c r="J41" s="3">
-        <v>130100</v>
+        <v>139400</v>
       </c>
       <c r="K41" s="3">
         <v>135700</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>513300</v>
+        <v>550100</v>
       </c>
       <c r="E43" s="3">
-        <v>436800</v>
+        <v>468100</v>
       </c>
       <c r="F43" s="3">
-        <v>299400</v>
+        <v>320800</v>
       </c>
       <c r="G43" s="3">
-        <v>312300</v>
+        <v>334700</v>
       </c>
       <c r="H43" s="3">
-        <v>339300</v>
+        <v>363600</v>
       </c>
       <c r="I43" s="3">
-        <v>455400</v>
+        <v>488100</v>
       </c>
       <c r="J43" s="3">
-        <v>405500</v>
+        <v>434600</v>
       </c>
       <c r="K43" s="3">
         <v>422000</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1823600</v>
+        <v>1954300</v>
       </c>
       <c r="E44" s="3">
-        <v>1545800</v>
+        <v>1656600</v>
       </c>
       <c r="F44" s="3">
-        <v>1042200</v>
+        <v>1116900</v>
       </c>
       <c r="G44" s="3">
-        <v>960400</v>
+        <v>1029300</v>
       </c>
       <c r="H44" s="3">
-        <v>880300</v>
+        <v>943400</v>
       </c>
       <c r="I44" s="3">
-        <v>328000</v>
+        <v>351500</v>
       </c>
       <c r="J44" s="3">
-        <v>262400</v>
+        <v>281200</v>
       </c>
       <c r="K44" s="3">
         <v>232000</v>
@@ -1966,13 +1966,13 @@
         <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>78700</v>
+        <v>84300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3953600</v>
+        <v>4237000</v>
       </c>
       <c r="E46" s="3">
-        <v>3236400</v>
+        <v>3468400</v>
       </c>
       <c r="F46" s="3">
-        <v>2087500</v>
+        <v>2237100</v>
       </c>
       <c r="G46" s="3">
-        <v>1620800</v>
+        <v>1737000</v>
       </c>
       <c r="H46" s="3">
-        <v>1596600</v>
+        <v>1711000</v>
       </c>
       <c r="I46" s="3">
-        <v>941300</v>
+        <v>1008800</v>
       </c>
       <c r="J46" s="3">
-        <v>876600</v>
+        <v>939500</v>
       </c>
       <c r="K46" s="3">
         <v>789700</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>457700</v>
+        <v>490600</v>
       </c>
       <c r="E47" s="3">
-        <v>399100</v>
+        <v>427700</v>
       </c>
       <c r="F47" s="3">
-        <v>378600</v>
+        <v>405700</v>
       </c>
       <c r="G47" s="3">
-        <v>292500</v>
+        <v>313500</v>
       </c>
       <c r="H47" s="3">
-        <v>279100</v>
+        <v>299100</v>
       </c>
       <c r="I47" s="3">
-        <v>250800</v>
+        <v>268800</v>
       </c>
       <c r="J47" s="3">
-        <v>184300</v>
+        <v>197500</v>
       </c>
       <c r="K47" s="3">
         <v>166300</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3812900</v>
+        <v>4086200</v>
       </c>
       <c r="E48" s="3">
-        <v>3772500</v>
+        <v>4042900</v>
       </c>
       <c r="F48" s="3">
-        <v>4102400</v>
+        <v>4396400</v>
       </c>
       <c r="G48" s="3">
-        <v>3583300</v>
+        <v>3840100</v>
       </c>
       <c r="H48" s="3">
-        <v>3515600</v>
+        <v>3767600</v>
       </c>
       <c r="I48" s="3">
-        <v>3379900</v>
+        <v>3622100</v>
       </c>
       <c r="J48" s="3">
-        <v>3296000</v>
+        <v>3532300</v>
       </c>
       <c r="K48" s="3">
         <v>3384000</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>432200</v>
+        <v>463100</v>
       </c>
       <c r="E49" s="3">
-        <v>443900</v>
+        <v>475700</v>
       </c>
       <c r="F49" s="3">
-        <v>518000</v>
+        <v>555100</v>
       </c>
       <c r="G49" s="3">
-        <v>424700</v>
+        <v>455100</v>
       </c>
       <c r="H49" s="3">
-        <v>427100</v>
+        <v>457700</v>
       </c>
       <c r="I49" s="3">
-        <v>426800</v>
+        <v>457400</v>
       </c>
       <c r="J49" s="3">
-        <v>434400</v>
+        <v>465500</v>
       </c>
       <c r="K49" s="3">
         <v>420700</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>416600</v>
+        <v>446400</v>
       </c>
       <c r="E52" s="3">
-        <v>455800</v>
+        <v>488500</v>
       </c>
       <c r="F52" s="3">
-        <v>361300</v>
+        <v>387200</v>
       </c>
       <c r="G52" s="3">
-        <v>340100</v>
+        <v>364500</v>
       </c>
       <c r="H52" s="3">
-        <v>314300</v>
+        <v>336800</v>
       </c>
       <c r="I52" s="3">
-        <v>262100</v>
+        <v>280900</v>
       </c>
       <c r="J52" s="3">
-        <v>231800</v>
+        <v>248400</v>
       </c>
       <c r="K52" s="3">
         <v>243300</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9073000</v>
+        <v>9723300</v>
       </c>
       <c r="E54" s="3">
-        <v>8307700</v>
+        <v>8903100</v>
       </c>
       <c r="F54" s="3">
-        <v>7447800</v>
+        <v>7981500</v>
       </c>
       <c r="G54" s="3">
-        <v>6261400</v>
+        <v>6710200</v>
       </c>
       <c r="H54" s="3">
-        <v>6132600</v>
+        <v>6572200</v>
       </c>
       <c r="I54" s="3">
-        <v>5261000</v>
+        <v>5638000</v>
       </c>
       <c r="J54" s="3">
-        <v>5023200</v>
+        <v>5383200</v>
       </c>
       <c r="K54" s="3">
         <v>5004000</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>919600</v>
+        <v>985500</v>
       </c>
       <c r="E57" s="3">
-        <v>818200</v>
+        <v>876800</v>
       </c>
       <c r="F57" s="3">
-        <v>732200</v>
+        <v>784600</v>
       </c>
       <c r="G57" s="3">
-        <v>710300</v>
+        <v>761200</v>
       </c>
       <c r="H57" s="3">
-        <v>688400</v>
+        <v>737800</v>
       </c>
       <c r="I57" s="3">
-        <v>486700</v>
+        <v>521600</v>
       </c>
       <c r="J57" s="3">
-        <v>423400</v>
+        <v>453700</v>
       </c>
       <c r="K57" s="3">
         <v>440100</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>412200</v>
+        <v>441800</v>
       </c>
       <c r="E58" s="3">
-        <v>61300</v>
+        <v>65700</v>
       </c>
       <c r="F58" s="3">
-        <v>85200</v>
+        <v>91300</v>
       </c>
       <c r="G58" s="3">
-        <v>9200</v>
+        <v>9800</v>
       </c>
       <c r="H58" s="3">
-        <v>343600</v>
+        <v>368200</v>
       </c>
       <c r="I58" s="3">
-        <v>383400</v>
+        <v>410800</v>
       </c>
       <c r="J58" s="3">
-        <v>20700</v>
+        <v>22200</v>
       </c>
       <c r="K58" s="3">
         <v>109000</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114600</v>
+        <v>122800</v>
       </c>
       <c r="E59" s="3">
-        <v>203800</v>
+        <v>218500</v>
       </c>
       <c r="F59" s="3">
+        <v>263100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>180100</v>
+      </c>
+      <c r="H59" s="3">
         <v>245500</v>
       </c>
-      <c r="G59" s="3">
-        <v>168000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>229100</v>
-      </c>
       <c r="I59" s="3">
-        <v>36400</v>
+        <v>39000</v>
       </c>
       <c r="J59" s="3">
-        <v>29800</v>
+        <v>31900</v>
       </c>
       <c r="K59" s="3">
         <v>5900</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1446400</v>
+        <v>1550100</v>
       </c>
       <c r="E60" s="3">
-        <v>1083300</v>
+        <v>1161000</v>
       </c>
       <c r="F60" s="3">
-        <v>1062900</v>
+        <v>1139100</v>
       </c>
       <c r="G60" s="3">
-        <v>887500</v>
+        <v>951200</v>
       </c>
       <c r="H60" s="3">
-        <v>1261100</v>
+        <v>1351500</v>
       </c>
       <c r="I60" s="3">
-        <v>906500</v>
+        <v>971500</v>
       </c>
       <c r="J60" s="3">
-        <v>473900</v>
+        <v>507900</v>
       </c>
       <c r="K60" s="3">
         <v>555000</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>670400</v>
+        <v>718400</v>
       </c>
       <c r="E61" s="3">
-        <v>1097800</v>
+        <v>1176400</v>
       </c>
       <c r="F61" s="3">
-        <v>1569200</v>
+        <v>1681700</v>
       </c>
       <c r="G61" s="3">
-        <v>1485000</v>
+        <v>1591400</v>
       </c>
       <c r="H61" s="3">
-        <v>1358800</v>
+        <v>1456200</v>
       </c>
       <c r="I61" s="3">
-        <v>1134700</v>
+        <v>1216000</v>
       </c>
       <c r="J61" s="3">
-        <v>1756800</v>
+        <v>1882700</v>
       </c>
       <c r="K61" s="3">
         <v>1578200</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1793400</v>
+        <v>1921900</v>
       </c>
       <c r="E62" s="3">
-        <v>1745700</v>
+        <v>1870900</v>
       </c>
       <c r="F62" s="3">
-        <v>1964600</v>
+        <v>2105400</v>
       </c>
       <c r="G62" s="3">
-        <v>1959900</v>
+        <v>2100300</v>
       </c>
       <c r="H62" s="3">
-        <v>1638500</v>
+        <v>1756000</v>
       </c>
       <c r="I62" s="3">
-        <v>1688100</v>
+        <v>1809100</v>
       </c>
       <c r="J62" s="3">
-        <v>1212000</v>
+        <v>1298800</v>
       </c>
       <c r="K62" s="3">
         <v>1292200</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3992200</v>
+        <v>4278400</v>
       </c>
       <c r="E66" s="3">
-        <v>4065300</v>
+        <v>4356700</v>
       </c>
       <c r="F66" s="3">
-        <v>4682800</v>
+        <v>5018400</v>
       </c>
       <c r="G66" s="3">
-        <v>4423300</v>
+        <v>4740300</v>
       </c>
       <c r="H66" s="3">
-        <v>4335800</v>
+        <v>4646500</v>
       </c>
       <c r="I66" s="3">
-        <v>3787300</v>
+        <v>4058700</v>
       </c>
       <c r="J66" s="3">
-        <v>3443900</v>
+        <v>3690800</v>
       </c>
       <c r="K66" s="3">
         <v>3426700</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1845800</v>
+        <v>1978100</v>
       </c>
       <c r="E72" s="3">
-        <v>2374600</v>
+        <v>2544800</v>
       </c>
       <c r="F72" s="3">
-        <v>245900</v>
+        <v>263600</v>
       </c>
       <c r="G72" s="3">
-        <v>-680900</v>
+        <v>-729700</v>
       </c>
       <c r="H72" s="3">
+        <v>-773900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-722200</v>
       </c>
-      <c r="I72" s="3">
-        <v>-673900</v>
-      </c>
       <c r="J72" s="3">
-        <v>-568400</v>
+        <v>-609100</v>
       </c>
       <c r="K72" s="3">
         <v>-703100</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5080800</v>
+        <v>5444900</v>
       </c>
       <c r="E76" s="3">
-        <v>4242400</v>
+        <v>4546400</v>
       </c>
       <c r="F76" s="3">
-        <v>2765000</v>
+        <v>2963100</v>
       </c>
       <c r="G76" s="3">
-        <v>1838100</v>
+        <v>1969800</v>
       </c>
       <c r="H76" s="3">
-        <v>1796800</v>
+        <v>1925600</v>
       </c>
       <c r="I76" s="3">
-        <v>1473700</v>
+        <v>1579300</v>
       </c>
       <c r="J76" s="3">
-        <v>1579200</v>
+        <v>1692400</v>
       </c>
       <c r="K76" s="3">
         <v>1577300</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1538600</v>
+        <v>1648900</v>
       </c>
       <c r="E81" s="3">
-        <v>1234500</v>
+        <v>1322900</v>
       </c>
       <c r="F81" s="3">
-        <v>581400</v>
+        <v>623100</v>
       </c>
       <c r="G81" s="3">
-        <v>19600</v>
+        <v>21000</v>
       </c>
       <c r="H81" s="3">
-        <v>-15800</v>
+        <v>-16900</v>
       </c>
       <c r="I81" s="3">
-        <v>-159600</v>
+        <v>-171000</v>
       </c>
       <c r="J81" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K81" s="3">
         <v>24100</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>823700</v>
+        <v>882700</v>
       </c>
       <c r="E89" s="3">
-        <v>790600</v>
+        <v>847200</v>
       </c>
       <c r="F89" s="3">
-        <v>891300</v>
+        <v>955200</v>
       </c>
       <c r="G89" s="3">
-        <v>504100</v>
+        <v>540200</v>
       </c>
       <c r="H89" s="3">
-        <v>82200</v>
+        <v>88100</v>
       </c>
       <c r="I89" s="3">
-        <v>611000</v>
+        <v>654800</v>
       </c>
       <c r="J89" s="3">
-        <v>144600</v>
+        <v>154900</v>
       </c>
       <c r="K89" s="3">
         <v>108400</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-346100</v>
+        <v>-370900</v>
       </c>
       <c r="E91" s="3">
-        <v>-339600</v>
+        <v>-363900</v>
       </c>
       <c r="F91" s="3">
-        <v>-256100</v>
+        <v>-274500</v>
       </c>
       <c r="G91" s="3">
-        <v>-317400</v>
+        <v>-340100</v>
       </c>
       <c r="H91" s="3">
-        <v>-160000</v>
+        <v>-171500</v>
       </c>
       <c r="I91" s="3">
-        <v>-248700</v>
+        <v>-266500</v>
       </c>
       <c r="J91" s="3">
-        <v>-189900</v>
+        <v>-203500</v>
       </c>
       <c r="K91" s="3">
         <v>-237800</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-360700</v>
+        <v>-386500</v>
       </c>
       <c r="E94" s="3">
-        <v>-314300</v>
+        <v>-336800</v>
       </c>
       <c r="F94" s="3">
-        <v>-301300</v>
+        <v>-322900</v>
       </c>
       <c r="G94" s="3">
-        <v>-315400</v>
+        <v>-338000</v>
       </c>
       <c r="H94" s="3">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="I94" s="3">
-        <v>-292000</v>
+        <v>-313000</v>
       </c>
       <c r="J94" s="3">
-        <v>-187700</v>
+        <v>-201100</v>
       </c>
       <c r="K94" s="3">
         <v>-243000</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96000</v>
+        <v>-102800</v>
       </c>
       <c r="E100" s="3">
-        <v>51000</v>
+        <v>54700</v>
       </c>
       <c r="F100" s="3">
-        <v>-190000</v>
+        <v>-203600</v>
       </c>
       <c r="G100" s="3">
-        <v>-219800</v>
+        <v>-235500</v>
       </c>
       <c r="H100" s="3">
-        <v>128700</v>
+        <v>137900</v>
       </c>
       <c r="I100" s="3">
-        <v>-291300</v>
+        <v>-312200</v>
       </c>
       <c r="J100" s="3">
-        <v>37200</v>
+        <v>39900</v>
       </c>
       <c r="K100" s="3">
         <v>-145300</v>
@@ -3879,25 +3879,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="E101" s="3">
-        <v>-19400</v>
+        <v>-20700</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G101" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="H101" s="3">
-        <v>-11100</v>
+        <v>-11900</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J101" s="3">
-        <v>8200</v>
+        <v>8800</v>
       </c>
       <c r="K101" s="3">
         <v>-13500</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>362800</v>
+        <v>388800</v>
       </c>
       <c r="E102" s="3">
-        <v>507900</v>
+        <v>544400</v>
       </c>
       <c r="F102" s="3">
-        <v>397800</v>
+        <v>426300</v>
       </c>
       <c r="G102" s="3">
-        <v>-23600</v>
+        <v>-25300</v>
       </c>
       <c r="H102" s="3">
-        <v>213800</v>
+        <v>229100</v>
       </c>
       <c r="I102" s="3">
-        <v>27800</v>
+        <v>29800</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K102" s="3">
         <v>-293400</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5972000</v>
+        <v>5108000</v>
       </c>
       <c r="E8" s="3">
-        <v>4804900</v>
+        <v>5587000</v>
       </c>
       <c r="F8" s="3">
-        <v>3652700</v>
+        <v>4495100</v>
       </c>
       <c r="G8" s="3">
-        <v>3279000</v>
+        <v>3417200</v>
       </c>
       <c r="H8" s="3">
-        <v>1562500</v>
+        <v>3067600</v>
       </c>
       <c r="I8" s="3">
-        <v>1775700</v>
+        <v>1461800</v>
       </c>
       <c r="J8" s="3">
+        <v>1661200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1587400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1755800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1279600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>945000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3558000</v>
+        <v>3628900</v>
       </c>
       <c r="E9" s="3">
-        <v>2890600</v>
+        <v>3328700</v>
       </c>
       <c r="F9" s="3">
-        <v>2761500</v>
+        <v>2704200</v>
       </c>
       <c r="G9" s="3">
-        <v>2658300</v>
+        <v>2583400</v>
       </c>
       <c r="H9" s="3">
-        <v>1573700</v>
+        <v>2487000</v>
       </c>
       <c r="I9" s="3">
-        <v>1693000</v>
+        <v>1472300</v>
       </c>
       <c r="J9" s="3">
+        <v>1583900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1516400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1573800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1242100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>788400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2413900</v>
+        <v>1479100</v>
       </c>
       <c r="E10" s="3">
-        <v>1914300</v>
+        <v>2258300</v>
       </c>
       <c r="F10" s="3">
-        <v>891200</v>
+        <v>1790900</v>
       </c>
       <c r="G10" s="3">
-        <v>620700</v>
+        <v>833800</v>
       </c>
       <c r="H10" s="3">
-        <v>-11200</v>
+        <v>580700</v>
       </c>
       <c r="I10" s="3">
-        <v>82700</v>
+        <v>-10500</v>
       </c>
       <c r="J10" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K10" s="3">
         <v>71000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>156700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,11 +905,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,46 +949,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>330500</v>
       </c>
       <c r="E14" s="3">
-        <v>109200</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>27300</v>
+        <v>102200</v>
       </c>
       <c r="G14" s="3">
-        <v>63900</v>
+        <v>25600</v>
       </c>
       <c r="H14" s="3">
-        <v>-18500</v>
+        <v>59800</v>
       </c>
       <c r="I14" s="3">
-        <v>215100</v>
+        <v>-17300</v>
       </c>
       <c r="J14" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>154400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>222800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-81400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3582900</v>
+        <v>3964700</v>
       </c>
       <c r="E17" s="3">
-        <v>3014100</v>
+        <v>3352000</v>
       </c>
       <c r="F17" s="3">
-        <v>2808500</v>
+        <v>2819800</v>
       </c>
       <c r="G17" s="3">
-        <v>2735500</v>
+        <v>2627500</v>
       </c>
       <c r="H17" s="3">
-        <v>1566000</v>
+        <v>2559200</v>
       </c>
       <c r="I17" s="3">
-        <v>1919000</v>
+        <v>1465000</v>
       </c>
       <c r="J17" s="3">
+        <v>1795300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1548400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1735800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1472600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>727500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2389000</v>
+        <v>1143300</v>
       </c>
       <c r="E18" s="3">
-        <v>1790800</v>
+        <v>2235000</v>
       </c>
       <c r="F18" s="3">
-        <v>844100</v>
+        <v>1675400</v>
       </c>
       <c r="G18" s="3">
-        <v>543500</v>
+        <v>789700</v>
       </c>
       <c r="H18" s="3">
-        <v>-3500</v>
+        <v>508500</v>
       </c>
       <c r="I18" s="3">
-        <v>-143300</v>
+        <v>-3300</v>
       </c>
       <c r="J18" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="K18" s="3">
         <v>39000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-193000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>217600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-66700</v>
+        <v>-291900</v>
       </c>
       <c r="E20" s="3">
-        <v>-168900</v>
+        <v>-62400</v>
       </c>
       <c r="F20" s="3">
-        <v>3400</v>
+        <v>-158000</v>
       </c>
       <c r="G20" s="3">
-        <v>-411300</v>
+        <v>3200</v>
       </c>
       <c r="H20" s="3">
-        <v>-92000</v>
+        <v>-384800</v>
       </c>
       <c r="I20" s="3">
-        <v>112000</v>
+        <v>-86000</v>
       </c>
       <c r="J20" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K20" s="3">
         <v>37000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-85200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-76400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2574500</v>
+        <v>894800</v>
       </c>
       <c r="E21" s="3">
-        <v>1668800</v>
+        <v>2408500</v>
       </c>
       <c r="F21" s="3">
-        <v>1076200</v>
+        <v>1561200</v>
       </c>
       <c r="G21" s="3">
-        <v>222800</v>
+        <v>1006800</v>
       </c>
       <c r="H21" s="3">
-        <v>98700</v>
+        <v>208400</v>
       </c>
       <c r="I21" s="3">
-        <v>-3100</v>
+        <v>92300</v>
       </c>
       <c r="J21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K21" s="3">
         <v>281500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-103100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>217300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39600</v>
+        <v>33200</v>
       </c>
       <c r="E22" s="3">
-        <v>48700</v>
+        <v>37100</v>
       </c>
       <c r="F22" s="3">
-        <v>65300</v>
+        <v>45500</v>
       </c>
       <c r="G22" s="3">
-        <v>65000</v>
+        <v>61100</v>
       </c>
       <c r="H22" s="3">
-        <v>58000</v>
+        <v>60800</v>
       </c>
       <c r="I22" s="3">
-        <v>74900</v>
+        <v>54300</v>
       </c>
       <c r="J22" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K22" s="3">
         <v>65200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>77100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78000</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2282700</v>
+        <v>818200</v>
       </c>
       <c r="E23" s="3">
-        <v>1573300</v>
+        <v>2135500</v>
       </c>
       <c r="F23" s="3">
-        <v>782200</v>
+        <v>1471900</v>
       </c>
       <c r="G23" s="3">
-        <v>67200</v>
+        <v>731800</v>
       </c>
       <c r="H23" s="3">
-        <v>-153500</v>
+        <v>62900</v>
       </c>
       <c r="I23" s="3">
-        <v>-106200</v>
+        <v>-143600</v>
       </c>
       <c r="J23" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="K23" s="3">
         <v>10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-142300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-347400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>208700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>601800</v>
+        <v>291700</v>
       </c>
       <c r="E24" s="3">
-        <v>186400</v>
+        <v>563000</v>
       </c>
       <c r="F24" s="3">
-        <v>136200</v>
+        <v>174300</v>
       </c>
       <c r="G24" s="3">
-        <v>27100</v>
+        <v>127400</v>
       </c>
       <c r="H24" s="3">
-        <v>-142200</v>
+        <v>25400</v>
       </c>
       <c r="I24" s="3">
-        <v>66300</v>
+        <v>-133000</v>
       </c>
       <c r="J24" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-166600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-27600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1680900</v>
+        <v>526500</v>
       </c>
       <c r="E26" s="3">
-        <v>1386900</v>
+        <v>1572600</v>
       </c>
       <c r="F26" s="3">
-        <v>646000</v>
+        <v>1297500</v>
       </c>
       <c r="G26" s="3">
-        <v>40100</v>
+        <v>604400</v>
       </c>
       <c r="H26" s="3">
-        <v>-11300</v>
+        <v>37500</v>
       </c>
       <c r="I26" s="3">
-        <v>-172500</v>
+        <v>-10600</v>
       </c>
       <c r="J26" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-319800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>168900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1648900</v>
+        <v>510400</v>
       </c>
       <c r="E27" s="3">
-        <v>1322900</v>
+        <v>1542600</v>
       </c>
       <c r="F27" s="3">
-        <v>623100</v>
+        <v>1237700</v>
       </c>
       <c r="G27" s="3">
-        <v>21000</v>
+        <v>582900</v>
       </c>
       <c r="H27" s="3">
-        <v>-16900</v>
+        <v>19700</v>
       </c>
       <c r="I27" s="3">
-        <v>-171000</v>
+        <v>-15800</v>
       </c>
       <c r="J27" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-319800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>179500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>66700</v>
+        <v>291900</v>
       </c>
       <c r="E32" s="3">
-        <v>168900</v>
+        <v>62400</v>
       </c>
       <c r="F32" s="3">
-        <v>-3400</v>
+        <v>158000</v>
       </c>
       <c r="G32" s="3">
-        <v>411300</v>
+        <v>-3200</v>
       </c>
       <c r="H32" s="3">
-        <v>92000</v>
+        <v>384800</v>
       </c>
       <c r="I32" s="3">
-        <v>-112000</v>
+        <v>86000</v>
       </c>
       <c r="J32" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-37000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>85200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>76400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1648900</v>
+        <v>510400</v>
       </c>
       <c r="E33" s="3">
-        <v>1322900</v>
+        <v>1542600</v>
       </c>
       <c r="F33" s="3">
-        <v>623100</v>
+        <v>1237700</v>
       </c>
       <c r="G33" s="3">
-        <v>21000</v>
+        <v>582900</v>
       </c>
       <c r="H33" s="3">
-        <v>-16900</v>
+        <v>19700</v>
       </c>
       <c r="I33" s="3">
-        <v>-171000</v>
+        <v>-15800</v>
       </c>
       <c r="J33" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-319800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>179500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1648900</v>
+        <v>510400</v>
       </c>
       <c r="E35" s="3">
-        <v>1322900</v>
+        <v>1542600</v>
       </c>
       <c r="F35" s="3">
-        <v>623100</v>
+        <v>1237700</v>
       </c>
       <c r="G35" s="3">
-        <v>21000</v>
+        <v>582900</v>
       </c>
       <c r="H35" s="3">
-        <v>-16900</v>
+        <v>19700</v>
       </c>
       <c r="I35" s="3">
-        <v>-171000</v>
+        <v>-15800</v>
       </c>
       <c r="J35" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-319800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>179500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1732600</v>
+        <v>1881400</v>
       </c>
       <c r="E41" s="3">
-        <v>1343700</v>
+        <v>1620900</v>
       </c>
       <c r="F41" s="3">
-        <v>799400</v>
+        <v>1257100</v>
       </c>
       <c r="G41" s="3">
-        <v>373000</v>
+        <v>747800</v>
       </c>
       <c r="H41" s="3">
-        <v>396000</v>
+        <v>349000</v>
       </c>
       <c r="I41" s="3">
-        <v>169200</v>
+        <v>370500</v>
       </c>
       <c r="J41" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K41" s="3">
         <v>139400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>135700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>434300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,89 +1962,98 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>550100</v>
+        <v>570100</v>
       </c>
       <c r="E43" s="3">
-        <v>468100</v>
+        <v>514600</v>
       </c>
       <c r="F43" s="3">
-        <v>320800</v>
+        <v>437900</v>
       </c>
       <c r="G43" s="3">
-        <v>334700</v>
+        <v>300100</v>
       </c>
       <c r="H43" s="3">
-        <v>363600</v>
+        <v>313100</v>
       </c>
       <c r="I43" s="3">
-        <v>488100</v>
+        <v>340200</v>
       </c>
       <c r="J43" s="3">
+        <v>456600</v>
+      </c>
+      <c r="K43" s="3">
         <v>434600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>422000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>389000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>346200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1954300</v>
+        <v>1557700</v>
       </c>
       <c r="E44" s="3">
-        <v>1656600</v>
+        <v>1828300</v>
       </c>
       <c r="F44" s="3">
-        <v>1116900</v>
+        <v>1549800</v>
       </c>
       <c r="G44" s="3">
-        <v>1029300</v>
+        <v>1044900</v>
       </c>
       <c r="H44" s="3">
-        <v>943400</v>
+        <v>962900</v>
       </c>
       <c r="I44" s="3">
-        <v>351500</v>
+        <v>882600</v>
       </c>
       <c r="J44" s="3">
+        <v>328900</v>
+      </c>
+      <c r="K44" s="3">
         <v>281200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>232000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>38700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>17400</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -1965,181 +2064,196 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="I45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>84300</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4237000</v>
+        <v>4026700</v>
       </c>
       <c r="E46" s="3">
-        <v>3468400</v>
+        <v>3963900</v>
       </c>
       <c r="F46" s="3">
-        <v>2237100</v>
+        <v>3244800</v>
       </c>
       <c r="G46" s="3">
-        <v>1737000</v>
+        <v>2092900</v>
       </c>
       <c r="H46" s="3">
-        <v>1711000</v>
+        <v>1625000</v>
       </c>
       <c r="I46" s="3">
-        <v>1008800</v>
+        <v>1600700</v>
       </c>
       <c r="J46" s="3">
+        <v>943800</v>
+      </c>
+      <c r="K46" s="3">
         <v>939500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>789700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1020500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>440200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>490600</v>
+        <v>512100</v>
       </c>
       <c r="E47" s="3">
-        <v>427700</v>
+        <v>458900</v>
       </c>
       <c r="F47" s="3">
-        <v>405700</v>
+        <v>400100</v>
       </c>
       <c r="G47" s="3">
-        <v>313500</v>
+        <v>379500</v>
       </c>
       <c r="H47" s="3">
-        <v>299100</v>
+        <v>293300</v>
       </c>
       <c r="I47" s="3">
-        <v>268800</v>
+        <v>279800</v>
       </c>
       <c r="J47" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K47" s="3">
         <v>197500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>166300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>174400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>143600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4086200</v>
+        <v>3895300</v>
       </c>
       <c r="E48" s="3">
-        <v>4042900</v>
+        <v>3822700</v>
       </c>
       <c r="F48" s="3">
-        <v>4396400</v>
+        <v>3782200</v>
       </c>
       <c r="G48" s="3">
-        <v>3840100</v>
+        <v>4113000</v>
       </c>
       <c r="H48" s="3">
-        <v>3767600</v>
+        <v>3592500</v>
       </c>
       <c r="I48" s="3">
-        <v>3622100</v>
+        <v>3524700</v>
       </c>
       <c r="J48" s="3">
+        <v>3388600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3532300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3384000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3620500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1556800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>463100</v>
+        <v>479900</v>
       </c>
       <c r="E49" s="3">
-        <v>475700</v>
+        <v>433300</v>
       </c>
       <c r="F49" s="3">
-        <v>555100</v>
+        <v>445000</v>
       </c>
       <c r="G49" s="3">
-        <v>455100</v>
+        <v>519300</v>
       </c>
       <c r="H49" s="3">
-        <v>457700</v>
+        <v>425800</v>
       </c>
       <c r="I49" s="3">
-        <v>457400</v>
+        <v>428200</v>
       </c>
       <c r="J49" s="3">
+        <v>427900</v>
+      </c>
+      <c r="K49" s="3">
         <v>465500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>420700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>453400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>446400</v>
+        <v>588500</v>
       </c>
       <c r="E52" s="3">
-        <v>488500</v>
+        <v>417600</v>
       </c>
       <c r="F52" s="3">
-        <v>387200</v>
+        <v>457000</v>
       </c>
       <c r="G52" s="3">
-        <v>364500</v>
+        <v>362300</v>
       </c>
       <c r="H52" s="3">
-        <v>336800</v>
+        <v>341000</v>
       </c>
       <c r="I52" s="3">
-        <v>280900</v>
+        <v>315100</v>
       </c>
       <c r="J52" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K52" s="3">
         <v>248400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>243300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>227000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>190200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9723300</v>
+        <v>9502500</v>
       </c>
       <c r="E54" s="3">
-        <v>8903100</v>
+        <v>9096400</v>
       </c>
       <c r="F54" s="3">
-        <v>7981500</v>
+        <v>8329100</v>
       </c>
       <c r="G54" s="3">
-        <v>6710200</v>
+        <v>7467000</v>
       </c>
       <c r="H54" s="3">
-        <v>6572200</v>
+        <v>6277600</v>
       </c>
       <c r="I54" s="3">
-        <v>5638000</v>
+        <v>6148500</v>
       </c>
       <c r="J54" s="3">
+        <v>5274600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5383200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5004000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5495800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2384400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>985500</v>
+        <v>941700</v>
       </c>
       <c r="E57" s="3">
-        <v>876800</v>
+        <v>922000</v>
       </c>
       <c r="F57" s="3">
-        <v>784600</v>
+        <v>820300</v>
       </c>
       <c r="G57" s="3">
-        <v>761200</v>
+        <v>734100</v>
       </c>
       <c r="H57" s="3">
-        <v>737800</v>
+        <v>712100</v>
       </c>
       <c r="I57" s="3">
-        <v>521600</v>
+        <v>690200</v>
       </c>
       <c r="J57" s="3">
+        <v>488000</v>
+      </c>
+      <c r="K57" s="3">
         <v>453700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>440100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>476300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>296100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>441800</v>
+        <v>13100</v>
       </c>
       <c r="E58" s="3">
-        <v>65700</v>
+        <v>413300</v>
       </c>
       <c r="F58" s="3">
-        <v>91300</v>
+        <v>61400</v>
       </c>
       <c r="G58" s="3">
-        <v>9800</v>
+        <v>85400</v>
       </c>
       <c r="H58" s="3">
-        <v>368200</v>
+        <v>9200</v>
       </c>
       <c r="I58" s="3">
-        <v>410800</v>
+        <v>344500</v>
       </c>
       <c r="J58" s="3">
+        <v>384300</v>
+      </c>
+      <c r="K58" s="3">
         <v>22200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>109000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>504100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122800</v>
+        <v>321000</v>
       </c>
       <c r="E59" s="3">
-        <v>218500</v>
+        <v>114900</v>
       </c>
       <c r="F59" s="3">
-        <v>263100</v>
+        <v>204400</v>
       </c>
       <c r="G59" s="3">
-        <v>180100</v>
+        <v>246200</v>
       </c>
       <c r="H59" s="3">
-        <v>245500</v>
+        <v>168500</v>
       </c>
       <c r="I59" s="3">
-        <v>39000</v>
+        <v>229700</v>
       </c>
       <c r="J59" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K59" s="3">
         <v>31900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1550100</v>
+        <v>1275800</v>
       </c>
       <c r="E60" s="3">
-        <v>1161000</v>
+        <v>1450100</v>
       </c>
       <c r="F60" s="3">
-        <v>1139100</v>
+        <v>1086100</v>
       </c>
       <c r="G60" s="3">
-        <v>951200</v>
+        <v>1065600</v>
       </c>
       <c r="H60" s="3">
-        <v>1351500</v>
+        <v>889800</v>
       </c>
       <c r="I60" s="3">
-        <v>971500</v>
+        <v>1264300</v>
       </c>
       <c r="J60" s="3">
+        <v>908800</v>
+      </c>
+      <c r="K60" s="3">
         <v>507900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>555000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>989700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>357600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>718400</v>
+        <v>1265100</v>
       </c>
       <c r="E61" s="3">
-        <v>1176400</v>
+        <v>672100</v>
       </c>
       <c r="F61" s="3">
-        <v>1681700</v>
+        <v>1100600</v>
       </c>
       <c r="G61" s="3">
-        <v>1591400</v>
+        <v>1573300</v>
       </c>
       <c r="H61" s="3">
-        <v>1456200</v>
+        <v>1488800</v>
       </c>
       <c r="I61" s="3">
-        <v>1216000</v>
+        <v>1362300</v>
       </c>
       <c r="J61" s="3">
+        <v>1137600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1882700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1578200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1507200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>469900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1921900</v>
+        <v>1909300</v>
       </c>
       <c r="E62" s="3">
-        <v>1870900</v>
+        <v>1798000</v>
       </c>
       <c r="F62" s="3">
-        <v>2105400</v>
+        <v>1750200</v>
       </c>
       <c r="G62" s="3">
-        <v>2100300</v>
+        <v>1969700</v>
       </c>
       <c r="H62" s="3">
-        <v>1756000</v>
+        <v>1964900</v>
       </c>
       <c r="I62" s="3">
-        <v>1809100</v>
+        <v>1642800</v>
       </c>
       <c r="J62" s="3">
+        <v>1692500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1298800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1292200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1396700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>615700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4278400</v>
+        <v>4537600</v>
       </c>
       <c r="E66" s="3">
-        <v>4356700</v>
+        <v>4002600</v>
       </c>
       <c r="F66" s="3">
-        <v>5018400</v>
+        <v>4075800</v>
       </c>
       <c r="G66" s="3">
-        <v>4740300</v>
+        <v>4694900</v>
       </c>
       <c r="H66" s="3">
-        <v>4646500</v>
+        <v>4434700</v>
       </c>
       <c r="I66" s="3">
-        <v>4058700</v>
+        <v>4347000</v>
       </c>
       <c r="J66" s="3">
+        <v>3797100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3690800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3426700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3894700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1444200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1978100</v>
+        <v>3620400</v>
       </c>
       <c r="E72" s="3">
-        <v>2544800</v>
+        <v>1850600</v>
       </c>
       <c r="F72" s="3">
-        <v>263600</v>
+        <v>2380700</v>
       </c>
       <c r="G72" s="3">
-        <v>-729700</v>
+        <v>246600</v>
       </c>
       <c r="H72" s="3">
-        <v>-773900</v>
+        <v>-682700</v>
       </c>
       <c r="I72" s="3">
-        <v>-722200</v>
+        <v>-724000</v>
       </c>
       <c r="J72" s="3">
+        <v>-675700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-609100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-703100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-709000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-301900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5444900</v>
+        <v>4964900</v>
       </c>
       <c r="E76" s="3">
-        <v>4546400</v>
+        <v>5093900</v>
       </c>
       <c r="F76" s="3">
-        <v>2963100</v>
+        <v>4253300</v>
       </c>
       <c r="G76" s="3">
-        <v>1969800</v>
+        <v>2772100</v>
       </c>
       <c r="H76" s="3">
-        <v>1925600</v>
+        <v>1842800</v>
       </c>
       <c r="I76" s="3">
-        <v>1579300</v>
+        <v>1801500</v>
       </c>
       <c r="J76" s="3">
+        <v>1477500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1692400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1577300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1601100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>940200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1648900</v>
+        <v>510400</v>
       </c>
       <c r="E81" s="3">
-        <v>1322900</v>
+        <v>1542600</v>
       </c>
       <c r="F81" s="3">
-        <v>623100</v>
+        <v>1237700</v>
       </c>
       <c r="G81" s="3">
-        <v>21000</v>
+        <v>582900</v>
       </c>
       <c r="H81" s="3">
-        <v>-16900</v>
+        <v>19700</v>
       </c>
       <c r="I81" s="3">
-        <v>-171000</v>
+        <v>-15800</v>
       </c>
       <c r="J81" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-319800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>179500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>882700</v>
+        <v>1177600</v>
       </c>
       <c r="E89" s="3">
-        <v>847200</v>
+        <v>825800</v>
       </c>
       <c r="F89" s="3">
-        <v>955200</v>
+        <v>792600</v>
       </c>
       <c r="G89" s="3">
-        <v>540200</v>
+        <v>893600</v>
       </c>
       <c r="H89" s="3">
-        <v>88100</v>
+        <v>505400</v>
       </c>
       <c r="I89" s="3">
-        <v>654800</v>
+        <v>82400</v>
       </c>
       <c r="J89" s="3">
+        <v>612600</v>
+      </c>
+      <c r="K89" s="3">
         <v>154900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>108400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-370900</v>
+        <v>-444300</v>
       </c>
       <c r="E91" s="3">
-        <v>-363900</v>
+        <v>-346900</v>
       </c>
       <c r="F91" s="3">
-        <v>-274500</v>
+        <v>-340400</v>
       </c>
       <c r="G91" s="3">
-        <v>-340100</v>
+        <v>-256800</v>
       </c>
       <c r="H91" s="3">
-        <v>-171500</v>
+        <v>-318200</v>
       </c>
       <c r="I91" s="3">
-        <v>-266500</v>
+        <v>-160400</v>
       </c>
       <c r="J91" s="3">
+        <v>-249400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-203500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-237800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-165400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-386500</v>
+        <v>-543200</v>
       </c>
       <c r="E94" s="3">
-        <v>-336800</v>
+        <v>-361600</v>
       </c>
       <c r="F94" s="3">
-        <v>-322900</v>
+        <v>-315100</v>
       </c>
       <c r="G94" s="3">
-        <v>-338000</v>
+        <v>-302100</v>
       </c>
       <c r="H94" s="3">
-        <v>15000</v>
+        <v>-316200</v>
       </c>
       <c r="I94" s="3">
-        <v>-313000</v>
+        <v>14000</v>
       </c>
       <c r="J94" s="3">
+        <v>-292800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-201100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-243000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1627900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-223500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-316200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-102800</v>
+        <v>-422000</v>
       </c>
       <c r="E100" s="3">
-        <v>54700</v>
+        <v>-96200</v>
       </c>
       <c r="F100" s="3">
-        <v>-203600</v>
+        <v>51100</v>
       </c>
       <c r="G100" s="3">
-        <v>-235500</v>
+        <v>-190500</v>
       </c>
       <c r="H100" s="3">
-        <v>137900</v>
+        <v>-220300</v>
       </c>
       <c r="I100" s="3">
-        <v>-312200</v>
+        <v>129000</v>
       </c>
       <c r="J100" s="3">
+        <v>-292100</v>
+      </c>
+      <c r="K100" s="3">
         <v>39900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1931800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>118600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4500</v>
+        <v>48200</v>
       </c>
       <c r="E101" s="3">
-        <v>-20700</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>-19400</v>
       </c>
       <c r="G101" s="3">
-        <v>8000</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-11900</v>
+        <v>7400</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>-11100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>8800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6900</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>388800</v>
+        <v>260600</v>
       </c>
       <c r="E102" s="3">
-        <v>544400</v>
+        <v>363800</v>
       </c>
       <c r="F102" s="3">
-        <v>426300</v>
+        <v>509300</v>
       </c>
       <c r="G102" s="3">
-        <v>-25300</v>
+        <v>398800</v>
       </c>
       <c r="H102" s="3">
-        <v>229100</v>
+        <v>-23700</v>
       </c>
       <c r="I102" s="3">
-        <v>29800</v>
+        <v>214400</v>
       </c>
       <c r="J102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-293400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>369900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5108000</v>
+        <v>4199500</v>
       </c>
       <c r="E8" s="3">
-        <v>5587000</v>
+        <v>4907300</v>
       </c>
       <c r="F8" s="3">
-        <v>4495100</v>
+        <v>5367500</v>
       </c>
       <c r="G8" s="3">
-        <v>3417200</v>
+        <v>4318500</v>
       </c>
       <c r="H8" s="3">
-        <v>3067600</v>
+        <v>3283000</v>
       </c>
       <c r="I8" s="3">
-        <v>1461800</v>
+        <v>2947100</v>
       </c>
       <c r="J8" s="3">
+        <v>1404300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1661200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1587400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1755800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1279600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>945000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3628900</v>
+        <v>3056200</v>
       </c>
       <c r="E9" s="3">
-        <v>3328700</v>
+        <v>3486300</v>
       </c>
       <c r="F9" s="3">
-        <v>2704200</v>
+        <v>3197900</v>
       </c>
       <c r="G9" s="3">
-        <v>2583400</v>
+        <v>2598000</v>
       </c>
       <c r="H9" s="3">
-        <v>2487000</v>
+        <v>2481900</v>
       </c>
       <c r="I9" s="3">
-        <v>1472300</v>
+        <v>2389300</v>
       </c>
       <c r="J9" s="3">
+        <v>1414400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1583900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1516400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1573800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1242100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>788400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1479100</v>
+        <v>1143300</v>
       </c>
       <c r="E10" s="3">
-        <v>2258300</v>
+        <v>1421000</v>
       </c>
       <c r="F10" s="3">
-        <v>1790900</v>
+        <v>2169600</v>
       </c>
       <c r="G10" s="3">
-        <v>833800</v>
+        <v>1720500</v>
       </c>
       <c r="H10" s="3">
-        <v>580700</v>
+        <v>801000</v>
       </c>
       <c r="I10" s="3">
-        <v>-10500</v>
+        <v>557900</v>
       </c>
       <c r="J10" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K10" s="3">
         <v>77400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>156700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,11 +922,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,49 +969,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>330500</v>
+        <v>8600</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>317500</v>
       </c>
       <c r="F14" s="3">
-        <v>102200</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>25600</v>
+        <v>98200</v>
       </c>
       <c r="H14" s="3">
-        <v>59800</v>
+        <v>24600</v>
       </c>
       <c r="I14" s="3">
-        <v>-17300</v>
+        <v>57400</v>
       </c>
       <c r="J14" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K14" s="3">
         <v>201200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>154400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>222800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-81400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3964700</v>
+        <v>3071500</v>
       </c>
       <c r="E17" s="3">
-        <v>3352000</v>
+        <v>3808900</v>
       </c>
       <c r="F17" s="3">
-        <v>2819800</v>
+        <v>3220300</v>
       </c>
       <c r="G17" s="3">
-        <v>2627500</v>
+        <v>2709000</v>
       </c>
       <c r="H17" s="3">
-        <v>2559200</v>
+        <v>2524300</v>
       </c>
       <c r="I17" s="3">
-        <v>1465000</v>
+        <v>2458600</v>
       </c>
       <c r="J17" s="3">
+        <v>1407500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1795300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1548400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1735800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1472600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>727500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1143300</v>
+        <v>1128000</v>
       </c>
       <c r="E18" s="3">
-        <v>2235000</v>
+        <v>1098400</v>
       </c>
       <c r="F18" s="3">
-        <v>1675400</v>
+        <v>2147200</v>
       </c>
       <c r="G18" s="3">
-        <v>789700</v>
+        <v>1609500</v>
       </c>
       <c r="H18" s="3">
-        <v>508500</v>
+        <v>758700</v>
       </c>
       <c r="I18" s="3">
-        <v>-3300</v>
+        <v>488500</v>
       </c>
       <c r="J18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-134100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-193000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>217600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-291900</v>
+        <v>-17100</v>
       </c>
       <c r="E20" s="3">
-        <v>-62400</v>
+        <v>-280400</v>
       </c>
       <c r="F20" s="3">
-        <v>-158000</v>
+        <v>-60000</v>
       </c>
       <c r="G20" s="3">
-        <v>3200</v>
+        <v>-151800</v>
       </c>
       <c r="H20" s="3">
-        <v>-384800</v>
+        <v>3000</v>
       </c>
       <c r="I20" s="3">
-        <v>-86000</v>
+        <v>-369700</v>
       </c>
       <c r="J20" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="K20" s="3">
         <v>104800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>37000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-85200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-76400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>894800</v>
+        <v>1303300</v>
       </c>
       <c r="E21" s="3">
-        <v>2408500</v>
+        <v>859600</v>
       </c>
       <c r="F21" s="3">
-        <v>1561200</v>
+        <v>2313900</v>
       </c>
       <c r="G21" s="3">
-        <v>1006800</v>
+        <v>1499900</v>
       </c>
       <c r="H21" s="3">
-        <v>208400</v>
+        <v>967200</v>
       </c>
       <c r="I21" s="3">
-        <v>92300</v>
+        <v>200300</v>
       </c>
       <c r="J21" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>281500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-18700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-103100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>217300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33200</v>
+        <v>38700</v>
       </c>
       <c r="E22" s="3">
-        <v>37100</v>
+        <v>31900</v>
       </c>
       <c r="F22" s="3">
-        <v>45500</v>
+        <v>35600</v>
       </c>
       <c r="G22" s="3">
-        <v>61100</v>
+        <v>43700</v>
       </c>
       <c r="H22" s="3">
-        <v>60800</v>
+        <v>58700</v>
       </c>
       <c r="I22" s="3">
-        <v>54300</v>
+        <v>58400</v>
       </c>
       <c r="J22" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K22" s="3">
         <v>70100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>77100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>78000</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>818200</v>
+        <v>1072200</v>
       </c>
       <c r="E23" s="3">
-        <v>2135500</v>
+        <v>786100</v>
       </c>
       <c r="F23" s="3">
-        <v>1471900</v>
+        <v>2051600</v>
       </c>
       <c r="G23" s="3">
-        <v>731800</v>
+        <v>1414000</v>
       </c>
       <c r="H23" s="3">
-        <v>62900</v>
+        <v>703000</v>
       </c>
       <c r="I23" s="3">
-        <v>-143600</v>
+        <v>60400</v>
       </c>
       <c r="J23" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-99400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-142300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-347400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>208700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>291700</v>
+        <v>335800</v>
       </c>
       <c r="E24" s="3">
-        <v>563000</v>
+        <v>280300</v>
       </c>
       <c r="F24" s="3">
-        <v>174300</v>
+        <v>540800</v>
       </c>
       <c r="G24" s="3">
-        <v>127400</v>
+        <v>167500</v>
       </c>
       <c r="H24" s="3">
-        <v>25400</v>
+        <v>122400</v>
       </c>
       <c r="I24" s="3">
-        <v>-133000</v>
+        <v>24400</v>
       </c>
       <c r="J24" s="3">
+        <v>-127800</v>
+      </c>
+      <c r="K24" s="3">
         <v>62100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-166600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-27600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>526500</v>
+        <v>736400</v>
       </c>
       <c r="E26" s="3">
-        <v>1572600</v>
+        <v>505800</v>
       </c>
       <c r="F26" s="3">
-        <v>1297500</v>
+        <v>1510800</v>
       </c>
       <c r="G26" s="3">
-        <v>604400</v>
+        <v>1246500</v>
       </c>
       <c r="H26" s="3">
-        <v>37500</v>
+        <v>580600</v>
       </c>
       <c r="I26" s="3">
-        <v>-10600</v>
+        <v>36000</v>
       </c>
       <c r="J26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-161400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-319800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>168900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>510400</v>
+        <v>717000</v>
       </c>
       <c r="E27" s="3">
-        <v>1542600</v>
+        <v>490400</v>
       </c>
       <c r="F27" s="3">
-        <v>1237700</v>
+        <v>1482000</v>
       </c>
       <c r="G27" s="3">
-        <v>582900</v>
+        <v>1189000</v>
       </c>
       <c r="H27" s="3">
-        <v>19700</v>
+        <v>560000</v>
       </c>
       <c r="I27" s="3">
-        <v>-15800</v>
+        <v>18900</v>
       </c>
       <c r="J27" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-160000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-319800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>179500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>291900</v>
+        <v>17100</v>
       </c>
       <c r="E32" s="3">
-        <v>62400</v>
+        <v>280400</v>
       </c>
       <c r="F32" s="3">
-        <v>158000</v>
+        <v>60000</v>
       </c>
       <c r="G32" s="3">
-        <v>-3200</v>
+        <v>151800</v>
       </c>
       <c r="H32" s="3">
-        <v>384800</v>
+        <v>-3000</v>
       </c>
       <c r="I32" s="3">
-        <v>86000</v>
+        <v>369700</v>
       </c>
       <c r="J32" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-104800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-37000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>85200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>76400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>510400</v>
+        <v>717000</v>
       </c>
       <c r="E33" s="3">
-        <v>1542600</v>
+        <v>490400</v>
       </c>
       <c r="F33" s="3">
-        <v>1237700</v>
+        <v>1482000</v>
       </c>
       <c r="G33" s="3">
-        <v>582900</v>
+        <v>1189000</v>
       </c>
       <c r="H33" s="3">
-        <v>19700</v>
+        <v>560000</v>
       </c>
       <c r="I33" s="3">
-        <v>-15800</v>
+        <v>18900</v>
       </c>
       <c r="J33" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-160000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-319800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>179500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>510400</v>
+        <v>717000</v>
       </c>
       <c r="E35" s="3">
-        <v>1542600</v>
+        <v>490400</v>
       </c>
       <c r="F35" s="3">
-        <v>1237700</v>
+        <v>1482000</v>
       </c>
       <c r="G35" s="3">
-        <v>582900</v>
+        <v>1189000</v>
       </c>
       <c r="H35" s="3">
-        <v>19700</v>
+        <v>560000</v>
       </c>
       <c r="I35" s="3">
-        <v>-15800</v>
+        <v>18900</v>
       </c>
       <c r="J35" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-160000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-319800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>179500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1881400</v>
+        <v>1625900</v>
       </c>
       <c r="E41" s="3">
-        <v>1620900</v>
+        <v>1807500</v>
       </c>
       <c r="F41" s="3">
-        <v>1257100</v>
+        <v>1557200</v>
       </c>
       <c r="G41" s="3">
-        <v>747800</v>
+        <v>1207700</v>
       </c>
       <c r="H41" s="3">
-        <v>349000</v>
+        <v>718500</v>
       </c>
       <c r="I41" s="3">
-        <v>370500</v>
+        <v>335300</v>
       </c>
       <c r="J41" s="3">
+        <v>355900</v>
+      </c>
+      <c r="K41" s="3">
         <v>158300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>139400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>135700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>434300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1965,98 +2055,107 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>570100</v>
+        <v>532800</v>
       </c>
       <c r="E43" s="3">
-        <v>514600</v>
+        <v>547700</v>
       </c>
       <c r="F43" s="3">
-        <v>437900</v>
+        <v>494400</v>
       </c>
       <c r="G43" s="3">
-        <v>300100</v>
+        <v>420700</v>
       </c>
       <c r="H43" s="3">
-        <v>313100</v>
+        <v>288300</v>
       </c>
       <c r="I43" s="3">
-        <v>340200</v>
+        <v>300800</v>
       </c>
       <c r="J43" s="3">
+        <v>326800</v>
+      </c>
+      <c r="K43" s="3">
         <v>456600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>434600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>422000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>389000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>346200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1557700</v>
+        <v>1611400</v>
       </c>
       <c r="E44" s="3">
-        <v>1828300</v>
+        <v>1496500</v>
       </c>
       <c r="F44" s="3">
-        <v>1549800</v>
+        <v>1756500</v>
       </c>
       <c r="G44" s="3">
-        <v>1044900</v>
+        <v>1488900</v>
       </c>
       <c r="H44" s="3">
-        <v>962900</v>
+        <v>1003800</v>
       </c>
       <c r="I44" s="3">
-        <v>882600</v>
+        <v>925100</v>
       </c>
       <c r="J44" s="3">
+        <v>847900</v>
+      </c>
+      <c r="K44" s="3">
         <v>328900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>281200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>232000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>38700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>17400</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>16700</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2067,193 +2166,208 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="J45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>84300</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4026700</v>
+        <v>3770100</v>
       </c>
       <c r="E46" s="3">
-        <v>3963900</v>
+        <v>3868500</v>
       </c>
       <c r="F46" s="3">
-        <v>3244800</v>
+        <v>3808100</v>
       </c>
       <c r="G46" s="3">
-        <v>2092900</v>
+        <v>3117300</v>
       </c>
       <c r="H46" s="3">
-        <v>1625000</v>
+        <v>2010600</v>
       </c>
       <c r="I46" s="3">
-        <v>1600700</v>
+        <v>1561200</v>
       </c>
       <c r="J46" s="3">
+        <v>1537900</v>
+      </c>
+      <c r="K46" s="3">
         <v>943800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>939500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>789700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1020500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>440200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>512100</v>
+        <v>526500</v>
       </c>
       <c r="E47" s="3">
-        <v>458900</v>
+        <v>492000</v>
       </c>
       <c r="F47" s="3">
-        <v>400100</v>
+        <v>440900</v>
       </c>
       <c r="G47" s="3">
-        <v>379500</v>
+        <v>384400</v>
       </c>
       <c r="H47" s="3">
-        <v>293300</v>
+        <v>364600</v>
       </c>
       <c r="I47" s="3">
-        <v>279800</v>
+        <v>281800</v>
       </c>
       <c r="J47" s="3">
+        <v>268800</v>
+      </c>
+      <c r="K47" s="3">
         <v>251400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>197500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>166300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>174400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>143600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3895300</v>
+        <v>4145400</v>
       </c>
       <c r="E48" s="3">
-        <v>3822700</v>
+        <v>3742300</v>
       </c>
       <c r="F48" s="3">
-        <v>3782200</v>
+        <v>3672600</v>
       </c>
       <c r="G48" s="3">
-        <v>4113000</v>
+        <v>3633600</v>
       </c>
       <c r="H48" s="3">
-        <v>3592500</v>
+        <v>3951400</v>
       </c>
       <c r="I48" s="3">
-        <v>3524700</v>
+        <v>3451400</v>
       </c>
       <c r="J48" s="3">
+        <v>3386200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3388600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3532300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3384000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3620500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1556800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>479900</v>
+        <v>476600</v>
       </c>
       <c r="E49" s="3">
-        <v>433300</v>
+        <v>461100</v>
       </c>
       <c r="F49" s="3">
-        <v>445000</v>
+        <v>416300</v>
       </c>
       <c r="G49" s="3">
-        <v>519300</v>
+        <v>427500</v>
       </c>
       <c r="H49" s="3">
-        <v>425800</v>
+        <v>498900</v>
       </c>
       <c r="I49" s="3">
-        <v>428200</v>
+        <v>409000</v>
       </c>
       <c r="J49" s="3">
+        <v>411400</v>
+      </c>
+      <c r="K49" s="3">
         <v>427900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>465500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>420700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>453400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>588500</v>
+        <v>544400</v>
       </c>
       <c r="E52" s="3">
-        <v>417600</v>
+        <v>565400</v>
       </c>
       <c r="F52" s="3">
-        <v>457000</v>
+        <v>401200</v>
       </c>
       <c r="G52" s="3">
-        <v>362300</v>
+        <v>439000</v>
       </c>
       <c r="H52" s="3">
-        <v>341000</v>
+        <v>348000</v>
       </c>
       <c r="I52" s="3">
-        <v>315100</v>
+        <v>327600</v>
       </c>
       <c r="J52" s="3">
+        <v>302700</v>
+      </c>
+      <c r="K52" s="3">
         <v>262800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>248400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>243300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>227000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>190200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9502500</v>
+        <v>9463000</v>
       </c>
       <c r="E54" s="3">
-        <v>9096400</v>
+        <v>9129200</v>
       </c>
       <c r="F54" s="3">
-        <v>8329100</v>
+        <v>8739100</v>
       </c>
       <c r="G54" s="3">
-        <v>7467000</v>
+        <v>8001900</v>
       </c>
       <c r="H54" s="3">
-        <v>6277600</v>
+        <v>7173700</v>
       </c>
       <c r="I54" s="3">
-        <v>6148500</v>
+        <v>6031000</v>
       </c>
       <c r="J54" s="3">
+        <v>5906900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5274600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5383200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5004000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5495800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2384400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>941700</v>
+        <v>858800</v>
       </c>
       <c r="E57" s="3">
-        <v>922000</v>
+        <v>904700</v>
       </c>
       <c r="F57" s="3">
-        <v>820300</v>
+        <v>885700</v>
       </c>
       <c r="G57" s="3">
-        <v>734100</v>
+        <v>788100</v>
       </c>
       <c r="H57" s="3">
-        <v>712100</v>
+        <v>705200</v>
       </c>
       <c r="I57" s="3">
-        <v>690200</v>
+        <v>684200</v>
       </c>
       <c r="J57" s="3">
+        <v>663100</v>
+      </c>
+      <c r="K57" s="3">
         <v>488000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>453700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>440100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>476300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>296100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13100</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>413300</v>
+        <v>12600</v>
       </c>
       <c r="F58" s="3">
-        <v>61400</v>
+        <v>397000</v>
       </c>
       <c r="G58" s="3">
-        <v>85400</v>
+        <v>59000</v>
       </c>
       <c r="H58" s="3">
-        <v>9200</v>
+        <v>82000</v>
       </c>
       <c r="I58" s="3">
-        <v>344500</v>
+        <v>8800</v>
       </c>
       <c r="J58" s="3">
+        <v>330900</v>
+      </c>
+      <c r="K58" s="3">
         <v>384300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>109000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>504100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>321000</v>
+        <v>248800</v>
       </c>
       <c r="E59" s="3">
-        <v>114900</v>
+        <v>308400</v>
       </c>
       <c r="F59" s="3">
-        <v>204400</v>
+        <v>110400</v>
       </c>
       <c r="G59" s="3">
-        <v>246200</v>
+        <v>196300</v>
       </c>
       <c r="H59" s="3">
-        <v>168500</v>
+        <v>236500</v>
       </c>
       <c r="I59" s="3">
-        <v>229700</v>
+        <v>161900</v>
       </c>
       <c r="J59" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K59" s="3">
         <v>36500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1275800</v>
+        <v>1121500</v>
       </c>
       <c r="E60" s="3">
-        <v>1450100</v>
+        <v>1225700</v>
       </c>
       <c r="F60" s="3">
-        <v>1086100</v>
+        <v>1393200</v>
       </c>
       <c r="G60" s="3">
-        <v>1065600</v>
+        <v>1043500</v>
       </c>
       <c r="H60" s="3">
-        <v>889800</v>
+        <v>1023800</v>
       </c>
       <c r="I60" s="3">
-        <v>1264300</v>
+        <v>854900</v>
       </c>
       <c r="J60" s="3">
+        <v>1214700</v>
+      </c>
+      <c r="K60" s="3">
         <v>908800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>507900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>555000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>989700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>357600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1265100</v>
+        <v>1253800</v>
       </c>
       <c r="E61" s="3">
-        <v>672100</v>
+        <v>1215400</v>
       </c>
       <c r="F61" s="3">
-        <v>1100600</v>
+        <v>645700</v>
       </c>
       <c r="G61" s="3">
-        <v>1573300</v>
+        <v>1057400</v>
       </c>
       <c r="H61" s="3">
-        <v>1488800</v>
+        <v>1511500</v>
       </c>
       <c r="I61" s="3">
-        <v>1362300</v>
+        <v>1430300</v>
       </c>
       <c r="J61" s="3">
+        <v>1308800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1137600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1882700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1578200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1507200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>469900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1909300</v>
+        <v>1755700</v>
       </c>
       <c r="E62" s="3">
-        <v>1798000</v>
+        <v>1834300</v>
       </c>
       <c r="F62" s="3">
-        <v>1750200</v>
+        <v>1727400</v>
       </c>
       <c r="G62" s="3">
-        <v>1969700</v>
+        <v>1681500</v>
       </c>
       <c r="H62" s="3">
-        <v>1964900</v>
+        <v>1892300</v>
       </c>
       <c r="I62" s="3">
-        <v>1642800</v>
+        <v>1887700</v>
       </c>
       <c r="J62" s="3">
+        <v>1578200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1692500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1298800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1292200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1396700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>615700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4537600</v>
+        <v>4303100</v>
       </c>
       <c r="E66" s="3">
-        <v>4002600</v>
+        <v>4359300</v>
       </c>
       <c r="F66" s="3">
-        <v>4075800</v>
+        <v>3845300</v>
       </c>
       <c r="G66" s="3">
-        <v>4694900</v>
+        <v>3915700</v>
       </c>
       <c r="H66" s="3">
-        <v>4434700</v>
+        <v>4510500</v>
       </c>
       <c r="I66" s="3">
-        <v>4347000</v>
+        <v>4260500</v>
       </c>
       <c r="J66" s="3">
+        <v>4176200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3797100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3690800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3426700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3894700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1444200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3620400</v>
+        <v>2495800</v>
       </c>
       <c r="E72" s="3">
-        <v>1850600</v>
+        <v>3478200</v>
       </c>
       <c r="F72" s="3">
-        <v>2380700</v>
+        <v>1777900</v>
       </c>
       <c r="G72" s="3">
-        <v>246600</v>
+        <v>2287200</v>
       </c>
       <c r="H72" s="3">
-        <v>-682700</v>
+        <v>236900</v>
       </c>
       <c r="I72" s="3">
-        <v>-724000</v>
+        <v>-655900</v>
       </c>
       <c r="J72" s="3">
+        <v>-695600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-675700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-609100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-703100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-709000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-301900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4964900</v>
+        <v>5159900</v>
       </c>
       <c r="E76" s="3">
-        <v>5093900</v>
+        <v>4769800</v>
       </c>
       <c r="F76" s="3">
-        <v>4253300</v>
+        <v>4893800</v>
       </c>
       <c r="G76" s="3">
-        <v>2772100</v>
+        <v>4086200</v>
       </c>
       <c r="H76" s="3">
-        <v>1842800</v>
+        <v>2663200</v>
       </c>
       <c r="I76" s="3">
-        <v>1801500</v>
+        <v>1770400</v>
       </c>
       <c r="J76" s="3">
+        <v>1730700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1477500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1692400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1577300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1601100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>940200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>510400</v>
+        <v>717000</v>
       </c>
       <c r="E81" s="3">
-        <v>1542600</v>
+        <v>490400</v>
       </c>
       <c r="F81" s="3">
-        <v>1237700</v>
+        <v>1482000</v>
       </c>
       <c r="G81" s="3">
-        <v>582900</v>
+        <v>1189000</v>
       </c>
       <c r="H81" s="3">
-        <v>19700</v>
+        <v>560000</v>
       </c>
       <c r="I81" s="3">
-        <v>-15800</v>
+        <v>18900</v>
       </c>
       <c r="J81" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-160000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-319800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>179500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1177600</v>
+        <v>261900</v>
       </c>
       <c r="E89" s="3">
-        <v>825800</v>
+        <v>1131300</v>
       </c>
       <c r="F89" s="3">
-        <v>792600</v>
+        <v>793400</v>
       </c>
       <c r="G89" s="3">
-        <v>893600</v>
+        <v>761500</v>
       </c>
       <c r="H89" s="3">
-        <v>505400</v>
+        <v>858500</v>
       </c>
       <c r="I89" s="3">
-        <v>82400</v>
+        <v>485500</v>
       </c>
       <c r="J89" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K89" s="3">
         <v>612600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>154900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>108400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>110500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-444300</v>
+        <v>-366600</v>
       </c>
       <c r="E91" s="3">
-        <v>-346900</v>
+        <v>-426900</v>
       </c>
       <c r="F91" s="3">
-        <v>-340400</v>
+        <v>-333300</v>
       </c>
       <c r="G91" s="3">
-        <v>-256800</v>
+        <v>-327100</v>
       </c>
       <c r="H91" s="3">
-        <v>-318200</v>
+        <v>-246700</v>
       </c>
       <c r="I91" s="3">
-        <v>-160400</v>
+        <v>-305700</v>
       </c>
       <c r="J91" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-249400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-203500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-237800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-165400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-136600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-543200</v>
+        <v>-449000</v>
       </c>
       <c r="E94" s="3">
-        <v>-361600</v>
+        <v>-521900</v>
       </c>
       <c r="F94" s="3">
-        <v>-315100</v>
+        <v>-347400</v>
       </c>
       <c r="G94" s="3">
-        <v>-302100</v>
+        <v>-302700</v>
       </c>
       <c r="H94" s="3">
+        <v>-290200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-303800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-292800</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-201100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-1627900</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-223500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-316200</v>
       </c>
-      <c r="I94" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-292800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-201100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-243000</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1627900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-223500</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-316200</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-422000</v>
+        <v>-4400</v>
       </c>
       <c r="E100" s="3">
-        <v>-96200</v>
+        <v>-405500</v>
       </c>
       <c r="F100" s="3">
-        <v>51100</v>
+        <v>-92400</v>
       </c>
       <c r="G100" s="3">
-        <v>-190500</v>
+        <v>49100</v>
       </c>
       <c r="H100" s="3">
-        <v>-220300</v>
+        <v>-183000</v>
       </c>
       <c r="I100" s="3">
-        <v>129000</v>
+        <v>-211700</v>
       </c>
       <c r="J100" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-292100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-145300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1931800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>118600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48200</v>
+        <v>9800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>46300</v>
       </c>
       <c r="F101" s="3">
-        <v>-19400</v>
+        <v>-4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-18600</v>
       </c>
       <c r="H101" s="3">
-        <v>7400</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
-        <v>-11100</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6900</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>260600</v>
+        <v>-181600</v>
       </c>
       <c r="E102" s="3">
-        <v>363800</v>
+        <v>250300</v>
       </c>
       <c r="F102" s="3">
-        <v>509300</v>
+        <v>349500</v>
       </c>
       <c r="G102" s="3">
-        <v>398800</v>
+        <v>489300</v>
       </c>
       <c r="H102" s="3">
-        <v>-23700</v>
+        <v>383200</v>
       </c>
       <c r="I102" s="3">
-        <v>214400</v>
+        <v>-22800</v>
       </c>
       <c r="J102" s="3">
+        <v>205900</v>
+      </c>
+      <c r="K102" s="3">
         <v>27900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-293400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>369900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4199500</v>
+        <v>4051700</v>
       </c>
       <c r="E8" s="3">
-        <v>4907300</v>
+        <v>4734600</v>
       </c>
       <c r="F8" s="3">
-        <v>5367500</v>
+        <v>5178600</v>
       </c>
       <c r="G8" s="3">
-        <v>4318500</v>
+        <v>4166600</v>
       </c>
       <c r="H8" s="3">
-        <v>3283000</v>
+        <v>3167400</v>
       </c>
       <c r="I8" s="3">
-        <v>2947100</v>
+        <v>2843400</v>
       </c>
       <c r="J8" s="3">
-        <v>1404300</v>
+        <v>1354900</v>
       </c>
       <c r="K8" s="3">
         <v>1661200</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3056200</v>
+        <v>2948700</v>
       </c>
       <c r="E9" s="3">
-        <v>3486300</v>
+        <v>3363600</v>
       </c>
       <c r="F9" s="3">
-        <v>3197900</v>
+        <v>3085300</v>
       </c>
       <c r="G9" s="3">
-        <v>2598000</v>
+        <v>2506600</v>
       </c>
       <c r="H9" s="3">
-        <v>2481900</v>
+        <v>2394600</v>
       </c>
       <c r="I9" s="3">
-        <v>2389300</v>
+        <v>2305200</v>
       </c>
       <c r="J9" s="3">
-        <v>1414400</v>
+        <v>1364600</v>
       </c>
       <c r="K9" s="3">
         <v>1583900</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1143300</v>
+        <v>1103000</v>
       </c>
       <c r="E10" s="3">
-        <v>1421000</v>
+        <v>1371000</v>
       </c>
       <c r="F10" s="3">
-        <v>2169600</v>
+        <v>2093200</v>
       </c>
       <c r="G10" s="3">
-        <v>1720500</v>
+        <v>1660000</v>
       </c>
       <c r="H10" s="3">
-        <v>801000</v>
+        <v>772800</v>
       </c>
       <c r="I10" s="3">
-        <v>557900</v>
+        <v>538200</v>
       </c>
       <c r="J10" s="3">
-        <v>-10100</v>
+        <v>-9700</v>
       </c>
       <c r="K10" s="3">
         <v>77400</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E14" s="3">
-        <v>317500</v>
+        <v>306300</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G14" s="3">
-        <v>98200</v>
+        <v>94700</v>
       </c>
       <c r="H14" s="3">
-        <v>24600</v>
+        <v>23700</v>
       </c>
       <c r="I14" s="3">
-        <v>57400</v>
+        <v>55400</v>
       </c>
       <c r="J14" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="K14" s="3">
         <v>201200</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3071500</v>
+        <v>2963400</v>
       </c>
       <c r="E17" s="3">
-        <v>3808900</v>
+        <v>3674900</v>
       </c>
       <c r="F17" s="3">
-        <v>3220300</v>
+        <v>3106900</v>
       </c>
       <c r="G17" s="3">
-        <v>2709000</v>
+        <v>2613700</v>
       </c>
       <c r="H17" s="3">
-        <v>2524300</v>
+        <v>2435400</v>
       </c>
       <c r="I17" s="3">
-        <v>2458600</v>
+        <v>2372100</v>
       </c>
       <c r="J17" s="3">
-        <v>1407500</v>
+        <v>1358000</v>
       </c>
       <c r="K17" s="3">
         <v>1795300</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1128000</v>
+        <v>1088300</v>
       </c>
       <c r="E18" s="3">
-        <v>1098400</v>
+        <v>1059700</v>
       </c>
       <c r="F18" s="3">
-        <v>2147200</v>
+        <v>2071700</v>
       </c>
       <c r="G18" s="3">
-        <v>1609500</v>
+        <v>1552900</v>
       </c>
       <c r="H18" s="3">
-        <v>758700</v>
+        <v>732000</v>
       </c>
       <c r="I18" s="3">
-        <v>488500</v>
+        <v>471300</v>
       </c>
       <c r="J18" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K18" s="3">
         <v>-134100</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17100</v>
+        <v>-16500</v>
       </c>
       <c r="E20" s="3">
-        <v>-280400</v>
+        <v>-270500</v>
       </c>
       <c r="F20" s="3">
-        <v>-60000</v>
+        <v>-57900</v>
       </c>
       <c r="G20" s="3">
-        <v>-151800</v>
+        <v>-146400</v>
       </c>
       <c r="H20" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I20" s="3">
-        <v>-369700</v>
+        <v>-356700</v>
       </c>
       <c r="J20" s="3">
-        <v>-82700</v>
+        <v>-79800</v>
       </c>
       <c r="K20" s="3">
         <v>104800</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1303300</v>
+        <v>1257400</v>
       </c>
       <c r="E21" s="3">
-        <v>859600</v>
+        <v>829400</v>
       </c>
       <c r="F21" s="3">
-        <v>2313900</v>
+        <v>2232400</v>
       </c>
       <c r="G21" s="3">
-        <v>1499900</v>
+        <v>1447100</v>
       </c>
       <c r="H21" s="3">
-        <v>967200</v>
+        <v>933200</v>
       </c>
       <c r="I21" s="3">
-        <v>200300</v>
+        <v>193200</v>
       </c>
       <c r="J21" s="3">
-        <v>88700</v>
+        <v>85600</v>
       </c>
       <c r="K21" s="3">
         <v>-2900</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38700</v>
+        <v>37300</v>
       </c>
       <c r="E22" s="3">
-        <v>31900</v>
+        <v>30800</v>
       </c>
       <c r="F22" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="G22" s="3">
-        <v>43700</v>
+        <v>42200</v>
       </c>
       <c r="H22" s="3">
-        <v>58700</v>
+        <v>56700</v>
       </c>
       <c r="I22" s="3">
-        <v>58400</v>
+        <v>56400</v>
       </c>
       <c r="J22" s="3">
-        <v>52100</v>
+        <v>50300</v>
       </c>
       <c r="K22" s="3">
         <v>70100</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1072200</v>
+        <v>1034500</v>
       </c>
       <c r="E23" s="3">
-        <v>786100</v>
+        <v>758400</v>
       </c>
       <c r="F23" s="3">
-        <v>2051600</v>
+        <v>1979400</v>
       </c>
       <c r="G23" s="3">
-        <v>1414000</v>
+        <v>1364300</v>
       </c>
       <c r="H23" s="3">
-        <v>703000</v>
+        <v>678300</v>
       </c>
       <c r="I23" s="3">
-        <v>60400</v>
+        <v>58300</v>
       </c>
       <c r="J23" s="3">
-        <v>-138000</v>
+        <v>-133100</v>
       </c>
       <c r="K23" s="3">
         <v>-99400</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>335800</v>
+        <v>324000</v>
       </c>
       <c r="E24" s="3">
-        <v>280300</v>
+        <v>270400</v>
       </c>
       <c r="F24" s="3">
-        <v>540800</v>
+        <v>521800</v>
       </c>
       <c r="G24" s="3">
-        <v>167500</v>
+        <v>161600</v>
       </c>
       <c r="H24" s="3">
-        <v>122400</v>
+        <v>118100</v>
       </c>
       <c r="I24" s="3">
-        <v>24400</v>
+        <v>23500</v>
       </c>
       <c r="J24" s="3">
-        <v>-127800</v>
+        <v>-123300</v>
       </c>
       <c r="K24" s="3">
         <v>62100</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>736400</v>
+        <v>710500</v>
       </c>
       <c r="E26" s="3">
-        <v>505800</v>
+        <v>488000</v>
       </c>
       <c r="F26" s="3">
-        <v>1510800</v>
+        <v>1457600</v>
       </c>
       <c r="G26" s="3">
-        <v>1246500</v>
+        <v>1202700</v>
       </c>
       <c r="H26" s="3">
-        <v>580600</v>
+        <v>560200</v>
       </c>
       <c r="I26" s="3">
-        <v>36000</v>
+        <v>34700</v>
       </c>
       <c r="J26" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="K26" s="3">
         <v>-161400</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>717000</v>
+        <v>691800</v>
       </c>
       <c r="E27" s="3">
-        <v>490400</v>
+        <v>473100</v>
       </c>
       <c r="F27" s="3">
-        <v>1482000</v>
+        <v>1429800</v>
       </c>
       <c r="G27" s="3">
-        <v>1189000</v>
+        <v>1147200</v>
       </c>
       <c r="H27" s="3">
-        <v>560000</v>
+        <v>540300</v>
       </c>
       <c r="I27" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="J27" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K27" s="3">
         <v>-160000</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="E32" s="3">
-        <v>280400</v>
+        <v>270500</v>
       </c>
       <c r="F32" s="3">
-        <v>60000</v>
+        <v>57900</v>
       </c>
       <c r="G32" s="3">
-        <v>151800</v>
+        <v>146400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I32" s="3">
-        <v>369700</v>
+        <v>356700</v>
       </c>
       <c r="J32" s="3">
-        <v>82700</v>
+        <v>79800</v>
       </c>
       <c r="K32" s="3">
         <v>-104800</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>717000</v>
+        <v>691800</v>
       </c>
       <c r="E33" s="3">
-        <v>490400</v>
+        <v>473100</v>
       </c>
       <c r="F33" s="3">
-        <v>1482000</v>
+        <v>1429800</v>
       </c>
       <c r="G33" s="3">
-        <v>1189000</v>
+        <v>1147200</v>
       </c>
       <c r="H33" s="3">
-        <v>560000</v>
+        <v>540300</v>
       </c>
       <c r="I33" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="J33" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K33" s="3">
         <v>-160000</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>717000</v>
+        <v>691800</v>
       </c>
       <c r="E35" s="3">
-        <v>490400</v>
+        <v>473100</v>
       </c>
       <c r="F35" s="3">
-        <v>1482000</v>
+        <v>1429800</v>
       </c>
       <c r="G35" s="3">
-        <v>1189000</v>
+        <v>1147200</v>
       </c>
       <c r="H35" s="3">
-        <v>560000</v>
+        <v>540300</v>
       </c>
       <c r="I35" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="J35" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K35" s="3">
         <v>-160000</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1625900</v>
+        <v>1568700</v>
       </c>
       <c r="E41" s="3">
-        <v>1807500</v>
+        <v>1743900</v>
       </c>
       <c r="F41" s="3">
-        <v>1557200</v>
+        <v>1502400</v>
       </c>
       <c r="G41" s="3">
-        <v>1207700</v>
+        <v>1165200</v>
       </c>
       <c r="H41" s="3">
-        <v>718500</v>
+        <v>693200</v>
       </c>
       <c r="I41" s="3">
-        <v>335300</v>
+        <v>323500</v>
       </c>
       <c r="J41" s="3">
-        <v>355900</v>
+        <v>343400</v>
       </c>
       <c r="K41" s="3">
         <v>158300</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>532800</v>
+        <v>514000</v>
       </c>
       <c r="E43" s="3">
-        <v>547700</v>
+        <v>528400</v>
       </c>
       <c r="F43" s="3">
-        <v>494400</v>
+        <v>477000</v>
       </c>
       <c r="G43" s="3">
-        <v>420700</v>
+        <v>405900</v>
       </c>
       <c r="H43" s="3">
-        <v>288300</v>
+        <v>278200</v>
       </c>
       <c r="I43" s="3">
-        <v>300800</v>
+        <v>290200</v>
       </c>
       <c r="J43" s="3">
-        <v>326800</v>
+        <v>315300</v>
       </c>
       <c r="K43" s="3">
         <v>456600</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1611400</v>
+        <v>1554700</v>
       </c>
       <c r="E44" s="3">
-        <v>1496500</v>
+        <v>1443900</v>
       </c>
       <c r="F44" s="3">
-        <v>1756500</v>
+        <v>1694700</v>
       </c>
       <c r="G44" s="3">
-        <v>1488900</v>
+        <v>1436500</v>
       </c>
       <c r="H44" s="3">
-        <v>1003800</v>
+        <v>968500</v>
       </c>
       <c r="I44" s="3">
-        <v>925100</v>
+        <v>892500</v>
       </c>
       <c r="J44" s="3">
-        <v>847900</v>
+        <v>818100</v>
       </c>
       <c r="K44" s="3">
         <v>328900</v>
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3770100</v>
+        <v>3637400</v>
       </c>
       <c r="E46" s="3">
-        <v>3868500</v>
+        <v>3732300</v>
       </c>
       <c r="F46" s="3">
-        <v>3808100</v>
+        <v>3674100</v>
       </c>
       <c r="G46" s="3">
-        <v>3117300</v>
+        <v>3007600</v>
       </c>
       <c r="H46" s="3">
-        <v>2010600</v>
+        <v>1939900</v>
       </c>
       <c r="I46" s="3">
-        <v>1561200</v>
+        <v>1506200</v>
       </c>
       <c r="J46" s="3">
-        <v>1537900</v>
+        <v>1483700</v>
       </c>
       <c r="K46" s="3">
         <v>943800</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>526500</v>
+        <v>508000</v>
       </c>
       <c r="E47" s="3">
-        <v>492000</v>
+        <v>474700</v>
       </c>
       <c r="F47" s="3">
-        <v>440900</v>
+        <v>425400</v>
       </c>
       <c r="G47" s="3">
-        <v>384400</v>
+        <v>370900</v>
       </c>
       <c r="H47" s="3">
-        <v>364600</v>
+        <v>351800</v>
       </c>
       <c r="I47" s="3">
-        <v>281800</v>
+        <v>271900</v>
       </c>
       <c r="J47" s="3">
-        <v>268800</v>
+        <v>259300</v>
       </c>
       <c r="K47" s="3">
         <v>251400</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4145400</v>
+        <v>3999500</v>
       </c>
       <c r="E48" s="3">
-        <v>3742300</v>
+        <v>3610600</v>
       </c>
       <c r="F48" s="3">
-        <v>3672600</v>
+        <v>3543300</v>
       </c>
       <c r="G48" s="3">
-        <v>3633600</v>
+        <v>3505800</v>
       </c>
       <c r="H48" s="3">
-        <v>3951400</v>
+        <v>3812300</v>
       </c>
       <c r="I48" s="3">
-        <v>3451400</v>
+        <v>3329900</v>
       </c>
       <c r="J48" s="3">
-        <v>3386200</v>
+        <v>3267000</v>
       </c>
       <c r="K48" s="3">
         <v>3388600</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>476600</v>
+        <v>459800</v>
       </c>
       <c r="E49" s="3">
-        <v>461100</v>
+        <v>444800</v>
       </c>
       <c r="F49" s="3">
-        <v>416300</v>
+        <v>401600</v>
       </c>
       <c r="G49" s="3">
-        <v>427500</v>
+        <v>412500</v>
       </c>
       <c r="H49" s="3">
-        <v>498900</v>
+        <v>481400</v>
       </c>
       <c r="I49" s="3">
-        <v>409000</v>
+        <v>394600</v>
       </c>
       <c r="J49" s="3">
-        <v>411400</v>
+        <v>396900</v>
       </c>
       <c r="K49" s="3">
         <v>427900</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>544400</v>
+        <v>525300</v>
       </c>
       <c r="E52" s="3">
-        <v>565400</v>
+        <v>545500</v>
       </c>
       <c r="F52" s="3">
-        <v>401200</v>
+        <v>387100</v>
       </c>
       <c r="G52" s="3">
-        <v>439000</v>
+        <v>423600</v>
       </c>
       <c r="H52" s="3">
-        <v>348000</v>
+        <v>335800</v>
       </c>
       <c r="I52" s="3">
-        <v>327600</v>
+        <v>316000</v>
       </c>
       <c r="J52" s="3">
-        <v>302700</v>
+        <v>292000</v>
       </c>
       <c r="K52" s="3">
         <v>262800</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9463000</v>
+        <v>9130000</v>
       </c>
       <c r="E54" s="3">
-        <v>9129200</v>
+        <v>8807900</v>
       </c>
       <c r="F54" s="3">
-        <v>8739100</v>
+        <v>8431500</v>
       </c>
       <c r="G54" s="3">
-        <v>8001900</v>
+        <v>7720300</v>
       </c>
       <c r="H54" s="3">
-        <v>7173700</v>
+        <v>6921200</v>
       </c>
       <c r="I54" s="3">
-        <v>6031000</v>
+        <v>5818700</v>
       </c>
       <c r="J54" s="3">
-        <v>5906900</v>
+        <v>5699000</v>
       </c>
       <c r="K54" s="3">
         <v>5274600</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>858800</v>
+        <v>828500</v>
       </c>
       <c r="E57" s="3">
-        <v>904700</v>
+        <v>872900</v>
       </c>
       <c r="F57" s="3">
-        <v>885700</v>
+        <v>854600</v>
       </c>
       <c r="G57" s="3">
-        <v>788100</v>
+        <v>760400</v>
       </c>
       <c r="H57" s="3">
-        <v>705200</v>
+        <v>680400</v>
       </c>
       <c r="I57" s="3">
-        <v>684200</v>
+        <v>660100</v>
       </c>
       <c r="J57" s="3">
-        <v>663100</v>
+        <v>639800</v>
       </c>
       <c r="K57" s="3">
         <v>488000</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="E58" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="F58" s="3">
-        <v>397000</v>
+        <v>383100</v>
       </c>
       <c r="G58" s="3">
-        <v>59000</v>
+        <v>56900</v>
       </c>
       <c r="H58" s="3">
-        <v>82000</v>
+        <v>79100</v>
       </c>
       <c r="I58" s="3">
-        <v>8800</v>
+        <v>8500</v>
       </c>
       <c r="J58" s="3">
-        <v>330900</v>
+        <v>319300</v>
       </c>
       <c r="K58" s="3">
         <v>384300</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>248800</v>
+        <v>240000</v>
       </c>
       <c r="E59" s="3">
-        <v>308400</v>
+        <v>297500</v>
       </c>
       <c r="F59" s="3">
-        <v>110400</v>
+        <v>106500</v>
       </c>
       <c r="G59" s="3">
-        <v>196300</v>
+        <v>189400</v>
       </c>
       <c r="H59" s="3">
-        <v>236500</v>
+        <v>228200</v>
       </c>
       <c r="I59" s="3">
-        <v>161900</v>
+        <v>156200</v>
       </c>
       <c r="J59" s="3">
-        <v>220600</v>
+        <v>212900</v>
       </c>
       <c r="K59" s="3">
         <v>36500</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1121500</v>
+        <v>1082000</v>
       </c>
       <c r="E60" s="3">
-        <v>1225700</v>
+        <v>1182500</v>
       </c>
       <c r="F60" s="3">
-        <v>1393200</v>
+        <v>1344100</v>
       </c>
       <c r="G60" s="3">
-        <v>1043500</v>
+        <v>1006700</v>
       </c>
       <c r="H60" s="3">
-        <v>1023800</v>
+        <v>987700</v>
       </c>
       <c r="I60" s="3">
-        <v>854900</v>
+        <v>824800</v>
       </c>
       <c r="J60" s="3">
-        <v>1214700</v>
+        <v>1171900</v>
       </c>
       <c r="K60" s="3">
         <v>908800</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1253800</v>
+        <v>1209700</v>
       </c>
       <c r="E61" s="3">
-        <v>1215400</v>
+        <v>1172600</v>
       </c>
       <c r="F61" s="3">
-        <v>645700</v>
+        <v>623000</v>
       </c>
       <c r="G61" s="3">
-        <v>1057400</v>
+        <v>1020200</v>
       </c>
       <c r="H61" s="3">
-        <v>1511500</v>
+        <v>1458300</v>
       </c>
       <c r="I61" s="3">
-        <v>1430300</v>
+        <v>1380000</v>
       </c>
       <c r="J61" s="3">
-        <v>1308800</v>
+        <v>1262700</v>
       </c>
       <c r="K61" s="3">
         <v>1137600</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1755700</v>
+        <v>1693900</v>
       </c>
       <c r="E62" s="3">
-        <v>1834300</v>
+        <v>1769700</v>
       </c>
       <c r="F62" s="3">
-        <v>1727400</v>
+        <v>1666600</v>
       </c>
       <c r="G62" s="3">
-        <v>1681500</v>
+        <v>1622300</v>
       </c>
       <c r="H62" s="3">
-        <v>1892300</v>
+        <v>1825700</v>
       </c>
       <c r="I62" s="3">
-        <v>1887700</v>
+        <v>1821300</v>
       </c>
       <c r="J62" s="3">
-        <v>1578200</v>
+        <v>1522700</v>
       </c>
       <c r="K62" s="3">
         <v>1692500</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4303100</v>
+        <v>4151700</v>
       </c>
       <c r="E66" s="3">
-        <v>4359300</v>
+        <v>4205900</v>
       </c>
       <c r="F66" s="3">
-        <v>3845300</v>
+        <v>3710000</v>
       </c>
       <c r="G66" s="3">
-        <v>3915700</v>
+        <v>3777900</v>
       </c>
       <c r="H66" s="3">
-        <v>4510500</v>
+        <v>4351700</v>
       </c>
       <c r="I66" s="3">
-        <v>4260500</v>
+        <v>4110600</v>
       </c>
       <c r="J66" s="3">
-        <v>4176200</v>
+        <v>4029200</v>
       </c>
       <c r="K66" s="3">
         <v>3797100</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2495800</v>
+        <v>2407900</v>
       </c>
       <c r="E72" s="3">
-        <v>3478200</v>
+        <v>3355800</v>
       </c>
       <c r="F72" s="3">
-        <v>1777900</v>
+        <v>1715300</v>
       </c>
       <c r="G72" s="3">
-        <v>2287200</v>
+        <v>2206700</v>
       </c>
       <c r="H72" s="3">
-        <v>236900</v>
+        <v>228600</v>
       </c>
       <c r="I72" s="3">
-        <v>-655900</v>
+        <v>-632800</v>
       </c>
       <c r="J72" s="3">
-        <v>-695600</v>
+        <v>-671100</v>
       </c>
       <c r="K72" s="3">
         <v>-675700</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5159900</v>
+        <v>4978300</v>
       </c>
       <c r="E76" s="3">
-        <v>4769800</v>
+        <v>4602000</v>
       </c>
       <c r="F76" s="3">
-        <v>4893800</v>
+        <v>4721500</v>
       </c>
       <c r="G76" s="3">
-        <v>4086200</v>
+        <v>3942400</v>
       </c>
       <c r="H76" s="3">
-        <v>2663200</v>
+        <v>2569500</v>
       </c>
       <c r="I76" s="3">
-        <v>1770400</v>
+        <v>1708100</v>
       </c>
       <c r="J76" s="3">
-        <v>1730700</v>
+        <v>1669800</v>
       </c>
       <c r="K76" s="3">
         <v>1477500</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>717000</v>
+        <v>691800</v>
       </c>
       <c r="E81" s="3">
-        <v>490400</v>
+        <v>473100</v>
       </c>
       <c r="F81" s="3">
-        <v>1482000</v>
+        <v>1429800</v>
       </c>
       <c r="G81" s="3">
-        <v>1189000</v>
+        <v>1147200</v>
       </c>
       <c r="H81" s="3">
-        <v>560000</v>
+        <v>540300</v>
       </c>
       <c r="I81" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="J81" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K81" s="3">
         <v>-160000</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>261900</v>
+        <v>252700</v>
       </c>
       <c r="E89" s="3">
-        <v>1131300</v>
+        <v>1091500</v>
       </c>
       <c r="F89" s="3">
-        <v>793400</v>
+        <v>765500</v>
       </c>
       <c r="G89" s="3">
-        <v>761500</v>
+        <v>734700</v>
       </c>
       <c r="H89" s="3">
-        <v>858500</v>
+        <v>828300</v>
       </c>
       <c r="I89" s="3">
-        <v>485500</v>
+        <v>468400</v>
       </c>
       <c r="J89" s="3">
-        <v>79200</v>
+        <v>76400</v>
       </c>
       <c r="K89" s="3">
         <v>612600</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-366600</v>
+        <v>-353700</v>
       </c>
       <c r="E91" s="3">
-        <v>-426900</v>
+        <v>-411900</v>
       </c>
       <c r="F91" s="3">
-        <v>-333300</v>
+        <v>-321600</v>
       </c>
       <c r="G91" s="3">
-        <v>-327100</v>
+        <v>-315500</v>
       </c>
       <c r="H91" s="3">
-        <v>-246700</v>
+        <v>-238000</v>
       </c>
       <c r="I91" s="3">
-        <v>-305700</v>
+        <v>-294900</v>
       </c>
       <c r="J91" s="3">
-        <v>-154100</v>
+        <v>-148700</v>
       </c>
       <c r="K91" s="3">
         <v>-249400</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-449000</v>
+        <v>-433200</v>
       </c>
       <c r="E94" s="3">
-        <v>-521900</v>
+        <v>-503500</v>
       </c>
       <c r="F94" s="3">
-        <v>-347400</v>
+        <v>-335200</v>
       </c>
       <c r="G94" s="3">
-        <v>-302700</v>
+        <v>-292100</v>
       </c>
       <c r="H94" s="3">
-        <v>-290200</v>
+        <v>-280000</v>
       </c>
       <c r="I94" s="3">
-        <v>-303800</v>
+        <v>-293100</v>
       </c>
       <c r="J94" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="K94" s="3">
         <v>-292800</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="E100" s="3">
-        <v>-405500</v>
+        <v>-391200</v>
       </c>
       <c r="F100" s="3">
-        <v>-92400</v>
+        <v>-89200</v>
       </c>
       <c r="G100" s="3">
-        <v>49100</v>
+        <v>47400</v>
       </c>
       <c r="H100" s="3">
-        <v>-183000</v>
+        <v>-176600</v>
       </c>
       <c r="I100" s="3">
-        <v>-211700</v>
+        <v>-204200</v>
       </c>
       <c r="J100" s="3">
-        <v>124000</v>
+        <v>119600</v>
       </c>
       <c r="K100" s="3">
         <v>-292100</v>
@@ -4377,25 +4377,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="E101" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
       <c r="F101" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>-18600</v>
+        <v>-18000</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="J101" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-181600</v>
+        <v>-175200</v>
       </c>
       <c r="E102" s="3">
-        <v>250300</v>
+        <v>241500</v>
       </c>
       <c r="F102" s="3">
-        <v>349500</v>
+        <v>337200</v>
       </c>
       <c r="G102" s="3">
-        <v>489300</v>
+        <v>472000</v>
       </c>
       <c r="H102" s="3">
-        <v>383200</v>
+        <v>369700</v>
       </c>
       <c r="I102" s="3">
-        <v>-22800</v>
+        <v>-22000</v>
       </c>
       <c r="J102" s="3">
-        <v>205900</v>
+        <v>198700</v>
       </c>
       <c r="K102" s="3">
         <v>27900</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4051700</v>
+        <v>3791300</v>
       </c>
       <c r="E8" s="3">
-        <v>4734600</v>
+        <v>4430300</v>
       </c>
       <c r="F8" s="3">
-        <v>5178600</v>
+        <v>4845800</v>
       </c>
       <c r="G8" s="3">
-        <v>4166600</v>
+        <v>3898800</v>
       </c>
       <c r="H8" s="3">
-        <v>3167400</v>
+        <v>2963900</v>
       </c>
       <c r="I8" s="3">
-        <v>2843400</v>
+        <v>2660700</v>
       </c>
       <c r="J8" s="3">
-        <v>1354900</v>
+        <v>1267800</v>
       </c>
       <c r="K8" s="3">
         <v>1661200</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2948700</v>
+        <v>2759200</v>
       </c>
       <c r="E9" s="3">
-        <v>3363600</v>
+        <v>3147500</v>
       </c>
       <c r="F9" s="3">
-        <v>3085300</v>
+        <v>2887100</v>
       </c>
       <c r="G9" s="3">
-        <v>2506600</v>
+        <v>2345500</v>
       </c>
       <c r="H9" s="3">
-        <v>2394600</v>
+        <v>2240700</v>
       </c>
       <c r="I9" s="3">
-        <v>2305200</v>
+        <v>2157000</v>
       </c>
       <c r="J9" s="3">
-        <v>1364600</v>
+        <v>1276900</v>
       </c>
       <c r="K9" s="3">
         <v>1583900</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1103000</v>
+        <v>1032100</v>
       </c>
       <c r="E10" s="3">
-        <v>1371000</v>
+        <v>1282900</v>
       </c>
       <c r="F10" s="3">
-        <v>2093200</v>
+        <v>1958700</v>
       </c>
       <c r="G10" s="3">
-        <v>1660000</v>
+        <v>1553300</v>
       </c>
       <c r="H10" s="3">
-        <v>772800</v>
+        <v>723200</v>
       </c>
       <c r="I10" s="3">
-        <v>538200</v>
+        <v>503600</v>
       </c>
       <c r="J10" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="K10" s="3">
         <v>77400</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
-        <v>306300</v>
+        <v>286600</v>
       </c>
       <c r="F14" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G14" s="3">
-        <v>94700</v>
+        <v>88600</v>
       </c>
       <c r="H14" s="3">
-        <v>23700</v>
+        <v>22200</v>
       </c>
       <c r="I14" s="3">
-        <v>55400</v>
+        <v>51800</v>
       </c>
       <c r="J14" s="3">
-        <v>-16100</v>
+        <v>-15000</v>
       </c>
       <c r="K14" s="3">
         <v>201200</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2963400</v>
+        <v>2773000</v>
       </c>
       <c r="E17" s="3">
-        <v>3674900</v>
+        <v>3438700</v>
       </c>
       <c r="F17" s="3">
-        <v>3106900</v>
+        <v>2907300</v>
       </c>
       <c r="G17" s="3">
-        <v>2613700</v>
+        <v>2445700</v>
       </c>
       <c r="H17" s="3">
-        <v>2435400</v>
+        <v>2278900</v>
       </c>
       <c r="I17" s="3">
-        <v>2372100</v>
+        <v>2219700</v>
       </c>
       <c r="J17" s="3">
-        <v>1358000</v>
+        <v>1270700</v>
       </c>
       <c r="K17" s="3">
         <v>1795300</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1088300</v>
+        <v>1018400</v>
       </c>
       <c r="E18" s="3">
-        <v>1059700</v>
+        <v>991600</v>
       </c>
       <c r="F18" s="3">
-        <v>2071700</v>
+        <v>1938500</v>
       </c>
       <c r="G18" s="3">
-        <v>1552900</v>
+        <v>1453100</v>
       </c>
       <c r="H18" s="3">
-        <v>732000</v>
+        <v>685000</v>
       </c>
       <c r="I18" s="3">
-        <v>471300</v>
+        <v>441000</v>
       </c>
       <c r="J18" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="K18" s="3">
         <v>-134100</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16500</v>
+        <v>-15500</v>
       </c>
       <c r="E20" s="3">
-        <v>-270500</v>
+        <v>-253100</v>
       </c>
       <c r="F20" s="3">
-        <v>-57900</v>
+        <v>-54100</v>
       </c>
       <c r="G20" s="3">
-        <v>-146400</v>
+        <v>-137000</v>
       </c>
       <c r="H20" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I20" s="3">
-        <v>-356700</v>
+        <v>-333700</v>
       </c>
       <c r="J20" s="3">
-        <v>-79800</v>
+        <v>-74600</v>
       </c>
       <c r="K20" s="3">
         <v>104800</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1257400</v>
+        <v>1176600</v>
       </c>
       <c r="E21" s="3">
-        <v>829400</v>
+        <v>776100</v>
       </c>
       <c r="F21" s="3">
-        <v>2232400</v>
+        <v>2089000</v>
       </c>
       <c r="G21" s="3">
-        <v>1447100</v>
+        <v>1354100</v>
       </c>
       <c r="H21" s="3">
-        <v>933200</v>
+        <v>873200</v>
       </c>
       <c r="I21" s="3">
-        <v>193200</v>
+        <v>180800</v>
       </c>
       <c r="J21" s="3">
-        <v>85600</v>
+        <v>80100</v>
       </c>
       <c r="K21" s="3">
         <v>-2900</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37300</v>
+        <v>34900</v>
       </c>
       <c r="E22" s="3">
-        <v>30800</v>
+        <v>28800</v>
       </c>
       <c r="F22" s="3">
-        <v>34400</v>
+        <v>32200</v>
       </c>
       <c r="G22" s="3">
-        <v>42200</v>
+        <v>39500</v>
       </c>
       <c r="H22" s="3">
-        <v>56700</v>
+        <v>53000</v>
       </c>
       <c r="I22" s="3">
-        <v>56400</v>
+        <v>52800</v>
       </c>
       <c r="J22" s="3">
-        <v>50300</v>
+        <v>47100</v>
       </c>
       <c r="K22" s="3">
         <v>70100</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1034500</v>
+        <v>968000</v>
       </c>
       <c r="E23" s="3">
-        <v>758400</v>
+        <v>709700</v>
       </c>
       <c r="F23" s="3">
-        <v>1979400</v>
+        <v>1852200</v>
       </c>
       <c r="G23" s="3">
-        <v>1364300</v>
+        <v>1276600</v>
       </c>
       <c r="H23" s="3">
-        <v>678300</v>
+        <v>634700</v>
       </c>
       <c r="I23" s="3">
-        <v>58300</v>
+        <v>54500</v>
       </c>
       <c r="J23" s="3">
-        <v>-133100</v>
+        <v>-124600</v>
       </c>
       <c r="K23" s="3">
         <v>-99400</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>324000</v>
+        <v>303200</v>
       </c>
       <c r="E24" s="3">
-        <v>270400</v>
+        <v>253000</v>
       </c>
       <c r="F24" s="3">
-        <v>521800</v>
+        <v>488300</v>
       </c>
       <c r="G24" s="3">
-        <v>161600</v>
+        <v>151200</v>
       </c>
       <c r="H24" s="3">
-        <v>118100</v>
+        <v>110500</v>
       </c>
       <c r="I24" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="J24" s="3">
-        <v>-123300</v>
+        <v>-115400</v>
       </c>
       <c r="K24" s="3">
         <v>62100</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>710500</v>
+        <v>664800</v>
       </c>
       <c r="E26" s="3">
-        <v>488000</v>
+        <v>456700</v>
       </c>
       <c r="F26" s="3">
-        <v>1457600</v>
+        <v>1363900</v>
       </c>
       <c r="G26" s="3">
-        <v>1202700</v>
+        <v>1125400</v>
       </c>
       <c r="H26" s="3">
-        <v>560200</v>
+        <v>524200</v>
       </c>
       <c r="I26" s="3">
-        <v>34700</v>
+        <v>32500</v>
       </c>
       <c r="J26" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="K26" s="3">
         <v>-161400</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>691800</v>
+        <v>647300</v>
       </c>
       <c r="E27" s="3">
-        <v>473100</v>
+        <v>442700</v>
       </c>
       <c r="F27" s="3">
-        <v>1429800</v>
+        <v>1337900</v>
       </c>
       <c r="G27" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="H27" s="3">
-        <v>540300</v>
+        <v>505600</v>
       </c>
       <c r="I27" s="3">
-        <v>18200</v>
+        <v>17100</v>
       </c>
       <c r="J27" s="3">
-        <v>-14700</v>
+        <v>-13700</v>
       </c>
       <c r="K27" s="3">
         <v>-160000</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="E32" s="3">
-        <v>270500</v>
+        <v>253100</v>
       </c>
       <c r="F32" s="3">
-        <v>57900</v>
+        <v>54100</v>
       </c>
       <c r="G32" s="3">
-        <v>146400</v>
+        <v>137000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="I32" s="3">
-        <v>356700</v>
+        <v>333700</v>
       </c>
       <c r="J32" s="3">
-        <v>79800</v>
+        <v>74600</v>
       </c>
       <c r="K32" s="3">
         <v>-104800</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>691800</v>
+        <v>647300</v>
       </c>
       <c r="E33" s="3">
-        <v>473100</v>
+        <v>442700</v>
       </c>
       <c r="F33" s="3">
-        <v>1429800</v>
+        <v>1337900</v>
       </c>
       <c r="G33" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="H33" s="3">
-        <v>540300</v>
+        <v>505600</v>
       </c>
       <c r="I33" s="3">
-        <v>18200</v>
+        <v>17100</v>
       </c>
       <c r="J33" s="3">
-        <v>-14700</v>
+        <v>-13700</v>
       </c>
       <c r="K33" s="3">
         <v>-160000</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>691800</v>
+        <v>647300</v>
       </c>
       <c r="E35" s="3">
-        <v>473100</v>
+        <v>442700</v>
       </c>
       <c r="F35" s="3">
-        <v>1429800</v>
+        <v>1337900</v>
       </c>
       <c r="G35" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="H35" s="3">
-        <v>540300</v>
+        <v>505600</v>
       </c>
       <c r="I35" s="3">
-        <v>18200</v>
+        <v>17100</v>
       </c>
       <c r="J35" s="3">
-        <v>-14700</v>
+        <v>-13700</v>
       </c>
       <c r="K35" s="3">
         <v>-160000</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1568700</v>
+        <v>1467800</v>
       </c>
       <c r="E41" s="3">
-        <v>1743900</v>
+        <v>1631800</v>
       </c>
       <c r="F41" s="3">
-        <v>1502400</v>
+        <v>1405800</v>
       </c>
       <c r="G41" s="3">
-        <v>1165200</v>
+        <v>1090300</v>
       </c>
       <c r="H41" s="3">
-        <v>693200</v>
+        <v>648600</v>
       </c>
       <c r="I41" s="3">
-        <v>323500</v>
+        <v>302700</v>
       </c>
       <c r="J41" s="3">
-        <v>343400</v>
+        <v>321300</v>
       </c>
       <c r="K41" s="3">
         <v>158300</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>514000</v>
+        <v>481000</v>
       </c>
       <c r="E43" s="3">
-        <v>528400</v>
+        <v>494500</v>
       </c>
       <c r="F43" s="3">
-        <v>477000</v>
+        <v>446400</v>
       </c>
       <c r="G43" s="3">
-        <v>405900</v>
+        <v>379800</v>
       </c>
       <c r="H43" s="3">
-        <v>278200</v>
+        <v>260300</v>
       </c>
       <c r="I43" s="3">
-        <v>290200</v>
+        <v>271600</v>
       </c>
       <c r="J43" s="3">
-        <v>315300</v>
+        <v>295100</v>
       </c>
       <c r="K43" s="3">
         <v>456600</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1554700</v>
+        <v>1454800</v>
       </c>
       <c r="E44" s="3">
-        <v>1443900</v>
+        <v>1351100</v>
       </c>
       <c r="F44" s="3">
-        <v>1694700</v>
+        <v>1585800</v>
       </c>
       <c r="G44" s="3">
-        <v>1436500</v>
+        <v>1344200</v>
       </c>
       <c r="H44" s="3">
-        <v>968500</v>
+        <v>906300</v>
       </c>
       <c r="I44" s="3">
-        <v>892500</v>
+        <v>835200</v>
       </c>
       <c r="J44" s="3">
-        <v>818100</v>
+        <v>765500</v>
       </c>
       <c r="K44" s="3">
         <v>328900</v>
@@ -2155,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2170,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3637400</v>
+        <v>3403600</v>
       </c>
       <c r="E46" s="3">
-        <v>3732300</v>
+        <v>3492400</v>
       </c>
       <c r="F46" s="3">
-        <v>3674100</v>
+        <v>3438000</v>
       </c>
       <c r="G46" s="3">
-        <v>3007600</v>
+        <v>2814300</v>
       </c>
       <c r="H46" s="3">
-        <v>1939900</v>
+        <v>1815200</v>
       </c>
       <c r="I46" s="3">
-        <v>1506200</v>
+        <v>1409400</v>
       </c>
       <c r="J46" s="3">
-        <v>1483700</v>
+        <v>1388400</v>
       </c>
       <c r="K46" s="3">
         <v>943800</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>508000</v>
+        <v>475300</v>
       </c>
       <c r="E47" s="3">
-        <v>474700</v>
+        <v>444200</v>
       </c>
       <c r="F47" s="3">
-        <v>425400</v>
+        <v>398000</v>
       </c>
       <c r="G47" s="3">
-        <v>370900</v>
+        <v>347000</v>
       </c>
       <c r="H47" s="3">
-        <v>351800</v>
+        <v>329200</v>
       </c>
       <c r="I47" s="3">
-        <v>271900</v>
+        <v>254400</v>
       </c>
       <c r="J47" s="3">
-        <v>259300</v>
+        <v>242700</v>
       </c>
       <c r="K47" s="3">
         <v>251400</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3999500</v>
+        <v>3742500</v>
       </c>
       <c r="E48" s="3">
-        <v>3610600</v>
+        <v>3378500</v>
       </c>
       <c r="F48" s="3">
-        <v>3543300</v>
+        <v>3315600</v>
       </c>
       <c r="G48" s="3">
-        <v>3505800</v>
+        <v>3280400</v>
       </c>
       <c r="H48" s="3">
-        <v>3812300</v>
+        <v>3567300</v>
       </c>
       <c r="I48" s="3">
-        <v>3329900</v>
+        <v>3115900</v>
       </c>
       <c r="J48" s="3">
-        <v>3267000</v>
+        <v>3057100</v>
       </c>
       <c r="K48" s="3">
         <v>3388600</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>459800</v>
+        <v>430300</v>
       </c>
       <c r="E49" s="3">
-        <v>444800</v>
+        <v>416300</v>
       </c>
       <c r="F49" s="3">
-        <v>401600</v>
+        <v>375800</v>
       </c>
       <c r="G49" s="3">
-        <v>412500</v>
+        <v>386000</v>
       </c>
       <c r="H49" s="3">
-        <v>481400</v>
+        <v>450400</v>
       </c>
       <c r="I49" s="3">
-        <v>394600</v>
+        <v>369300</v>
       </c>
       <c r="J49" s="3">
-        <v>396900</v>
+        <v>371400</v>
       </c>
       <c r="K49" s="3">
         <v>427900</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>525300</v>
+        <v>491500</v>
       </c>
       <c r="E52" s="3">
-        <v>545500</v>
+        <v>510400</v>
       </c>
       <c r="F52" s="3">
-        <v>387100</v>
+        <v>362200</v>
       </c>
       <c r="G52" s="3">
-        <v>423600</v>
+        <v>396300</v>
       </c>
       <c r="H52" s="3">
-        <v>335800</v>
+        <v>314200</v>
       </c>
       <c r="I52" s="3">
-        <v>316000</v>
+        <v>295700</v>
       </c>
       <c r="J52" s="3">
-        <v>292000</v>
+        <v>273300</v>
       </c>
       <c r="K52" s="3">
         <v>262800</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9130000</v>
+        <v>8543200</v>
       </c>
       <c r="E54" s="3">
-        <v>8807900</v>
+        <v>8241800</v>
       </c>
       <c r="F54" s="3">
-        <v>8431500</v>
+        <v>7889600</v>
       </c>
       <c r="G54" s="3">
-        <v>7720300</v>
+        <v>7224100</v>
       </c>
       <c r="H54" s="3">
-        <v>6921200</v>
+        <v>6476400</v>
       </c>
       <c r="I54" s="3">
-        <v>5818700</v>
+        <v>5444700</v>
       </c>
       <c r="J54" s="3">
-        <v>5699000</v>
+        <v>5332800</v>
       </c>
       <c r="K54" s="3">
         <v>5274600</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>828500</v>
+        <v>775300</v>
       </c>
       <c r="E57" s="3">
-        <v>872900</v>
+        <v>816800</v>
       </c>
       <c r="F57" s="3">
-        <v>854600</v>
+        <v>799600</v>
       </c>
       <c r="G57" s="3">
-        <v>760400</v>
+        <v>711500</v>
       </c>
       <c r="H57" s="3">
-        <v>680400</v>
+        <v>636700</v>
       </c>
       <c r="I57" s="3">
-        <v>660100</v>
+        <v>617700</v>
       </c>
       <c r="J57" s="3">
-        <v>639800</v>
+        <v>598600</v>
       </c>
       <c r="K57" s="3">
         <v>488000</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="E58" s="3">
-        <v>12100</v>
+        <v>11400</v>
       </c>
       <c r="F58" s="3">
-        <v>383100</v>
+        <v>358500</v>
       </c>
       <c r="G58" s="3">
-        <v>56900</v>
+        <v>53300</v>
       </c>
       <c r="H58" s="3">
-        <v>79100</v>
+        <v>74100</v>
       </c>
       <c r="I58" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="J58" s="3">
-        <v>319300</v>
+        <v>298800</v>
       </c>
       <c r="K58" s="3">
         <v>384300</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>240000</v>
+        <v>224600</v>
       </c>
       <c r="E59" s="3">
-        <v>297500</v>
+        <v>278400</v>
       </c>
       <c r="F59" s="3">
-        <v>106500</v>
+        <v>99700</v>
       </c>
       <c r="G59" s="3">
-        <v>189400</v>
+        <v>177300</v>
       </c>
       <c r="H59" s="3">
-        <v>228200</v>
+        <v>213500</v>
       </c>
       <c r="I59" s="3">
-        <v>156200</v>
+        <v>146100</v>
       </c>
       <c r="J59" s="3">
-        <v>212900</v>
+        <v>199200</v>
       </c>
       <c r="K59" s="3">
         <v>36500</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1082000</v>
+        <v>1012500</v>
       </c>
       <c r="E60" s="3">
-        <v>1182500</v>
+        <v>1106500</v>
       </c>
       <c r="F60" s="3">
-        <v>1344100</v>
+        <v>1257800</v>
       </c>
       <c r="G60" s="3">
-        <v>1006700</v>
+        <v>942000</v>
       </c>
       <c r="H60" s="3">
-        <v>987700</v>
+        <v>924200</v>
       </c>
       <c r="I60" s="3">
-        <v>824800</v>
+        <v>771800</v>
       </c>
       <c r="J60" s="3">
-        <v>1171900</v>
+        <v>1096600</v>
       </c>
       <c r="K60" s="3">
         <v>908800</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1209700</v>
+        <v>1131900</v>
       </c>
       <c r="E61" s="3">
-        <v>1172600</v>
+        <v>1097200</v>
       </c>
       <c r="F61" s="3">
-        <v>623000</v>
+        <v>582900</v>
       </c>
       <c r="G61" s="3">
-        <v>1020200</v>
+        <v>954600</v>
       </c>
       <c r="H61" s="3">
-        <v>1458300</v>
+        <v>1364600</v>
       </c>
       <c r="I61" s="3">
-        <v>1380000</v>
+        <v>1291300</v>
       </c>
       <c r="J61" s="3">
-        <v>1262700</v>
+        <v>1181600</v>
       </c>
       <c r="K61" s="3">
         <v>1137600</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1693900</v>
+        <v>1585100</v>
       </c>
       <c r="E62" s="3">
-        <v>1769700</v>
+        <v>1656000</v>
       </c>
       <c r="F62" s="3">
-        <v>1666600</v>
+        <v>1559500</v>
       </c>
       <c r="G62" s="3">
-        <v>1622300</v>
+        <v>1518000</v>
       </c>
       <c r="H62" s="3">
-        <v>1825700</v>
+        <v>1708400</v>
       </c>
       <c r="I62" s="3">
-        <v>1821300</v>
+        <v>1704200</v>
       </c>
       <c r="J62" s="3">
-        <v>1522700</v>
+        <v>1424800</v>
       </c>
       <c r="K62" s="3">
         <v>1692500</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4151700</v>
+        <v>3884800</v>
       </c>
       <c r="E66" s="3">
-        <v>4205900</v>
+        <v>3935600</v>
       </c>
       <c r="F66" s="3">
-        <v>3710000</v>
+        <v>3471500</v>
       </c>
       <c r="G66" s="3">
-        <v>3777900</v>
+        <v>3535100</v>
       </c>
       <c r="H66" s="3">
-        <v>4351700</v>
+        <v>4072000</v>
       </c>
       <c r="I66" s="3">
-        <v>4110600</v>
+        <v>3846400</v>
       </c>
       <c r="J66" s="3">
-        <v>4029200</v>
+        <v>3770300</v>
       </c>
       <c r="K66" s="3">
         <v>3797100</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2407900</v>
+        <v>2253200</v>
       </c>
       <c r="E72" s="3">
-        <v>3355800</v>
+        <v>3140100</v>
       </c>
       <c r="F72" s="3">
-        <v>1715300</v>
+        <v>1605100</v>
       </c>
       <c r="G72" s="3">
-        <v>2206700</v>
+        <v>2064900</v>
       </c>
       <c r="H72" s="3">
-        <v>228600</v>
+        <v>213900</v>
       </c>
       <c r="I72" s="3">
-        <v>-632800</v>
+        <v>-592100</v>
       </c>
       <c r="J72" s="3">
-        <v>-671100</v>
+        <v>-628000</v>
       </c>
       <c r="K72" s="3">
         <v>-675700</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4978300</v>
+        <v>4658400</v>
       </c>
       <c r="E76" s="3">
-        <v>4602000</v>
+        <v>4306200</v>
       </c>
       <c r="F76" s="3">
-        <v>4721500</v>
+        <v>4418100</v>
       </c>
       <c r="G76" s="3">
-        <v>3942400</v>
+        <v>3689000</v>
       </c>
       <c r="H76" s="3">
-        <v>2569500</v>
+        <v>2404300</v>
       </c>
       <c r="I76" s="3">
-        <v>1708100</v>
+        <v>1598400</v>
       </c>
       <c r="J76" s="3">
-        <v>1669800</v>
+        <v>1562500</v>
       </c>
       <c r="K76" s="3">
         <v>1477500</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>691800</v>
+        <v>647300</v>
       </c>
       <c r="E81" s="3">
-        <v>473100</v>
+        <v>442700</v>
       </c>
       <c r="F81" s="3">
-        <v>1429800</v>
+        <v>1337900</v>
       </c>
       <c r="G81" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="H81" s="3">
-        <v>540300</v>
+        <v>505600</v>
       </c>
       <c r="I81" s="3">
-        <v>18200</v>
+        <v>17100</v>
       </c>
       <c r="J81" s="3">
-        <v>-14700</v>
+        <v>-13700</v>
       </c>
       <c r="K81" s="3">
         <v>-160000</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>252700</v>
+        <v>236400</v>
       </c>
       <c r="E89" s="3">
-        <v>1091500</v>
+        <v>1021400</v>
       </c>
       <c r="F89" s="3">
-        <v>765500</v>
+        <v>716300</v>
       </c>
       <c r="G89" s="3">
-        <v>734700</v>
+        <v>687500</v>
       </c>
       <c r="H89" s="3">
-        <v>828300</v>
+        <v>775100</v>
       </c>
       <c r="I89" s="3">
-        <v>468400</v>
+        <v>438300</v>
       </c>
       <c r="J89" s="3">
-        <v>76400</v>
+        <v>71500</v>
       </c>
       <c r="K89" s="3">
         <v>612600</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-353700</v>
+        <v>-331000</v>
       </c>
       <c r="E91" s="3">
-        <v>-411900</v>
+        <v>-385400</v>
       </c>
       <c r="F91" s="3">
-        <v>-321600</v>
+        <v>-300900</v>
       </c>
       <c r="G91" s="3">
-        <v>-315500</v>
+        <v>-295300</v>
       </c>
       <c r="H91" s="3">
-        <v>-238000</v>
+        <v>-222700</v>
       </c>
       <c r="I91" s="3">
-        <v>-294900</v>
+        <v>-276000</v>
       </c>
       <c r="J91" s="3">
-        <v>-148700</v>
+        <v>-139200</v>
       </c>
       <c r="K91" s="3">
         <v>-249400</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-433200</v>
+        <v>-405300</v>
       </c>
       <c r="E94" s="3">
-        <v>-503500</v>
+        <v>-471100</v>
       </c>
       <c r="F94" s="3">
-        <v>-335200</v>
+        <v>-313600</v>
       </c>
       <c r="G94" s="3">
-        <v>-292100</v>
+        <v>-273300</v>
       </c>
       <c r="H94" s="3">
-        <v>-280000</v>
+        <v>-262000</v>
       </c>
       <c r="I94" s="3">
-        <v>-293100</v>
+        <v>-274200</v>
       </c>
       <c r="J94" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="K94" s="3">
         <v>-292800</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="E100" s="3">
-        <v>-391200</v>
+        <v>-366000</v>
       </c>
       <c r="F100" s="3">
-        <v>-89200</v>
+        <v>-83400</v>
       </c>
       <c r="G100" s="3">
-        <v>47400</v>
+        <v>44400</v>
       </c>
       <c r="H100" s="3">
-        <v>-176600</v>
+        <v>-165200</v>
       </c>
       <c r="I100" s="3">
-        <v>-204200</v>
+        <v>-191100</v>
       </c>
       <c r="J100" s="3">
-        <v>119600</v>
+        <v>111900</v>
       </c>
       <c r="K100" s="3">
         <v>-292100</v>
@@ -4377,25 +4377,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="E101" s="3">
-        <v>44700</v>
+        <v>41800</v>
       </c>
       <c r="F101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-18000</v>
+        <v>-16800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="J101" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-175200</v>
+        <v>-164000</v>
       </c>
       <c r="E102" s="3">
-        <v>241500</v>
+        <v>226000</v>
       </c>
       <c r="F102" s="3">
-        <v>337200</v>
+        <v>315500</v>
       </c>
       <c r="G102" s="3">
-        <v>472000</v>
+        <v>441700</v>
       </c>
       <c r="H102" s="3">
-        <v>369700</v>
+        <v>345900</v>
       </c>
       <c r="I102" s="3">
-        <v>-22000</v>
+        <v>-20500</v>
       </c>
       <c r="J102" s="3">
-        <v>198700</v>
+        <v>185900</v>
       </c>
       <c r="K102" s="3">
         <v>27900</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3791300</v>
+        <v>3512300</v>
       </c>
       <c r="E8" s="3">
-        <v>4430300</v>
+        <v>3640000</v>
       </c>
       <c r="F8" s="3">
-        <v>4845800</v>
+        <v>4253500</v>
       </c>
       <c r="G8" s="3">
-        <v>3898800</v>
+        <v>4652400</v>
       </c>
       <c r="H8" s="3">
-        <v>2963900</v>
+        <v>3743200</v>
       </c>
       <c r="I8" s="3">
-        <v>2660700</v>
+        <v>2845600</v>
       </c>
       <c r="J8" s="3">
+        <v>2554500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1267800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1661200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1587400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1755800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1279600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>945000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2759200</v>
+        <v>2701800</v>
       </c>
       <c r="E9" s="3">
-        <v>3147500</v>
+        <v>2649000</v>
       </c>
       <c r="F9" s="3">
-        <v>2887100</v>
+        <v>3021800</v>
       </c>
       <c r="G9" s="3">
-        <v>2345500</v>
+        <v>2771800</v>
       </c>
       <c r="H9" s="3">
-        <v>2240700</v>
+        <v>2251900</v>
       </c>
       <c r="I9" s="3">
-        <v>2157000</v>
+        <v>2151300</v>
       </c>
       <c r="J9" s="3">
+        <v>2070900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1276900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1583900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1516400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1573800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1242100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>788400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1032100</v>
+        <v>810500</v>
       </c>
       <c r="E10" s="3">
-        <v>1282900</v>
+        <v>991000</v>
       </c>
       <c r="F10" s="3">
-        <v>1958700</v>
+        <v>1231700</v>
       </c>
       <c r="G10" s="3">
-        <v>1553300</v>
+        <v>1880500</v>
       </c>
       <c r="H10" s="3">
-        <v>723200</v>
+        <v>1491300</v>
       </c>
       <c r="I10" s="3">
-        <v>503600</v>
+        <v>694300</v>
       </c>
       <c r="J10" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K10" s="3">
         <v>-9100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>77400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>182100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>156700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,11 +939,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,52 +989,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7800</v>
+        <v>18900</v>
       </c>
       <c r="E14" s="3">
-        <v>286600</v>
+        <v>7400</v>
       </c>
       <c r="F14" s="3">
-        <v>2100</v>
+        <v>275200</v>
       </c>
       <c r="G14" s="3">
-        <v>88600</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="3">
-        <v>22200</v>
+        <v>85100</v>
       </c>
       <c r="I14" s="3">
-        <v>51800</v>
+        <v>21300</v>
       </c>
       <c r="J14" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-15000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>201200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>154400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>222800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-81400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2773000</v>
+        <v>2726200</v>
       </c>
       <c r="E17" s="3">
-        <v>3438700</v>
+        <v>2662300</v>
       </c>
       <c r="F17" s="3">
-        <v>2907300</v>
+        <v>3301400</v>
       </c>
       <c r="G17" s="3">
-        <v>2445700</v>
+        <v>2791200</v>
       </c>
       <c r="H17" s="3">
-        <v>2278900</v>
+        <v>2348100</v>
       </c>
       <c r="I17" s="3">
-        <v>2219700</v>
+        <v>2187900</v>
       </c>
       <c r="J17" s="3">
+        <v>2131100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1270700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1795300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1548400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1735800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1472600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>727500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1018400</v>
+        <v>786100</v>
       </c>
       <c r="E18" s="3">
-        <v>991600</v>
+        <v>977700</v>
       </c>
       <c r="F18" s="3">
-        <v>1938500</v>
+        <v>952100</v>
       </c>
       <c r="G18" s="3">
-        <v>1453100</v>
+        <v>1861100</v>
       </c>
       <c r="H18" s="3">
-        <v>685000</v>
+        <v>1395100</v>
       </c>
       <c r="I18" s="3">
-        <v>441000</v>
+        <v>657600</v>
       </c>
       <c r="J18" s="3">
+        <v>423400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-134100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-193000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>217600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15500</v>
+        <v>-238900</v>
       </c>
       <c r="E20" s="3">
-        <v>-253100</v>
+        <v>-14800</v>
       </c>
       <c r="F20" s="3">
-        <v>-54100</v>
+        <v>-243000</v>
       </c>
       <c r="G20" s="3">
-        <v>-137000</v>
+        <v>-52000</v>
       </c>
       <c r="H20" s="3">
-        <v>2800</v>
+        <v>-131500</v>
       </c>
       <c r="I20" s="3">
-        <v>-333700</v>
+        <v>2600</v>
       </c>
       <c r="J20" s="3">
+        <v>-320400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-74600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>104800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-85200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-76400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1176600</v>
+        <v>580200</v>
       </c>
       <c r="E21" s="3">
-        <v>776100</v>
+        <v>1129600</v>
       </c>
       <c r="F21" s="3">
-        <v>2089000</v>
+        <v>745100</v>
       </c>
       <c r="G21" s="3">
-        <v>1354100</v>
+        <v>2005600</v>
       </c>
       <c r="H21" s="3">
-        <v>873200</v>
+        <v>1300000</v>
       </c>
       <c r="I21" s="3">
-        <v>180800</v>
+        <v>838400</v>
       </c>
       <c r="J21" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K21" s="3">
         <v>80100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>281500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-18700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-103100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>217300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34900</v>
+        <v>33400</v>
       </c>
       <c r="E22" s="3">
-        <v>28800</v>
+        <v>33500</v>
       </c>
       <c r="F22" s="3">
-        <v>32200</v>
+        <v>27700</v>
       </c>
       <c r="G22" s="3">
-        <v>39500</v>
+        <v>30900</v>
       </c>
       <c r="H22" s="3">
-        <v>53000</v>
+        <v>37900</v>
       </c>
       <c r="I22" s="3">
-        <v>52800</v>
+        <v>50900</v>
       </c>
       <c r="J22" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K22" s="3">
         <v>47100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>77100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>78000</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>968000</v>
+        <v>513800</v>
       </c>
       <c r="E23" s="3">
-        <v>709700</v>
+        <v>929400</v>
       </c>
       <c r="F23" s="3">
-        <v>1852200</v>
+        <v>681400</v>
       </c>
       <c r="G23" s="3">
-        <v>1276600</v>
+        <v>1778300</v>
       </c>
       <c r="H23" s="3">
-        <v>634700</v>
+        <v>1225700</v>
       </c>
       <c r="I23" s="3">
-        <v>54500</v>
+        <v>609400</v>
       </c>
       <c r="J23" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-124600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-99400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-142300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-347400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>208700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>303200</v>
+        <v>170500</v>
       </c>
       <c r="E24" s="3">
-        <v>253000</v>
+        <v>291100</v>
       </c>
       <c r="F24" s="3">
-        <v>488300</v>
+        <v>242900</v>
       </c>
       <c r="G24" s="3">
-        <v>151200</v>
+        <v>468800</v>
       </c>
       <c r="H24" s="3">
-        <v>110500</v>
+        <v>145200</v>
       </c>
       <c r="I24" s="3">
-        <v>22000</v>
+        <v>106100</v>
       </c>
       <c r="J24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-115400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-166600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-27600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>664800</v>
+        <v>343400</v>
       </c>
       <c r="E26" s="3">
-        <v>456700</v>
+        <v>638300</v>
       </c>
       <c r="F26" s="3">
-        <v>1363900</v>
+        <v>438400</v>
       </c>
       <c r="G26" s="3">
-        <v>1125400</v>
+        <v>1309500</v>
       </c>
       <c r="H26" s="3">
-        <v>524200</v>
+        <v>1080500</v>
       </c>
       <c r="I26" s="3">
-        <v>32500</v>
+        <v>503300</v>
       </c>
       <c r="J26" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-161400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-319800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>168900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>647300</v>
+        <v>330000</v>
       </c>
       <c r="E27" s="3">
-        <v>442700</v>
+        <v>621500</v>
       </c>
       <c r="F27" s="3">
-        <v>1337900</v>
+        <v>425000</v>
       </c>
       <c r="G27" s="3">
-        <v>1073500</v>
+        <v>1284500</v>
       </c>
       <c r="H27" s="3">
-        <v>505600</v>
+        <v>1030600</v>
       </c>
       <c r="I27" s="3">
-        <v>17100</v>
+        <v>485400</v>
       </c>
       <c r="J27" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-160000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-319800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>179500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15500</v>
+        <v>238900</v>
       </c>
       <c r="E32" s="3">
-        <v>253100</v>
+        <v>14800</v>
       </c>
       <c r="F32" s="3">
-        <v>54100</v>
+        <v>243000</v>
       </c>
       <c r="G32" s="3">
-        <v>137000</v>
+        <v>52000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2800</v>
+        <v>131500</v>
       </c>
       <c r="I32" s="3">
-        <v>333700</v>
+        <v>-2600</v>
       </c>
       <c r="J32" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K32" s="3">
         <v>74600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-104800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>85200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>76400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>647300</v>
+        <v>330000</v>
       </c>
       <c r="E33" s="3">
-        <v>442700</v>
+        <v>621500</v>
       </c>
       <c r="F33" s="3">
-        <v>1337900</v>
+        <v>425000</v>
       </c>
       <c r="G33" s="3">
-        <v>1073500</v>
+        <v>1284500</v>
       </c>
       <c r="H33" s="3">
-        <v>505600</v>
+        <v>1030600</v>
       </c>
       <c r="I33" s="3">
-        <v>17100</v>
+        <v>485400</v>
       </c>
       <c r="J33" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-160000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-319800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>179500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>647300</v>
+        <v>330000</v>
       </c>
       <c r="E35" s="3">
-        <v>442700</v>
+        <v>621500</v>
       </c>
       <c r="F35" s="3">
-        <v>1337900</v>
+        <v>425000</v>
       </c>
       <c r="G35" s="3">
-        <v>1073500</v>
+        <v>1284500</v>
       </c>
       <c r="H35" s="3">
-        <v>505600</v>
+        <v>1030600</v>
       </c>
       <c r="I35" s="3">
-        <v>17100</v>
+        <v>485400</v>
       </c>
       <c r="J35" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-160000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-319800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>179500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1467800</v>
+        <v>1348700</v>
       </c>
       <c r="E41" s="3">
-        <v>1631800</v>
+        <v>1409300</v>
       </c>
       <c r="F41" s="3">
-        <v>1405800</v>
+        <v>1566700</v>
       </c>
       <c r="G41" s="3">
-        <v>1090300</v>
+        <v>1349700</v>
       </c>
       <c r="H41" s="3">
-        <v>648600</v>
+        <v>1046800</v>
       </c>
       <c r="I41" s="3">
-        <v>302700</v>
+        <v>622700</v>
       </c>
       <c r="J41" s="3">
+        <v>290600</v>
+      </c>
+      <c r="K41" s="3">
         <v>321300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>158300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>139400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>135700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>434300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2058,107 +2148,116 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>481000</v>
+        <v>429500</v>
       </c>
       <c r="E43" s="3">
-        <v>494500</v>
+        <v>461800</v>
       </c>
       <c r="F43" s="3">
-        <v>446400</v>
+        <v>474700</v>
       </c>
       <c r="G43" s="3">
-        <v>379800</v>
+        <v>428600</v>
       </c>
       <c r="H43" s="3">
-        <v>260300</v>
+        <v>364600</v>
       </c>
       <c r="I43" s="3">
-        <v>271600</v>
+        <v>249900</v>
       </c>
       <c r="J43" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K43" s="3">
         <v>295100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>456600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>434600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>422000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>389000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>346200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1454800</v>
+        <v>1364600</v>
       </c>
       <c r="E44" s="3">
-        <v>1351100</v>
+        <v>1396700</v>
       </c>
       <c r="F44" s="3">
-        <v>1585800</v>
+        <v>1297100</v>
       </c>
       <c r="G44" s="3">
-        <v>1344200</v>
+        <v>1522500</v>
       </c>
       <c r="H44" s="3">
-        <v>906300</v>
+        <v>1290500</v>
       </c>
       <c r="I44" s="3">
-        <v>835200</v>
+        <v>870100</v>
       </c>
       <c r="J44" s="3">
+        <v>801800</v>
+      </c>
+      <c r="K44" s="3">
         <v>765500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>328900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>281200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>232000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>197200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>38700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="F45" s="3">
+        <v>14500</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2169,205 +2268,220 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>84300</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3403600</v>
+        <v>3142700</v>
       </c>
       <c r="E46" s="3">
-        <v>3492400</v>
+        <v>3267800</v>
       </c>
       <c r="F46" s="3">
-        <v>3438000</v>
+        <v>3353100</v>
       </c>
       <c r="G46" s="3">
-        <v>2814300</v>
+        <v>3300800</v>
       </c>
       <c r="H46" s="3">
-        <v>1815200</v>
+        <v>2702000</v>
       </c>
       <c r="I46" s="3">
-        <v>1409400</v>
+        <v>1742800</v>
       </c>
       <c r="J46" s="3">
+        <v>1353200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1388400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>943800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>939500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>789700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1020500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>440200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>475300</v>
+        <v>479400</v>
       </c>
       <c r="E47" s="3">
-        <v>444200</v>
+        <v>456400</v>
       </c>
       <c r="F47" s="3">
-        <v>398000</v>
+        <v>426400</v>
       </c>
       <c r="G47" s="3">
-        <v>347000</v>
+        <v>382200</v>
       </c>
       <c r="H47" s="3">
-        <v>329200</v>
+        <v>333200</v>
       </c>
       <c r="I47" s="3">
-        <v>254400</v>
+        <v>316000</v>
       </c>
       <c r="J47" s="3">
+        <v>244200</v>
+      </c>
+      <c r="K47" s="3">
         <v>242700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>251400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>197500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>166300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>174400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>143600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3742500</v>
+        <v>3992200</v>
       </c>
       <c r="E48" s="3">
-        <v>3378500</v>
+        <v>3593100</v>
       </c>
       <c r="F48" s="3">
-        <v>3315600</v>
+        <v>3243700</v>
       </c>
       <c r="G48" s="3">
-        <v>3280400</v>
+        <v>3183300</v>
       </c>
       <c r="H48" s="3">
-        <v>3567300</v>
+        <v>3149500</v>
       </c>
       <c r="I48" s="3">
-        <v>3115900</v>
+        <v>3425000</v>
       </c>
       <c r="J48" s="3">
+        <v>2991500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3057100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3388600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3532300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3384000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3620500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1556800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>430300</v>
+        <v>430400</v>
       </c>
       <c r="E49" s="3">
-        <v>416300</v>
+        <v>413100</v>
       </c>
       <c r="F49" s="3">
-        <v>375800</v>
+        <v>399600</v>
       </c>
       <c r="G49" s="3">
-        <v>386000</v>
+        <v>360800</v>
       </c>
       <c r="H49" s="3">
-        <v>450400</v>
+        <v>370600</v>
       </c>
       <c r="I49" s="3">
-        <v>369300</v>
+        <v>432500</v>
       </c>
       <c r="J49" s="3">
+        <v>354500</v>
+      </c>
+      <c r="K49" s="3">
         <v>371400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>427900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>465500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>420700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>453400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>53500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>491500</v>
+        <v>573500</v>
       </c>
       <c r="E52" s="3">
-        <v>510400</v>
+        <v>471900</v>
       </c>
       <c r="F52" s="3">
-        <v>362200</v>
+        <v>490000</v>
       </c>
       <c r="G52" s="3">
-        <v>396300</v>
+        <v>347800</v>
       </c>
       <c r="H52" s="3">
-        <v>314200</v>
+        <v>380500</v>
       </c>
       <c r="I52" s="3">
-        <v>295700</v>
+        <v>301700</v>
       </c>
       <c r="J52" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K52" s="3">
         <v>273300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>262800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>248400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>243300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>227000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>190200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8543200</v>
+        <v>8618200</v>
       </c>
       <c r="E54" s="3">
-        <v>8241800</v>
+        <v>8202200</v>
       </c>
       <c r="F54" s="3">
-        <v>7889600</v>
+        <v>7912800</v>
       </c>
       <c r="G54" s="3">
-        <v>7224100</v>
+        <v>7574800</v>
       </c>
       <c r="H54" s="3">
-        <v>6476400</v>
+        <v>6935800</v>
       </c>
       <c r="I54" s="3">
-        <v>5444700</v>
+        <v>6217900</v>
       </c>
       <c r="J54" s="3">
+        <v>5227400</v>
+      </c>
+      <c r="K54" s="3">
         <v>5332800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5274600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5383200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5004000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5495800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2384400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775300</v>
+        <v>809600</v>
       </c>
       <c r="E57" s="3">
-        <v>816800</v>
+        <v>744400</v>
       </c>
       <c r="F57" s="3">
-        <v>799600</v>
+        <v>784200</v>
       </c>
       <c r="G57" s="3">
-        <v>711500</v>
+        <v>767700</v>
       </c>
       <c r="H57" s="3">
-        <v>636700</v>
+        <v>683100</v>
       </c>
       <c r="I57" s="3">
-        <v>617700</v>
+        <v>611300</v>
       </c>
       <c r="J57" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K57" s="3">
         <v>598600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>488000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>453700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>440100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>476300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>296100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="E58" s="3">
-        <v>11400</v>
+        <v>12100</v>
       </c>
       <c r="F58" s="3">
-        <v>358500</v>
+        <v>10900</v>
       </c>
       <c r="G58" s="3">
-        <v>53300</v>
+        <v>344100</v>
       </c>
       <c r="H58" s="3">
-        <v>74100</v>
+        <v>51200</v>
       </c>
       <c r="I58" s="3">
-        <v>8000</v>
+        <v>71100</v>
       </c>
       <c r="J58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K58" s="3">
         <v>298800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>384300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>109000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>504100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224600</v>
+        <v>224100</v>
       </c>
       <c r="E59" s="3">
-        <v>278400</v>
+        <v>215600</v>
       </c>
       <c r="F59" s="3">
-        <v>99700</v>
+        <v>267300</v>
       </c>
       <c r="G59" s="3">
-        <v>177300</v>
+        <v>95700</v>
       </c>
       <c r="H59" s="3">
-        <v>213500</v>
+        <v>170200</v>
       </c>
       <c r="I59" s="3">
-        <v>146100</v>
+        <v>205000</v>
       </c>
       <c r="J59" s="3">
+        <v>140300</v>
+      </c>
+      <c r="K59" s="3">
         <v>199200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1012500</v>
+        <v>1045700</v>
       </c>
       <c r="E60" s="3">
-        <v>1106500</v>
+        <v>972100</v>
       </c>
       <c r="F60" s="3">
-        <v>1257800</v>
+        <v>1062400</v>
       </c>
       <c r="G60" s="3">
-        <v>942000</v>
+        <v>1207600</v>
       </c>
       <c r="H60" s="3">
-        <v>924200</v>
+        <v>904400</v>
       </c>
       <c r="I60" s="3">
-        <v>771800</v>
+        <v>887400</v>
       </c>
       <c r="J60" s="3">
+        <v>741000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1096600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>908800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>507900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>555000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>989700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>357600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1131900</v>
+        <v>1179900</v>
       </c>
       <c r="E61" s="3">
-        <v>1097200</v>
+        <v>1086700</v>
       </c>
       <c r="F61" s="3">
-        <v>582900</v>
+        <v>1053400</v>
       </c>
       <c r="G61" s="3">
-        <v>954600</v>
+        <v>559700</v>
       </c>
       <c r="H61" s="3">
-        <v>1364600</v>
+        <v>916500</v>
       </c>
       <c r="I61" s="3">
-        <v>1291300</v>
+        <v>1310100</v>
       </c>
       <c r="J61" s="3">
+        <v>1239800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1181600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1137600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1882700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1578200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1507200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>469900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1585100</v>
+        <v>1685800</v>
       </c>
       <c r="E62" s="3">
-        <v>1656000</v>
+        <v>1521800</v>
       </c>
       <c r="F62" s="3">
-        <v>1559500</v>
+        <v>1589900</v>
       </c>
       <c r="G62" s="3">
-        <v>1518000</v>
+        <v>1497200</v>
       </c>
       <c r="H62" s="3">
-        <v>1708400</v>
+        <v>1457500</v>
       </c>
       <c r="I62" s="3">
-        <v>1704200</v>
+        <v>1640200</v>
       </c>
       <c r="J62" s="3">
+        <v>1636200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1424800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1692500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1298800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1292200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1396700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>615700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3884800</v>
+        <v>4061600</v>
       </c>
       <c r="E66" s="3">
-        <v>3935600</v>
+        <v>3729800</v>
       </c>
       <c r="F66" s="3">
-        <v>3471500</v>
+        <v>3806600</v>
       </c>
       <c r="G66" s="3">
-        <v>3535100</v>
+        <v>3333000</v>
       </c>
       <c r="H66" s="3">
-        <v>4072000</v>
+        <v>3394000</v>
       </c>
       <c r="I66" s="3">
-        <v>3846400</v>
+        <v>3909500</v>
       </c>
       <c r="J66" s="3">
+        <v>3692900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3770300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3797100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3690800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3426700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3894700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1444200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2253200</v>
+        <v>3437000</v>
       </c>
       <c r="E72" s="3">
-        <v>3140100</v>
+        <v>2163200</v>
       </c>
       <c r="F72" s="3">
-        <v>1605100</v>
+        <v>2986600</v>
       </c>
       <c r="G72" s="3">
-        <v>2064900</v>
+        <v>1541000</v>
       </c>
       <c r="H72" s="3">
-        <v>213900</v>
+        <v>1982500</v>
       </c>
       <c r="I72" s="3">
-        <v>-592100</v>
+        <v>205300</v>
       </c>
       <c r="J72" s="3">
+        <v>-568500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-628000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-675700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-609100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-703100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-709000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-301900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4658400</v>
+        <v>4556600</v>
       </c>
       <c r="E76" s="3">
-        <v>4306200</v>
+        <v>4472400</v>
       </c>
       <c r="F76" s="3">
-        <v>4418100</v>
+        <v>4106200</v>
       </c>
       <c r="G76" s="3">
-        <v>3689000</v>
+        <v>4241800</v>
       </c>
       <c r="H76" s="3">
-        <v>2404300</v>
+        <v>3541800</v>
       </c>
       <c r="I76" s="3">
-        <v>1598400</v>
+        <v>2308400</v>
       </c>
       <c r="J76" s="3">
+        <v>1534600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1562500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1477500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1692400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1577300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1601100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>940200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>647300</v>
+        <v>330000</v>
       </c>
       <c r="E81" s="3">
-        <v>442700</v>
+        <v>621500</v>
       </c>
       <c r="F81" s="3">
-        <v>1337900</v>
+        <v>425000</v>
       </c>
       <c r="G81" s="3">
-        <v>1073500</v>
+        <v>1284500</v>
       </c>
       <c r="H81" s="3">
-        <v>505600</v>
+        <v>1030600</v>
       </c>
       <c r="I81" s="3">
-        <v>17100</v>
+        <v>485400</v>
       </c>
       <c r="J81" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-160000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-319800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>179500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>236400</v>
+        <v>576900</v>
       </c>
       <c r="E89" s="3">
-        <v>1021400</v>
+        <v>227000</v>
       </c>
       <c r="F89" s="3">
-        <v>716300</v>
+        <v>980600</v>
       </c>
       <c r="G89" s="3">
-        <v>687500</v>
+        <v>687700</v>
       </c>
       <c r="H89" s="3">
-        <v>775100</v>
+        <v>660000</v>
       </c>
       <c r="I89" s="3">
-        <v>438300</v>
+        <v>744100</v>
       </c>
       <c r="J89" s="3">
+        <v>420800</v>
+      </c>
+      <c r="K89" s="3">
         <v>71500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>612600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>154900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>108400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-331000</v>
+        <v>-9755000</v>
       </c>
       <c r="E91" s="3">
-        <v>-385400</v>
+        <v>-6144000</v>
       </c>
       <c r="F91" s="3">
-        <v>-300900</v>
+        <v>-7154000</v>
       </c>
       <c r="G91" s="3">
-        <v>-295300</v>
+        <v>-5586000</v>
       </c>
       <c r="H91" s="3">
-        <v>-222700</v>
+        <v>-5481100</v>
       </c>
       <c r="I91" s="3">
-        <v>-276000</v>
+        <v>-4134500</v>
       </c>
       <c r="J91" s="3">
+        <v>-5122700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-139200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-249400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-203500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-237800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-165400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-136600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-405300</v>
+        <v>-509400</v>
       </c>
       <c r="E94" s="3">
-        <v>-471100</v>
+        <v>-389100</v>
       </c>
       <c r="F94" s="3">
-        <v>-313600</v>
+        <v>-452300</v>
       </c>
       <c r="G94" s="3">
-        <v>-273300</v>
+        <v>-301100</v>
       </c>
       <c r="H94" s="3">
-        <v>-262000</v>
+        <v>-262400</v>
       </c>
       <c r="I94" s="3">
-        <v>-274200</v>
+        <v>-251500</v>
       </c>
       <c r="J94" s="3">
+        <v>-263300</v>
+      </c>
+      <c r="K94" s="3">
         <v>12200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-201100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-243000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1627900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-223500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-316200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3900</v>
+        <v>-177100</v>
       </c>
       <c r="E100" s="3">
-        <v>-366000</v>
+        <v>-3800</v>
       </c>
       <c r="F100" s="3">
-        <v>-83400</v>
+        <v>-351400</v>
       </c>
       <c r="G100" s="3">
-        <v>44400</v>
+        <v>-80100</v>
       </c>
       <c r="H100" s="3">
-        <v>-165200</v>
+        <v>42600</v>
       </c>
       <c r="I100" s="3">
-        <v>-191100</v>
+        <v>-158600</v>
       </c>
       <c r="J100" s="3">
+        <v>-183500</v>
+      </c>
+      <c r="K100" s="3">
         <v>111900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-292100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-145300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1931800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>118600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>40100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>8800</v>
       </c>
-      <c r="E101" s="3">
-        <v>41800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>8800</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6900</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-164000</v>
+        <v>-60600</v>
       </c>
       <c r="E102" s="3">
-        <v>226000</v>
+        <v>-157400</v>
       </c>
       <c r="F102" s="3">
-        <v>315500</v>
+        <v>217000</v>
       </c>
       <c r="G102" s="3">
-        <v>441700</v>
+        <v>302900</v>
       </c>
       <c r="H102" s="3">
-        <v>345900</v>
+        <v>424100</v>
       </c>
       <c r="I102" s="3">
-        <v>-20500</v>
+        <v>332100</v>
       </c>
       <c r="J102" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K102" s="3">
         <v>185900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-293400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>369900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3512300</v>
+        <v>3598500</v>
       </c>
       <c r="E8" s="3">
-        <v>3640000</v>
+        <v>3729400</v>
       </c>
       <c r="F8" s="3">
-        <v>4253500</v>
+        <v>4358000</v>
       </c>
       <c r="G8" s="3">
-        <v>4652400</v>
+        <v>4766600</v>
       </c>
       <c r="H8" s="3">
-        <v>3743200</v>
+        <v>3835100</v>
       </c>
       <c r="I8" s="3">
-        <v>2845600</v>
+        <v>2915400</v>
       </c>
       <c r="J8" s="3">
-        <v>2554500</v>
+        <v>2617200</v>
       </c>
       <c r="K8" s="3">
         <v>1267800</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2701800</v>
+        <v>2768100</v>
       </c>
       <c r="E9" s="3">
-        <v>2649000</v>
+        <v>2714100</v>
       </c>
       <c r="F9" s="3">
-        <v>3021800</v>
+        <v>3096000</v>
       </c>
       <c r="G9" s="3">
-        <v>2771800</v>
+        <v>2839900</v>
       </c>
       <c r="H9" s="3">
-        <v>2251900</v>
+        <v>2307100</v>
       </c>
       <c r="I9" s="3">
-        <v>2151300</v>
+        <v>2204100</v>
       </c>
       <c r="J9" s="3">
-        <v>2070900</v>
+        <v>2121800</v>
       </c>
       <c r="K9" s="3">
         <v>1276900</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>810500</v>
+        <v>830400</v>
       </c>
       <c r="E10" s="3">
-        <v>991000</v>
+        <v>1015300</v>
       </c>
       <c r="F10" s="3">
-        <v>1231700</v>
+        <v>1261900</v>
       </c>
       <c r="G10" s="3">
-        <v>1880500</v>
+        <v>1926700</v>
       </c>
       <c r="H10" s="3">
-        <v>1491300</v>
+        <v>1527900</v>
       </c>
       <c r="I10" s="3">
-        <v>694300</v>
+        <v>711300</v>
       </c>
       <c r="J10" s="3">
-        <v>483500</v>
+        <v>495400</v>
       </c>
       <c r="K10" s="3">
         <v>-9100</v>
@@ -998,25 +998,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="E14" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="F14" s="3">
-        <v>275200</v>
+        <v>282000</v>
       </c>
       <c r="G14" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H14" s="3">
-        <v>85100</v>
+        <v>87200</v>
       </c>
       <c r="I14" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="J14" s="3">
-        <v>49800</v>
+        <v>51000</v>
       </c>
       <c r="K14" s="3">
         <v>-15000</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2726200</v>
+        <v>2793100</v>
       </c>
       <c r="E17" s="3">
-        <v>2662300</v>
+        <v>2727700</v>
       </c>
       <c r="F17" s="3">
-        <v>3301400</v>
+        <v>3382500</v>
       </c>
       <c r="G17" s="3">
-        <v>2791200</v>
+        <v>2859800</v>
       </c>
       <c r="H17" s="3">
-        <v>2348100</v>
+        <v>2405700</v>
       </c>
       <c r="I17" s="3">
-        <v>2187900</v>
+        <v>2241700</v>
       </c>
       <c r="J17" s="3">
-        <v>2131100</v>
+        <v>2183400</v>
       </c>
       <c r="K17" s="3">
         <v>1270700</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>786100</v>
+        <v>805400</v>
       </c>
       <c r="E18" s="3">
-        <v>977700</v>
+        <v>1001700</v>
       </c>
       <c r="F18" s="3">
-        <v>952100</v>
+        <v>975400</v>
       </c>
       <c r="G18" s="3">
-        <v>1861100</v>
+        <v>1906800</v>
       </c>
       <c r="H18" s="3">
-        <v>1395100</v>
+        <v>1429400</v>
       </c>
       <c r="I18" s="3">
-        <v>657600</v>
+        <v>673800</v>
       </c>
       <c r="J18" s="3">
-        <v>423400</v>
+        <v>433800</v>
       </c>
       <c r="K18" s="3">
         <v>-2900</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-238900</v>
+        <v>-244800</v>
       </c>
       <c r="E20" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="F20" s="3">
-        <v>-243000</v>
+        <v>-249000</v>
       </c>
       <c r="G20" s="3">
-        <v>-52000</v>
+        <v>-53300</v>
       </c>
       <c r="H20" s="3">
-        <v>-131500</v>
+        <v>-134800</v>
       </c>
       <c r="I20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J20" s="3">
-        <v>-320400</v>
+        <v>-328300</v>
       </c>
       <c r="K20" s="3">
         <v>-74600</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>580200</v>
+        <v>594500</v>
       </c>
       <c r="E21" s="3">
-        <v>1129600</v>
+        <v>1157400</v>
       </c>
       <c r="F21" s="3">
-        <v>745100</v>
+        <v>763400</v>
       </c>
       <c r="G21" s="3">
-        <v>2005600</v>
+        <v>2054800</v>
       </c>
       <c r="H21" s="3">
-        <v>1300000</v>
+        <v>1332000</v>
       </c>
       <c r="I21" s="3">
-        <v>838400</v>
+        <v>859000</v>
       </c>
       <c r="J21" s="3">
-        <v>173600</v>
+        <v>177800</v>
       </c>
       <c r="K21" s="3">
         <v>80100</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33400</v>
+        <v>34200</v>
       </c>
       <c r="E22" s="3">
-        <v>33500</v>
+        <v>34300</v>
       </c>
       <c r="F22" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="G22" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="H22" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="I22" s="3">
-        <v>50900</v>
+        <v>52100</v>
       </c>
       <c r="J22" s="3">
-        <v>50600</v>
+        <v>51900</v>
       </c>
       <c r="K22" s="3">
         <v>47100</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>513800</v>
+        <v>526500</v>
       </c>
       <c r="E23" s="3">
-        <v>929400</v>
+        <v>952200</v>
       </c>
       <c r="F23" s="3">
-        <v>681400</v>
+        <v>698100</v>
       </c>
       <c r="G23" s="3">
-        <v>1778300</v>
+        <v>1822000</v>
       </c>
       <c r="H23" s="3">
-        <v>1225700</v>
+        <v>1255700</v>
       </c>
       <c r="I23" s="3">
-        <v>609400</v>
+        <v>624300</v>
       </c>
       <c r="J23" s="3">
-        <v>52300</v>
+        <v>53600</v>
       </c>
       <c r="K23" s="3">
         <v>-124600</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>170500</v>
+        <v>174700</v>
       </c>
       <c r="E24" s="3">
-        <v>291100</v>
+        <v>298200</v>
       </c>
       <c r="F24" s="3">
-        <v>242900</v>
+        <v>248900</v>
       </c>
       <c r="G24" s="3">
-        <v>468800</v>
+        <v>480300</v>
       </c>
       <c r="H24" s="3">
-        <v>145200</v>
+        <v>148700</v>
       </c>
       <c r="I24" s="3">
-        <v>106100</v>
+        <v>108700</v>
       </c>
       <c r="J24" s="3">
-        <v>21100</v>
+        <v>21600</v>
       </c>
       <c r="K24" s="3">
         <v>-115400</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>343400</v>
+        <v>351800</v>
       </c>
       <c r="E26" s="3">
-        <v>638300</v>
+        <v>653900</v>
       </c>
       <c r="F26" s="3">
-        <v>438400</v>
+        <v>449200</v>
       </c>
       <c r="G26" s="3">
-        <v>1309500</v>
+        <v>1341700</v>
       </c>
       <c r="H26" s="3">
-        <v>1080500</v>
+        <v>1107000</v>
       </c>
       <c r="I26" s="3">
-        <v>503300</v>
+        <v>515600</v>
       </c>
       <c r="J26" s="3">
-        <v>31200</v>
+        <v>32000</v>
       </c>
       <c r="K26" s="3">
         <v>-9200</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>330000</v>
+        <v>338100</v>
       </c>
       <c r="E27" s="3">
-        <v>621500</v>
+        <v>636700</v>
       </c>
       <c r="F27" s="3">
-        <v>425000</v>
+        <v>435500</v>
       </c>
       <c r="G27" s="3">
-        <v>1284500</v>
+        <v>1316100</v>
       </c>
       <c r="H27" s="3">
-        <v>1030600</v>
+        <v>1055900</v>
       </c>
       <c r="I27" s="3">
-        <v>485400</v>
+        <v>497300</v>
       </c>
       <c r="J27" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="K27" s="3">
         <v>-13700</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>238900</v>
+        <v>244800</v>
       </c>
       <c r="E32" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="F32" s="3">
-        <v>243000</v>
+        <v>249000</v>
       </c>
       <c r="G32" s="3">
-        <v>52000</v>
+        <v>53300</v>
       </c>
       <c r="H32" s="3">
-        <v>131500</v>
+        <v>134800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J32" s="3">
-        <v>320400</v>
+        <v>328300</v>
       </c>
       <c r="K32" s="3">
         <v>74600</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>330000</v>
+        <v>338100</v>
       </c>
       <c r="E33" s="3">
-        <v>621500</v>
+        <v>636700</v>
       </c>
       <c r="F33" s="3">
-        <v>425000</v>
+        <v>435500</v>
       </c>
       <c r="G33" s="3">
-        <v>1284500</v>
+        <v>1316100</v>
       </c>
       <c r="H33" s="3">
-        <v>1030600</v>
+        <v>1055900</v>
       </c>
       <c r="I33" s="3">
-        <v>485400</v>
+        <v>497300</v>
       </c>
       <c r="J33" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="K33" s="3">
         <v>-13700</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>330000</v>
+        <v>338100</v>
       </c>
       <c r="E35" s="3">
-        <v>621500</v>
+        <v>636700</v>
       </c>
       <c r="F35" s="3">
-        <v>425000</v>
+        <v>435500</v>
       </c>
       <c r="G35" s="3">
-        <v>1284500</v>
+        <v>1316100</v>
       </c>
       <c r="H35" s="3">
-        <v>1030600</v>
+        <v>1055900</v>
       </c>
       <c r="I35" s="3">
-        <v>485400</v>
+        <v>497300</v>
       </c>
       <c r="J35" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="K35" s="3">
         <v>-13700</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1348700</v>
+        <v>1381800</v>
       </c>
       <c r="E41" s="3">
-        <v>1409300</v>
+        <v>1443900</v>
       </c>
       <c r="F41" s="3">
-        <v>1566700</v>
+        <v>1605200</v>
       </c>
       <c r="G41" s="3">
-        <v>1349700</v>
+        <v>1382900</v>
       </c>
       <c r="H41" s="3">
-        <v>1046800</v>
+        <v>1072500</v>
       </c>
       <c r="I41" s="3">
-        <v>622700</v>
+        <v>638000</v>
       </c>
       <c r="J41" s="3">
-        <v>290600</v>
+        <v>297800</v>
       </c>
       <c r="K41" s="3">
         <v>321300</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>429500</v>
+        <v>440000</v>
       </c>
       <c r="E43" s="3">
-        <v>461800</v>
+        <v>473100</v>
       </c>
       <c r="F43" s="3">
-        <v>474700</v>
+        <v>486400</v>
       </c>
       <c r="G43" s="3">
-        <v>428600</v>
+        <v>439100</v>
       </c>
       <c r="H43" s="3">
-        <v>364600</v>
+        <v>373600</v>
       </c>
       <c r="I43" s="3">
-        <v>249900</v>
+        <v>256100</v>
       </c>
       <c r="J43" s="3">
-        <v>260700</v>
+        <v>267100</v>
       </c>
       <c r="K43" s="3">
         <v>295100</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1364600</v>
+        <v>1398100</v>
       </c>
       <c r="E44" s="3">
-        <v>1396700</v>
+        <v>1431000</v>
       </c>
       <c r="F44" s="3">
-        <v>1297100</v>
+        <v>1329000</v>
       </c>
       <c r="G44" s="3">
-        <v>1522500</v>
+        <v>1559900</v>
       </c>
       <c r="H44" s="3">
-        <v>1290500</v>
+        <v>1322200</v>
       </c>
       <c r="I44" s="3">
-        <v>870100</v>
+        <v>891500</v>
       </c>
       <c r="J44" s="3">
-        <v>801800</v>
+        <v>821500</v>
       </c>
       <c r="K44" s="3">
         <v>765500</v>
@@ -2257,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3142700</v>
+        <v>3219900</v>
       </c>
       <c r="E46" s="3">
-        <v>3267800</v>
+        <v>3348000</v>
       </c>
       <c r="F46" s="3">
-        <v>3353100</v>
+        <v>3435400</v>
       </c>
       <c r="G46" s="3">
-        <v>3300800</v>
+        <v>3381800</v>
       </c>
       <c r="H46" s="3">
-        <v>2702000</v>
+        <v>2768300</v>
       </c>
       <c r="I46" s="3">
-        <v>1742800</v>
+        <v>1785600</v>
       </c>
       <c r="J46" s="3">
-        <v>1353200</v>
+        <v>1386400</v>
       </c>
       <c r="K46" s="3">
         <v>1388400</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>479400</v>
+        <v>491200</v>
       </c>
       <c r="E47" s="3">
-        <v>456400</v>
+        <v>467600</v>
       </c>
       <c r="F47" s="3">
-        <v>426400</v>
+        <v>436900</v>
       </c>
       <c r="G47" s="3">
-        <v>382200</v>
+        <v>391500</v>
       </c>
       <c r="H47" s="3">
-        <v>333200</v>
+        <v>341400</v>
       </c>
       <c r="I47" s="3">
-        <v>316000</v>
+        <v>323800</v>
       </c>
       <c r="J47" s="3">
-        <v>244200</v>
+        <v>250200</v>
       </c>
       <c r="K47" s="3">
         <v>242700</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3992200</v>
+        <v>4090200</v>
       </c>
       <c r="E48" s="3">
-        <v>3593100</v>
+        <v>3681300</v>
       </c>
       <c r="F48" s="3">
-        <v>3243700</v>
+        <v>3323300</v>
       </c>
       <c r="G48" s="3">
-        <v>3183300</v>
+        <v>3261400</v>
       </c>
       <c r="H48" s="3">
-        <v>3149500</v>
+        <v>3226900</v>
       </c>
       <c r="I48" s="3">
-        <v>3425000</v>
+        <v>3509100</v>
       </c>
       <c r="J48" s="3">
-        <v>2991500</v>
+        <v>3065000</v>
       </c>
       <c r="K48" s="3">
         <v>3057100</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>430400</v>
+        <v>441000</v>
       </c>
       <c r="E49" s="3">
-        <v>413100</v>
+        <v>423200</v>
       </c>
       <c r="F49" s="3">
-        <v>399600</v>
+        <v>409500</v>
       </c>
       <c r="G49" s="3">
-        <v>360800</v>
+        <v>369700</v>
       </c>
       <c r="H49" s="3">
-        <v>370600</v>
+        <v>379700</v>
       </c>
       <c r="I49" s="3">
-        <v>432500</v>
+        <v>443100</v>
       </c>
       <c r="J49" s="3">
-        <v>354500</v>
+        <v>363200</v>
       </c>
       <c r="K49" s="3">
         <v>371400</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>573500</v>
+        <v>587600</v>
       </c>
       <c r="E52" s="3">
-        <v>471900</v>
+        <v>483500</v>
       </c>
       <c r="F52" s="3">
-        <v>490000</v>
+        <v>502100</v>
       </c>
       <c r="G52" s="3">
-        <v>347800</v>
+        <v>356300</v>
       </c>
       <c r="H52" s="3">
-        <v>380500</v>
+        <v>389900</v>
       </c>
       <c r="I52" s="3">
-        <v>301700</v>
+        <v>309100</v>
       </c>
       <c r="J52" s="3">
-        <v>283900</v>
+        <v>290900</v>
       </c>
       <c r="K52" s="3">
         <v>273300</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8618200</v>
+        <v>8829800</v>
       </c>
       <c r="E54" s="3">
-        <v>8202200</v>
+        <v>8403600</v>
       </c>
       <c r="F54" s="3">
-        <v>7912800</v>
+        <v>8107200</v>
       </c>
       <c r="G54" s="3">
-        <v>7574800</v>
+        <v>7760800</v>
       </c>
       <c r="H54" s="3">
-        <v>6935800</v>
+        <v>7106100</v>
       </c>
       <c r="I54" s="3">
-        <v>6217900</v>
+        <v>6370600</v>
       </c>
       <c r="J54" s="3">
-        <v>5227400</v>
+        <v>5355800</v>
       </c>
       <c r="K54" s="3">
         <v>5332800</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>809600</v>
+        <v>829500</v>
       </c>
       <c r="E57" s="3">
-        <v>744400</v>
+        <v>762600</v>
       </c>
       <c r="F57" s="3">
-        <v>784200</v>
+        <v>803400</v>
       </c>
       <c r="G57" s="3">
-        <v>767700</v>
+        <v>786600</v>
       </c>
       <c r="H57" s="3">
-        <v>683100</v>
+        <v>699900</v>
       </c>
       <c r="I57" s="3">
-        <v>611300</v>
+        <v>626300</v>
       </c>
       <c r="J57" s="3">
-        <v>593000</v>
+        <v>607600</v>
       </c>
       <c r="K57" s="3">
         <v>598600</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="E58" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="F58" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="G58" s="3">
-        <v>344100</v>
+        <v>352600</v>
       </c>
       <c r="H58" s="3">
-        <v>51200</v>
+        <v>52400</v>
       </c>
       <c r="I58" s="3">
-        <v>71100</v>
+        <v>72900</v>
       </c>
       <c r="J58" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="K58" s="3">
         <v>298800</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>224100</v>
+        <v>229600</v>
       </c>
       <c r="E59" s="3">
-        <v>215600</v>
+        <v>220900</v>
       </c>
       <c r="F59" s="3">
-        <v>267300</v>
+        <v>273900</v>
       </c>
       <c r="G59" s="3">
-        <v>95700</v>
+        <v>98000</v>
       </c>
       <c r="H59" s="3">
-        <v>170200</v>
+        <v>174400</v>
       </c>
       <c r="I59" s="3">
-        <v>205000</v>
+        <v>210000</v>
       </c>
       <c r="J59" s="3">
-        <v>140300</v>
+        <v>143700</v>
       </c>
       <c r="K59" s="3">
         <v>199200</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1045700</v>
+        <v>1071400</v>
       </c>
       <c r="E60" s="3">
-        <v>972100</v>
+        <v>995900</v>
       </c>
       <c r="F60" s="3">
-        <v>1062400</v>
+        <v>1088500</v>
       </c>
       <c r="G60" s="3">
-        <v>1207600</v>
+        <v>1237200</v>
       </c>
       <c r="H60" s="3">
-        <v>904400</v>
+        <v>926600</v>
       </c>
       <c r="I60" s="3">
-        <v>887400</v>
+        <v>909100</v>
       </c>
       <c r="J60" s="3">
-        <v>741000</v>
+        <v>759200</v>
       </c>
       <c r="K60" s="3">
         <v>1096600</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1179900</v>
+        <v>1208900</v>
       </c>
       <c r="E61" s="3">
-        <v>1086700</v>
+        <v>1113400</v>
       </c>
       <c r="F61" s="3">
-        <v>1053400</v>
+        <v>1079300</v>
       </c>
       <c r="G61" s="3">
-        <v>559700</v>
+        <v>573400</v>
       </c>
       <c r="H61" s="3">
-        <v>916500</v>
+        <v>939000</v>
       </c>
       <c r="I61" s="3">
-        <v>1310100</v>
+        <v>1342300</v>
       </c>
       <c r="J61" s="3">
-        <v>1239800</v>
+        <v>1270200</v>
       </c>
       <c r="K61" s="3">
         <v>1181600</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1685800</v>
+        <v>1727200</v>
       </c>
       <c r="E62" s="3">
-        <v>1521800</v>
+        <v>1559200</v>
       </c>
       <c r="F62" s="3">
-        <v>1589900</v>
+        <v>1628900</v>
       </c>
       <c r="G62" s="3">
-        <v>1497200</v>
+        <v>1534000</v>
       </c>
       <c r="H62" s="3">
-        <v>1457500</v>
+        <v>1493200</v>
       </c>
       <c r="I62" s="3">
-        <v>1640200</v>
+        <v>1680500</v>
       </c>
       <c r="J62" s="3">
-        <v>1636200</v>
+        <v>1676400</v>
       </c>
       <c r="K62" s="3">
         <v>1424800</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4061600</v>
+        <v>4161300</v>
       </c>
       <c r="E66" s="3">
-        <v>3729800</v>
+        <v>3821400</v>
       </c>
       <c r="F66" s="3">
-        <v>3806600</v>
+        <v>3900100</v>
       </c>
       <c r="G66" s="3">
-        <v>3333000</v>
+        <v>3414800</v>
       </c>
       <c r="H66" s="3">
-        <v>3394000</v>
+        <v>3477400</v>
       </c>
       <c r="I66" s="3">
-        <v>3909500</v>
+        <v>4005500</v>
       </c>
       <c r="J66" s="3">
-        <v>3692900</v>
+        <v>3783500</v>
       </c>
       <c r="K66" s="3">
         <v>3770300</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3437000</v>
+        <v>3521400</v>
       </c>
       <c r="E72" s="3">
-        <v>2163200</v>
+        <v>2216400</v>
       </c>
       <c r="F72" s="3">
-        <v>2986600</v>
+        <v>3060000</v>
       </c>
       <c r="G72" s="3">
-        <v>1541000</v>
+        <v>1578800</v>
       </c>
       <c r="H72" s="3">
-        <v>1982500</v>
+        <v>2031100</v>
       </c>
       <c r="I72" s="3">
-        <v>205300</v>
+        <v>210400</v>
       </c>
       <c r="J72" s="3">
-        <v>-568500</v>
+        <v>-582400</v>
       </c>
       <c r="K72" s="3">
         <v>-628000</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4556600</v>
+        <v>4668500</v>
       </c>
       <c r="E76" s="3">
-        <v>4472400</v>
+        <v>4582300</v>
       </c>
       <c r="F76" s="3">
-        <v>4106200</v>
+        <v>4207000</v>
       </c>
       <c r="G76" s="3">
-        <v>4241800</v>
+        <v>4345900</v>
       </c>
       <c r="H76" s="3">
-        <v>3541800</v>
+        <v>3628800</v>
       </c>
       <c r="I76" s="3">
-        <v>2308400</v>
+        <v>2365000</v>
       </c>
       <c r="J76" s="3">
-        <v>1534600</v>
+        <v>1572200</v>
       </c>
       <c r="K76" s="3">
         <v>1562500</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>330000</v>
+        <v>338100</v>
       </c>
       <c r="E81" s="3">
-        <v>621500</v>
+        <v>636700</v>
       </c>
       <c r="F81" s="3">
-        <v>425000</v>
+        <v>435500</v>
       </c>
       <c r="G81" s="3">
-        <v>1284500</v>
+        <v>1316100</v>
       </c>
       <c r="H81" s="3">
-        <v>1030600</v>
+        <v>1055900</v>
       </c>
       <c r="I81" s="3">
-        <v>485400</v>
+        <v>497300</v>
       </c>
       <c r="J81" s="3">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="K81" s="3">
         <v>-13700</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>576900</v>
+        <v>591100</v>
       </c>
       <c r="E89" s="3">
-        <v>227000</v>
+        <v>232600</v>
       </c>
       <c r="F89" s="3">
-        <v>980600</v>
+        <v>1004700</v>
       </c>
       <c r="G89" s="3">
-        <v>687700</v>
+        <v>704600</v>
       </c>
       <c r="H89" s="3">
-        <v>660000</v>
+        <v>676200</v>
       </c>
       <c r="I89" s="3">
-        <v>744100</v>
+        <v>762400</v>
       </c>
       <c r="J89" s="3">
-        <v>420800</v>
+        <v>431200</v>
       </c>
       <c r="K89" s="3">
         <v>71500</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-509400</v>
+        <v>-522000</v>
       </c>
       <c r="E94" s="3">
-        <v>-389100</v>
+        <v>-398700</v>
       </c>
       <c r="F94" s="3">
-        <v>-452300</v>
+        <v>-463500</v>
       </c>
       <c r="G94" s="3">
-        <v>-301100</v>
+        <v>-308500</v>
       </c>
       <c r="H94" s="3">
-        <v>-262400</v>
+        <v>-268800</v>
       </c>
       <c r="I94" s="3">
-        <v>-251500</v>
+        <v>-257700</v>
       </c>
       <c r="J94" s="3">
-        <v>-263300</v>
+        <v>-269800</v>
       </c>
       <c r="K94" s="3">
         <v>12200</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-177100</v>
+        <v>-181400</v>
       </c>
       <c r="E100" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F100" s="3">
-        <v>-351400</v>
+        <v>-360100</v>
       </c>
       <c r="G100" s="3">
-        <v>-80100</v>
+        <v>-82100</v>
       </c>
       <c r="H100" s="3">
-        <v>42600</v>
+        <v>43600</v>
       </c>
       <c r="I100" s="3">
-        <v>-158600</v>
+        <v>-162500</v>
       </c>
       <c r="J100" s="3">
-        <v>-183500</v>
+        <v>-188000</v>
       </c>
       <c r="K100" s="3">
         <v>111900</v>
@@ -4626,25 +4626,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49000</v>
+        <v>50200</v>
       </c>
       <c r="E101" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>40100</v>
+        <v>41100</v>
       </c>
       <c r="G101" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="I101" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="J101" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="K101" s="3">
         <v>-9700</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-60600</v>
+        <v>-62100</v>
       </c>
       <c r="E102" s="3">
-        <v>-157400</v>
+        <v>-161300</v>
       </c>
       <c r="F102" s="3">
-        <v>217000</v>
+        <v>222300</v>
       </c>
       <c r="G102" s="3">
-        <v>302900</v>
+        <v>310400</v>
       </c>
       <c r="H102" s="3">
-        <v>424100</v>
+        <v>434500</v>
       </c>
       <c r="I102" s="3">
-        <v>332100</v>
+        <v>340300</v>
       </c>
       <c r="J102" s="3">
-        <v>-19700</v>
+        <v>-20200</v>
       </c>
       <c r="K102" s="3">
         <v>185900</v>

--- a/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SBSW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SBSW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3598500</v>
+        <v>3299700</v>
       </c>
       <c r="E8" s="3">
-        <v>3729400</v>
+        <v>3699700</v>
       </c>
       <c r="F8" s="3">
-        <v>4358000</v>
+        <v>3834200</v>
       </c>
       <c r="G8" s="3">
-        <v>4766600</v>
+        <v>4480500</v>
       </c>
       <c r="H8" s="3">
-        <v>3835100</v>
+        <v>4900600</v>
       </c>
       <c r="I8" s="3">
-        <v>2915400</v>
+        <v>3942900</v>
       </c>
       <c r="J8" s="3">
+        <v>2997400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2617200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1267800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1661200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1587400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1755800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1279600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>945000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>840400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2768100</v>
+        <v>2738200</v>
       </c>
       <c r="E9" s="3">
-        <v>2714100</v>
+        <v>2846000</v>
       </c>
       <c r="F9" s="3">
-        <v>3096000</v>
+        <v>2790400</v>
       </c>
       <c r="G9" s="3">
-        <v>2839900</v>
+        <v>3183100</v>
       </c>
       <c r="H9" s="3">
-        <v>2307100</v>
+        <v>2919700</v>
       </c>
       <c r="I9" s="3">
-        <v>2204100</v>
+        <v>2372000</v>
       </c>
       <c r="J9" s="3">
+        <v>2266100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2121800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1276900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1583900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1516400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1573800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1242100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>788400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>830400</v>
+        <v>561500</v>
       </c>
       <c r="E10" s="3">
-        <v>1015300</v>
+        <v>853700</v>
       </c>
       <c r="F10" s="3">
-        <v>1261900</v>
+        <v>1043800</v>
       </c>
       <c r="G10" s="3">
-        <v>1926700</v>
+        <v>1297400</v>
       </c>
       <c r="H10" s="3">
-        <v>1527900</v>
+        <v>1980900</v>
       </c>
       <c r="I10" s="3">
-        <v>711300</v>
+        <v>1570900</v>
       </c>
       <c r="J10" s="3">
+        <v>731400</v>
+      </c>
+      <c r="K10" s="3">
         <v>495400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-9100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>77400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>182100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>156700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>181900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,11 +956,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,55 +1009,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19300</v>
+        <v>-4600</v>
       </c>
       <c r="E14" s="3">
-        <v>7600</v>
+        <v>19900</v>
       </c>
       <c r="F14" s="3">
-        <v>282000</v>
+        <v>7800</v>
       </c>
       <c r="G14" s="3">
+        <v>289900</v>
+      </c>
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
-        <v>87200</v>
-      </c>
       <c r="I14" s="3">
-        <v>21800</v>
+        <v>89600</v>
       </c>
       <c r="J14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K14" s="3">
         <v>51000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-15000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>201200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>154400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>222800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-81400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2793100</v>
+        <v>2735900</v>
       </c>
       <c r="E17" s="3">
-        <v>2727700</v>
+        <v>2871600</v>
       </c>
       <c r="F17" s="3">
-        <v>3382500</v>
+        <v>2804400</v>
       </c>
       <c r="G17" s="3">
-        <v>2859800</v>
+        <v>3477600</v>
       </c>
       <c r="H17" s="3">
-        <v>2405700</v>
+        <v>2940200</v>
       </c>
       <c r="I17" s="3">
-        <v>2241700</v>
+        <v>2473400</v>
       </c>
       <c r="J17" s="3">
+        <v>2304700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2183400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1270700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1795300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1548400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1735800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1472600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>727500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>805400</v>
+        <v>563800</v>
       </c>
       <c r="E18" s="3">
-        <v>1001700</v>
+        <v>828000</v>
       </c>
       <c r="F18" s="3">
-        <v>975400</v>
+        <v>1029900</v>
       </c>
       <c r="G18" s="3">
-        <v>1906800</v>
+        <v>1002900</v>
       </c>
       <c r="H18" s="3">
-        <v>1429400</v>
+        <v>1960500</v>
       </c>
       <c r="I18" s="3">
-        <v>673800</v>
+        <v>1469500</v>
       </c>
       <c r="J18" s="3">
+        <v>692700</v>
+      </c>
+      <c r="K18" s="3">
         <v>433800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-134100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-193000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>217600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-244800</v>
+        <v>54000</v>
       </c>
       <c r="E20" s="3">
-        <v>-15200</v>
+        <v>-251600</v>
       </c>
       <c r="F20" s="3">
-        <v>-249000</v>
+        <v>-15600</v>
       </c>
       <c r="G20" s="3">
-        <v>-53300</v>
+        <v>-256000</v>
       </c>
       <c r="H20" s="3">
-        <v>-134800</v>
+        <v>-54800</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
+        <v>-138600</v>
       </c>
       <c r="J20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-328300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-74600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>104800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>37000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-85200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-76400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-84500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>594500</v>
+        <v>875600</v>
       </c>
       <c r="E21" s="3">
-        <v>1157400</v>
+        <v>611200</v>
       </c>
       <c r="F21" s="3">
-        <v>763400</v>
+        <v>1189900</v>
       </c>
       <c r="G21" s="3">
-        <v>2054800</v>
+        <v>784800</v>
       </c>
       <c r="H21" s="3">
-        <v>1332000</v>
+        <v>2112600</v>
       </c>
       <c r="I21" s="3">
-        <v>859000</v>
+        <v>1369400</v>
       </c>
       <c r="J21" s="3">
+        <v>883100</v>
+      </c>
+      <c r="K21" s="3">
         <v>177800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>80100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>281500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-18700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-103100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>217300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>145100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34200</v>
+        <v>40900</v>
       </c>
       <c r="E22" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="F22" s="3">
-        <v>28300</v>
+        <v>35300</v>
       </c>
       <c r="G22" s="3">
-        <v>31600</v>
+        <v>29100</v>
       </c>
       <c r="H22" s="3">
-        <v>38800</v>
+        <v>32500</v>
       </c>
       <c r="I22" s="3">
-        <v>52100</v>
+        <v>39900</v>
       </c>
       <c r="J22" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K22" s="3">
         <v>51900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>65200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>77100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>78000</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>526500</v>
+        <v>576900</v>
       </c>
       <c r="E23" s="3">
-        <v>952200</v>
+        <v>541300</v>
       </c>
       <c r="F23" s="3">
-        <v>698100</v>
+        <v>979000</v>
       </c>
       <c r="G23" s="3">
-        <v>1822000</v>
+        <v>717700</v>
       </c>
       <c r="H23" s="3">
-        <v>1255700</v>
+        <v>1873200</v>
       </c>
       <c r="I23" s="3">
-        <v>624300</v>
+        <v>1291100</v>
       </c>
       <c r="J23" s="3">
+        <v>641900</v>
+      </c>
+      <c r="K23" s="3">
         <v>53600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-124600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-99400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-142300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-347400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>208700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>174700</v>
+        <v>152800</v>
       </c>
       <c r="E24" s="3">
-        <v>298200</v>
+        <v>179600</v>
       </c>
       <c r="F24" s="3">
-        <v>248900</v>
+        <v>306600</v>
       </c>
       <c r="G24" s="3">
-        <v>480300</v>
+        <v>255900</v>
       </c>
       <c r="H24" s="3">
-        <v>148700</v>
+        <v>493800</v>
       </c>
       <c r="I24" s="3">
-        <v>108700</v>
+        <v>152900</v>
       </c>
       <c r="J24" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K24" s="3">
         <v>21600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-115400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-166600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-27600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>351800</v>
+        <v>424200</v>
       </c>
       <c r="E26" s="3">
-        <v>653900</v>
+        <v>361700</v>
       </c>
       <c r="F26" s="3">
-        <v>449200</v>
+        <v>672300</v>
       </c>
       <c r="G26" s="3">
-        <v>1341700</v>
+        <v>461800</v>
       </c>
       <c r="H26" s="3">
-        <v>1107000</v>
+        <v>1379400</v>
       </c>
       <c r="I26" s="3">
-        <v>515600</v>
+        <v>1138100</v>
       </c>
       <c r="J26" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K26" s="3">
         <v>32000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-161400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-319800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>168900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>338100</v>
+        <v>404400</v>
       </c>
       <c r="E27" s="3">
-        <v>636700</v>
+        <v>347600</v>
       </c>
       <c r="F27" s="3">
-        <v>435500</v>
+        <v>654600</v>
       </c>
       <c r="G27" s="3">
-        <v>1316100</v>
+        <v>447700</v>
       </c>
       <c r="H27" s="3">
-        <v>1055900</v>
+        <v>1353100</v>
       </c>
       <c r="I27" s="3">
-        <v>497300</v>
+        <v>1085600</v>
       </c>
       <c r="J27" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K27" s="3">
         <v>16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-160000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-319800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>179500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>244800</v>
+        <v>-54000</v>
       </c>
       <c r="E32" s="3">
-        <v>15200</v>
+        <v>251600</v>
       </c>
       <c r="F32" s="3">
-        <v>249000</v>
+        <v>15600</v>
       </c>
       <c r="G32" s="3">
-        <v>53300</v>
+        <v>256000</v>
       </c>
       <c r="H32" s="3">
-        <v>134800</v>
+        <v>54800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
+        <v>138600</v>
       </c>
       <c r="J32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K32" s="3">
         <v>328300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>74600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-104800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-37000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>85200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>76400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>84500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>338100</v>
+        <v>404400</v>
       </c>
       <c r="E33" s="3">
-        <v>636700</v>
+        <v>347600</v>
       </c>
       <c r="F33" s="3">
-        <v>435500</v>
+        <v>654600</v>
       </c>
       <c r="G33" s="3">
-        <v>1316100</v>
+        <v>447700</v>
       </c>
       <c r="H33" s="3">
-        <v>1055900</v>
+        <v>1353100</v>
       </c>
       <c r="I33" s="3">
-        <v>497300</v>
+        <v>1085600</v>
       </c>
       <c r="J33" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K33" s="3">
         <v>16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-160000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-319800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>179500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>338100</v>
+        <v>404400</v>
       </c>
       <c r="E35" s="3">
-        <v>636700</v>
+        <v>347600</v>
       </c>
       <c r="F35" s="3">
-        <v>435500</v>
+        <v>654600</v>
       </c>
       <c r="G35" s="3">
-        <v>1316100</v>
+        <v>447700</v>
       </c>
       <c r="H35" s="3">
-        <v>1055900</v>
+        <v>1353100</v>
       </c>
       <c r="I35" s="3">
-        <v>497300</v>
+        <v>1085600</v>
       </c>
       <c r="J35" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K35" s="3">
         <v>16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-160000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-319800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>179500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1381800</v>
+        <v>1207200</v>
       </c>
       <c r="E41" s="3">
-        <v>1443900</v>
+        <v>1420600</v>
       </c>
       <c r="F41" s="3">
-        <v>1605200</v>
+        <v>1484500</v>
       </c>
       <c r="G41" s="3">
-        <v>1382900</v>
+        <v>1650300</v>
       </c>
       <c r="H41" s="3">
-        <v>1072500</v>
+        <v>1421800</v>
       </c>
       <c r="I41" s="3">
-        <v>638000</v>
+        <v>1102700</v>
       </c>
       <c r="J41" s="3">
+        <v>656000</v>
+      </c>
+      <c r="K41" s="3">
         <v>297800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>321300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>158300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>139400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>135700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>434300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2151,116 +2241,125 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>440000</v>
+        <v>478500</v>
       </c>
       <c r="E43" s="3">
-        <v>473100</v>
+        <v>452400</v>
       </c>
       <c r="F43" s="3">
-        <v>486400</v>
+        <v>486500</v>
       </c>
       <c r="G43" s="3">
-        <v>439100</v>
+        <v>500100</v>
       </c>
       <c r="H43" s="3">
-        <v>373600</v>
+        <v>451400</v>
       </c>
       <c r="I43" s="3">
-        <v>256100</v>
+        <v>384100</v>
       </c>
       <c r="J43" s="3">
+        <v>263300</v>
+      </c>
+      <c r="K43" s="3">
         <v>267100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>295100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>456600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>434600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>422000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>389000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>346200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1398100</v>
+        <v>1400700</v>
       </c>
       <c r="E44" s="3">
-        <v>1431000</v>
+        <v>1437400</v>
       </c>
       <c r="F44" s="3">
-        <v>1329000</v>
+        <v>1471200</v>
       </c>
       <c r="G44" s="3">
-        <v>1559900</v>
+        <v>1366400</v>
       </c>
       <c r="H44" s="3">
-        <v>1322200</v>
+        <v>1603700</v>
       </c>
       <c r="I44" s="3">
-        <v>891500</v>
+        <v>1359400</v>
       </c>
       <c r="J44" s="3">
+        <v>916500</v>
+      </c>
+      <c r="K44" s="3">
         <v>821500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>765500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>328900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>281200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>232000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>197200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>38700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2271,217 +2370,232 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>84300</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3219900</v>
+        <v>3086400</v>
       </c>
       <c r="E46" s="3">
-        <v>3348000</v>
+        <v>3310400</v>
       </c>
       <c r="F46" s="3">
-        <v>3435400</v>
+        <v>3442200</v>
       </c>
       <c r="G46" s="3">
-        <v>3381800</v>
+        <v>3532000</v>
       </c>
       <c r="H46" s="3">
-        <v>2768300</v>
+        <v>3476900</v>
       </c>
       <c r="I46" s="3">
-        <v>1785600</v>
+        <v>2846200</v>
       </c>
       <c r="J46" s="3">
+        <v>1835800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1386400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1388400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>943800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>939500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>789700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1020500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>440200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>203200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>491200</v>
+        <v>548000</v>
       </c>
       <c r="E47" s="3">
-        <v>467600</v>
+        <v>505000</v>
       </c>
       <c r="F47" s="3">
-        <v>436900</v>
+        <v>480700</v>
       </c>
       <c r="G47" s="3">
-        <v>391500</v>
+        <v>449200</v>
       </c>
       <c r="H47" s="3">
-        <v>341400</v>
+        <v>402600</v>
       </c>
       <c r="I47" s="3">
-        <v>323800</v>
+        <v>351000</v>
       </c>
       <c r="J47" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K47" s="3">
         <v>250200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>242700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>251400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>197500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>166300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>174400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>143600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>131700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4090200</v>
+        <v>5090300</v>
       </c>
       <c r="E48" s="3">
-        <v>3681300</v>
+        <v>4205200</v>
       </c>
       <c r="F48" s="3">
-        <v>3323300</v>
+        <v>3784800</v>
       </c>
       <c r="G48" s="3">
-        <v>3261400</v>
+        <v>3416800</v>
       </c>
       <c r="H48" s="3">
-        <v>3226900</v>
+        <v>3353100</v>
       </c>
       <c r="I48" s="3">
-        <v>3509100</v>
+        <v>3317600</v>
       </c>
       <c r="J48" s="3">
+        <v>3607700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3065000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3057100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3388600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3532300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3384000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3620500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1556800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1326500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>441000</v>
+        <v>498500</v>
       </c>
       <c r="E49" s="3">
-        <v>423200</v>
+        <v>453400</v>
       </c>
       <c r="F49" s="3">
-        <v>409500</v>
+        <v>435100</v>
       </c>
       <c r="G49" s="3">
-        <v>369700</v>
+        <v>421000</v>
       </c>
       <c r="H49" s="3">
-        <v>379700</v>
+        <v>380100</v>
       </c>
       <c r="I49" s="3">
-        <v>443100</v>
+        <v>390400</v>
       </c>
       <c r="J49" s="3">
+        <v>455500</v>
+      </c>
+      <c r="K49" s="3">
         <v>363200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>371400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>427900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>465500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>420700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>453400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>53500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>587600</v>
+        <v>606300</v>
       </c>
       <c r="E52" s="3">
-        <v>483500</v>
+        <v>604100</v>
       </c>
       <c r="F52" s="3">
-        <v>502100</v>
+        <v>497100</v>
       </c>
       <c r="G52" s="3">
-        <v>356300</v>
+        <v>516200</v>
       </c>
       <c r="H52" s="3">
-        <v>389900</v>
+        <v>366300</v>
       </c>
       <c r="I52" s="3">
-        <v>309100</v>
+        <v>400800</v>
       </c>
       <c r="J52" s="3">
+        <v>317800</v>
+      </c>
+      <c r="K52" s="3">
         <v>290900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>273300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>262800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>248400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>243300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>227000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>190200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8829800</v>
+        <v>9829500</v>
       </c>
       <c r="E54" s="3">
-        <v>8403600</v>
+        <v>9078100</v>
       </c>
       <c r="F54" s="3">
-        <v>8107200</v>
+        <v>8639900</v>
       </c>
       <c r="G54" s="3">
-        <v>7760800</v>
+        <v>8335100</v>
       </c>
       <c r="H54" s="3">
-        <v>7106100</v>
+        <v>7979000</v>
       </c>
       <c r="I54" s="3">
-        <v>6370600</v>
+        <v>7305900</v>
       </c>
       <c r="J54" s="3">
+        <v>6549700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5355800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5332800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5274600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5383200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5004000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5495800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2384400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1876100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>829500</v>
+        <v>837700</v>
       </c>
       <c r="E57" s="3">
-        <v>762600</v>
+        <v>852800</v>
       </c>
       <c r="F57" s="3">
-        <v>803400</v>
+        <v>784100</v>
       </c>
       <c r="G57" s="3">
-        <v>786600</v>
+        <v>826000</v>
       </c>
       <c r="H57" s="3">
-        <v>699900</v>
+        <v>808700</v>
       </c>
       <c r="I57" s="3">
-        <v>626300</v>
+        <v>719500</v>
       </c>
       <c r="J57" s="3">
+        <v>643900</v>
+      </c>
+      <c r="K57" s="3">
         <v>607600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>598600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>488000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>453700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>440100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>476300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>296100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>221800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12300</v>
+        <v>18300</v>
       </c>
       <c r="E58" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="F58" s="3">
-        <v>11200</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3">
-        <v>352600</v>
+        <v>11500</v>
       </c>
       <c r="H58" s="3">
-        <v>52400</v>
+        <v>362500</v>
       </c>
       <c r="I58" s="3">
-        <v>72900</v>
+        <v>53900</v>
       </c>
       <c r="J58" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K58" s="3">
         <v>7900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>298800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>384300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>109000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>504100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>216000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>229600</v>
+        <v>125800</v>
       </c>
       <c r="E59" s="3">
-        <v>220900</v>
+        <v>236100</v>
       </c>
       <c r="F59" s="3">
-        <v>273900</v>
+        <v>227100</v>
       </c>
       <c r="G59" s="3">
-        <v>98000</v>
+        <v>281600</v>
       </c>
       <c r="H59" s="3">
-        <v>174400</v>
+        <v>100800</v>
       </c>
       <c r="I59" s="3">
-        <v>210000</v>
+        <v>179300</v>
       </c>
       <c r="J59" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K59" s="3">
         <v>143700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>199200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1071400</v>
+        <v>981800</v>
       </c>
       <c r="E60" s="3">
-        <v>995900</v>
+        <v>1101500</v>
       </c>
       <c r="F60" s="3">
-        <v>1088500</v>
+        <v>1024000</v>
       </c>
       <c r="G60" s="3">
-        <v>1237200</v>
+        <v>1119100</v>
       </c>
       <c r="H60" s="3">
-        <v>926600</v>
+        <v>1272000</v>
       </c>
       <c r="I60" s="3">
-        <v>909100</v>
+        <v>952700</v>
       </c>
       <c r="J60" s="3">
+        <v>934700</v>
+      </c>
+      <c r="K60" s="3">
         <v>759200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1096600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>908800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>507900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>555000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>989700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>357600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>466900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1208900</v>
+        <v>1395600</v>
       </c>
       <c r="E61" s="3">
-        <v>1113400</v>
+        <v>1242900</v>
       </c>
       <c r="F61" s="3">
-        <v>1079300</v>
+        <v>1144700</v>
       </c>
       <c r="G61" s="3">
-        <v>573400</v>
+        <v>1109600</v>
       </c>
       <c r="H61" s="3">
-        <v>939000</v>
+        <v>589500</v>
       </c>
       <c r="I61" s="3">
-        <v>1342300</v>
+        <v>965400</v>
       </c>
       <c r="J61" s="3">
+        <v>1380000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1270200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1181600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1137600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1882700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1578200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1507200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>469900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1727200</v>
+        <v>1995100</v>
       </c>
       <c r="E62" s="3">
-        <v>1559200</v>
+        <v>1775700</v>
       </c>
       <c r="F62" s="3">
-        <v>1628900</v>
+        <v>1603000</v>
       </c>
       <c r="G62" s="3">
-        <v>1534000</v>
+        <v>1674700</v>
       </c>
       <c r="H62" s="3">
-        <v>1493200</v>
+        <v>1577100</v>
       </c>
       <c r="I62" s="3">
-        <v>1680500</v>
+        <v>1535200</v>
       </c>
       <c r="J62" s="3">
+        <v>1727700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1676400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1424800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1692500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1298800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1292200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1396700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>615700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>403300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4161300</v>
+        <v>4545500</v>
       </c>
       <c r="E66" s="3">
-        <v>3821400</v>
+        <v>4278300</v>
       </c>
       <c r="F66" s="3">
-        <v>3900100</v>
+        <v>3928800</v>
       </c>
       <c r="G66" s="3">
-        <v>3414800</v>
+        <v>4009800</v>
       </c>
       <c r="H66" s="3">
-        <v>3477400</v>
+        <v>3510900</v>
       </c>
       <c r="I66" s="3">
-        <v>4005500</v>
+        <v>3575100</v>
       </c>
       <c r="J66" s="3">
+        <v>4118100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3783500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3770300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3797100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3690800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3426700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3894700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1444200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1047600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3521400</v>
+        <v>4104700</v>
       </c>
       <c r="E72" s="3">
-        <v>2216400</v>
+        <v>3620400</v>
       </c>
       <c r="F72" s="3">
-        <v>3060000</v>
+        <v>2278700</v>
       </c>
       <c r="G72" s="3">
-        <v>1578800</v>
+        <v>3146000</v>
       </c>
       <c r="H72" s="3">
-        <v>2031100</v>
+        <v>1623200</v>
       </c>
       <c r="I72" s="3">
-        <v>210400</v>
+        <v>2088200</v>
       </c>
       <c r="J72" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-582400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-628000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-675700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-609100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-703100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-709000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-301900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-413700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4668500</v>
+        <v>5284000</v>
       </c>
       <c r="E76" s="3">
-        <v>4582300</v>
+        <v>4799700</v>
       </c>
       <c r="F76" s="3">
-        <v>4207000</v>
+        <v>4711100</v>
       </c>
       <c r="G76" s="3">
-        <v>4345900</v>
+        <v>4325300</v>
       </c>
       <c r="H76" s="3">
-        <v>3628800</v>
+        <v>4468100</v>
       </c>
       <c r="I76" s="3">
-        <v>2365000</v>
+        <v>3730800</v>
       </c>
       <c r="J76" s="3">
+        <v>2431600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1572200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1562500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1477500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1692400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1577300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1601100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>940200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>828400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>338100</v>
+        <v>404400</v>
       </c>
       <c r="E81" s="3">
-        <v>636700</v>
+        <v>347600</v>
       </c>
       <c r="F81" s="3">
-        <v>435500</v>
+        <v>654600</v>
       </c>
       <c r="G81" s="3">
-        <v>1316100</v>
+        <v>447700</v>
       </c>
       <c r="H81" s="3">
-        <v>1055900</v>
+        <v>1353100</v>
       </c>
       <c r="I81" s="3">
-        <v>497300</v>
+        <v>1085600</v>
       </c>
       <c r="J81" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K81" s="3">
         <v>16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-160000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-319800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>179500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>591100</v>
+        <v>269300</v>
       </c>
       <c r="E89" s="3">
-        <v>232600</v>
+        <v>607700</v>
       </c>
       <c r="F89" s="3">
-        <v>1004700</v>
+        <v>239100</v>
       </c>
       <c r="G89" s="3">
-        <v>704600</v>
+        <v>1032900</v>
       </c>
       <c r="H89" s="3">
-        <v>676200</v>
+        <v>724400</v>
       </c>
       <c r="I89" s="3">
-        <v>762400</v>
+        <v>695300</v>
       </c>
       <c r="J89" s="3">
+        <v>783800</v>
+      </c>
+      <c r="K89" s="3">
         <v>431200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>71500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>612600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>154900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>108400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>141300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10854000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9755000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6144000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7154000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5586000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5481100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4134500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5122700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-139200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-249400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-203500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-237800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-165400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-136600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-522000</v>
+        <v>-565400</v>
       </c>
       <c r="E94" s="3">
-        <v>-398700</v>
+        <v>-536600</v>
       </c>
       <c r="F94" s="3">
-        <v>-463500</v>
+        <v>-409900</v>
       </c>
       <c r="G94" s="3">
-        <v>-308500</v>
+        <v>-476500</v>
       </c>
       <c r="H94" s="3">
-        <v>-268800</v>
+        <v>-317200</v>
       </c>
       <c r="I94" s="3">
-        <v>-257700</v>
+        <v>-276400</v>
       </c>
       <c r="J94" s="3">
+        <v>-265000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-269800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-201100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-243000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1627900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-223500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-316200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-181400</v>
+        <v>-1300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3900</v>
+        <v>-186500</v>
       </c>
       <c r="F100" s="3">
-        <v>-360100</v>
+        <v>-4000</v>
       </c>
       <c r="G100" s="3">
-        <v>-82100</v>
+        <v>-370200</v>
       </c>
       <c r="H100" s="3">
-        <v>43600</v>
+        <v>-84400</v>
       </c>
       <c r="I100" s="3">
-        <v>-162500</v>
+        <v>44900</v>
       </c>
       <c r="J100" s="3">
+        <v>-167100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-188000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>111900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-292100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-145300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1931800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>118600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>192600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>50200</v>
+        <v>84000</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>51600</v>
       </c>
       <c r="F101" s="3">
-        <v>41100</v>
+        <v>8900</v>
       </c>
       <c r="G101" s="3">
-        <v>-3600</v>
+        <v>42300</v>
       </c>
       <c r="H101" s="3">
-        <v>-16600</v>
+        <v>-3700</v>
       </c>
       <c r="I101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6900</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-62100</v>
+        <v>-213400</v>
       </c>
       <c r="E102" s="3">
-        <v>-161300</v>
+        <v>-63900</v>
       </c>
       <c r="F102" s="3">
-        <v>222300</v>
+        <v>-165800</v>
       </c>
       <c r="G102" s="3">
-        <v>310400</v>
+        <v>228500</v>
       </c>
       <c r="H102" s="3">
-        <v>434500</v>
+        <v>319100</v>
       </c>
       <c r="I102" s="3">
-        <v>340300</v>
+        <v>446700</v>
       </c>
       <c r="J102" s="3">
+        <v>349800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>185900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-293400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>369900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8800</v>
       </c>
     </row>
